--- a/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D769CD72-636C-3F43-9C2E-8069F076ADF8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A25589E-877D-8B47-B6A0-3F3C2255CA29}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10960" windowWidth="51200" windowHeight="21040" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1340" yWindow="1220" windowWidth="34120" windowHeight="31560" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -51,7 +51,7 @@
     <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="632">
   <si>
     <t>description</t>
   </si>
@@ -1865,9 +1865,6 @@
     <t>[TEXT(${testname.var}) =&gt; text]</t>
   </si>
   <si>
-    <t>working on [XML(${target.location}) =&gt; store(newJmx) count(${testname.xpath_esc})] test names in ${target.location}</t>
-  </si>
-  <si>
     <t>[XML(newJmx) =&gt; text]</t>
   </si>
   <si>
@@ -1898,42 +1895,173 @@
     <t>Update variables</t>
   </si>
   <si>
-    <t>Updating testname ${testname}, enabled=[XML(newJmx) =&gt; 
+    <t>make sure new JMX file is removed</t>
+  </si>
+  <si>
+    <t>Search-n-Replace</t>
+  </si>
+  <si>
+    <t>search and replace based on config</t>
+  </si>
+  <si>
+    <t>searchAndReplace(file,config,saveAs)</t>
+  </si>
+  <si>
+    <t>${search/configFile}</t>
+  </si>
+  <si>
+    <t>${target.newLocation}2</t>
+  </si>
+  <si>
+    <t>${target.newLocation}3</t>
+  </si>
+  <si>
+    <t>list out all available variables</t>
+  </si>
+  <si>
+    <t>variables</t>
+  </si>
+  <si>
+    <t>${variable.prefix}</t>
+  </si>
+  <si>
+    <t>[LIST(${variables}) =&gt; length]</t>
+  </si>
+  <si>
+    <r>
+      <t>Updating testname ${testname}, enabled=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>[XML(newJmx) =&gt; 
  updateAttribute(${xpath},enabled,${testname.enabled}) 
  store(newJmx) 
  extract(//*[@testname='${testname}']/@enabled)
 ]</t>
-  </si>
-  <si>
-    <t>make sure new JMX file is removed</t>
-  </si>
-  <si>
-    <t>write updated XML to output as savepoint, also sub variables with actual values</t>
-  </si>
-  <si>
-    <t>Search-n-Replace</t>
-  </si>
-  <si>
-    <t>search and replace based on config</t>
-  </si>
-  <si>
-    <t>searchAndReplace(file,config,saveAs)</t>
-  </si>
-  <si>
-    <t>${search/configFile}</t>
-  </si>
-  <si>
-    <t>${target.newLocation}2</t>
-  </si>
-  <si>
-    <t>${target.newLocation}3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">working on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>[XML(${target.location}) =&gt; store(newJmx) count(${testname.xpath_esc})]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> test names in ${target.location}</t>
+    </r>
+  </si>
+  <si>
+    <t>perform variable substitution on `jmxText`</t>
+  </si>
+  <si>
+    <t>[LIST(${variables}) =&gt; item(${index}) text append(}) prepend(${)]</t>
+  </si>
+  <si>
+    <t>variable.value</t>
+  </si>
+  <si>
+    <t>[TEXT(${variable.name}) =&gt; text]</t>
+  </si>
+  <si>
+    <t>variable.name</t>
+  </si>
+  <si>
+    <t>target variable</t>
+  </si>
+  <si>
+    <t>[LIST(${variables}) =&gt; item(${index}) text removeStart(${variable.prefix})]</t>
+  </si>
+  <si>
+    <t>LOOP: handle each found variable</t>
+  </si>
+  <si>
+    <t>Replacing ${jmeterVariableCount} variables in ${target.location}</t>
+  </si>
+  <si>
+    <t>- derive variable name</t>
+  </si>
+  <si>
+    <t>- derive variable value</t>
+  </si>
+  <si>
+    <t>- perform replacement</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>replace JMX file of length [XML(newJmx) =&gt; text store(jmxText) length].</t>
+  </si>
+  <si>
+    <t>[TEXT(jmxText) =&gt; text]</t>
+  </si>
+  <si>
+    <t>write updated XML to output as savepoint</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Replacing variables in JMX file of length </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>[TEXT(jmxText) =&gt; 
+ replaceRegex(\$\{${target variable}\},${variable.value}) 
+ text 
+ store(jmxText) 
+ length
+]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>go to next testname</t>
+  </si>
+  <si>
+    <t>go to next variable</t>
+  </si>
+  <si>
+    <t>- derive the variable to look for (without ${…})</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2013,6 +2141,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Consolas"/>
       <family val="2"/>
     </font>
@@ -2106,7 +2241,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2268,6 +2403,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3489,7 +3644,7 @@
         <v>295</v>
       </c>
       <c r="J19" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="V19" t="s">
         <v>106</v>
@@ -4687,7 +4842,7 @@
         <v>479</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -21383,11 +21538,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42103101-CB63-AA4F-9710-638DEEF16C96}">
-  <dimension ref="A1:O1005"/>
+  <dimension ref="A1:O1017"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21396,7 +21551,7 @@
     <col min="2" max="2" width="45.5" style="8" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="9.83203125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="37.83203125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="56.33203125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="61.33203125" style="9" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="23.83203125" style="9" customWidth="1" collapsed="1"/>
     <col min="7" max="9" width="21" style="9" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="25.1640625" style="22" customWidth="1" collapsed="1"/>
@@ -21520,7 +21675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>468</v>
       </c>
@@ -21549,10 +21704,10 @@
       <c r="N5" s="14"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25"/>
       <c r="B6" s="4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>14</v>
@@ -21561,9 +21716,11 @@
         <v>38</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="F6" s="6"/>
+        <v>590</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>522</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -21574,7 +21731,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>572</v>
       </c>
@@ -21603,7 +21760,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25"/>
       <c r="B8" s="4"/>
       <c r="C8" s="12" t="s">
@@ -21628,7 +21785,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25"/>
       <c r="B9" s="4"/>
       <c r="C9" s="12" t="s">
@@ -21653,7 +21810,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25"/>
       <c r="B10" s="4"/>
       <c r="C10" s="12" t="s">
@@ -21663,7 +21820,7 @@
         <v>69</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>589</v>
+        <v>611</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="6"/>
@@ -21676,10 +21833,10 @@
       <c r="N10" s="14"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25"/>
       <c r="B11" s="36" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>13</v>
@@ -21688,7 +21845,7 @@
         <v>320</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>578</v>
@@ -21703,7 +21860,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25"/>
       <c r="B12" s="37"/>
       <c r="C12" s="12" t="s">
@@ -21728,10 +21885,10 @@
       <c r="N12" s="14"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25"/>
       <c r="B13" s="37" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>13</v>
@@ -21755,10 +21912,10 @@
       <c r="N13" s="14"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25"/>
       <c r="B14" s="37" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>13</v>
@@ -21782,10 +21939,10 @@
       <c r="N14" s="14"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25"/>
       <c r="B15" s="37" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>13</v>
@@ -21809,10 +21966,10 @@
       <c r="N15" s="14"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="25"/>
       <c r="B16" s="37" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>13</v>
@@ -21846,7 +22003,7 @@
         <v>69</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="F17"/>
       <c r="G17" s="6"/>
@@ -21859,9 +22016,11 @@
       <c r="N17" s="14"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="25"/>
-      <c r="B18" s="37"/>
+      <c r="B18" s="37" t="s">
+        <v>629</v>
+      </c>
       <c r="C18" s="12" t="s">
         <v>51</v>
       </c>
@@ -21884,9 +22043,9 @@
       <c r="N18" s="14"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="25"/>
-      <c r="B19" s="37"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="12" t="s">
         <v>14</v>
       </c>
@@ -21894,10 +22053,10 @@
         <v>433</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>522</v>
@@ -21911,28 +22070,26 @@
       <c r="N19" s="14"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
-        <v>599</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>602</v>
+        <v>598</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>606</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>84</v>
+        <v>574</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>607</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>522</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="21"/>
@@ -21942,28 +22099,22 @@
       <c r="N20" s="14"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
-        <v>603</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>604</v>
-      </c>
+    <row r="21" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="46"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>605</v>
+        <v>62</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>607</v>
+        <v>493</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>608</v>
-      </c>
+        <v>609</v>
+      </c>
+      <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="21"/>
@@ -21973,13 +22124,21 @@
       <c r="N21" s="14"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+    <row r="22" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="46"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>579</v>
+      </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -21990,13 +22149,20 @@
       <c r="N22" s="14"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+    <row r="23" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="46"/>
+      <c r="B23" s="48" t="s">
+        <v>612</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>625</v>
+      </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -22007,12 +22173,18 @@
       <c r="N23" s="14"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+    <row r="24" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="46"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>620</v>
+      </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -22024,13 +22196,23 @@
       <c r="N24" s="14"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+    <row r="25" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="46"/>
+      <c r="B25" s="49" t="s">
+        <v>619</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>578</v>
+      </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -22041,13 +22223,21 @@
       <c r="N25" s="14"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+    <row r="26" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="46"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>499</v>
+      </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -22058,13 +22248,23 @@
       <c r="N26" s="14"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+    <row r="27" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="46"/>
+      <c r="B27" s="50" t="s">
+        <v>621</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>613</v>
+      </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
@@ -22075,13 +22275,23 @@
       <c r="N27" s="14"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+    <row r="28" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="46"/>
+      <c r="B28" s="50" t="s">
+        <v>622</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>615</v>
+      </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -22092,13 +22302,23 @@
       <c r="N28" s="14"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+    <row r="29" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="46"/>
+      <c r="B29" s="50" t="s">
+        <v>631</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>618</v>
+      </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
@@ -22109,13 +22329,20 @@
       <c r="N29" s="14"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+    <row r="30" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+      <c r="A30" s="46"/>
+      <c r="B30" s="50" t="s">
+        <v>623</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>628</v>
+      </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -22126,13 +22353,23 @@
       <c r="N30" s="14"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="6"/>
+    <row r="31" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="46"/>
+      <c r="B31" s="50" t="s">
+        <v>630</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>505</v>
+      </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -22143,14 +22380,26 @@
       <c r="N31" s="14"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+    <row r="32" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>522</v>
+      </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="21"/>
@@ -22160,14 +22409,28 @@
       <c r="N32" s="14"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+    <row r="33" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="25" t="s">
+        <v>600</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>605</v>
+      </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="21"/>
@@ -22177,7 +22440,7 @@
       <c r="N33" s="14"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="25"/>
       <c r="B34" s="4"/>
       <c r="C34" s="12"/>
@@ -22194,7 +22457,7 @@
       <c r="N34" s="14"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="25"/>
       <c r="B35" s="4"/>
       <c r="C35" s="12"/>
@@ -22211,7 +22474,7 @@
       <c r="N35" s="14"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="25"/>
       <c r="B36" s="4"/>
       <c r="C36" s="12"/>
@@ -22335,7 +22598,7 @@
       <c r="B43" s="4"/>
       <c r="C43" s="12"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
+      <c r="E43" s="21"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -22366,7 +22629,7 @@
     </row>
     <row r="45" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="25"/>
-      <c r="B45" s="4"/>
+      <c r="B45" s="7"/>
       <c r="C45" s="12"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -32717,25 +32980,217 @@
       <c r="N653" s="14"/>
       <c r="O653" s="2"/>
     </row>
-    <row r="654" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A654" s="25"/>
+      <c r="B654" s="4"/>
+      <c r="C654" s="12"/>
+      <c r="D654" s="6"/>
+      <c r="E654" s="6"/>
+      <c r="F654" s="6"/>
+      <c r="G654" s="6"/>
+      <c r="H654" s="6"/>
+      <c r="I654" s="6"/>
+      <c r="J654" s="21"/>
+      <c r="K654" s="2"/>
+      <c r="L654" s="14"/>
+      <c r="M654" s="11"/>
+      <c r="N654" s="14"/>
+      <c r="O654" s="2"/>
+    </row>
+    <row r="655" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A655" s="25"/>
+      <c r="B655" s="4"/>
+      <c r="C655" s="12"/>
+      <c r="D655" s="6"/>
+      <c r="E655" s="6"/>
+      <c r="F655" s="6"/>
+      <c r="G655" s="6"/>
+      <c r="H655" s="6"/>
+      <c r="I655" s="6"/>
+      <c r="J655" s="21"/>
+      <c r="K655" s="2"/>
+      <c r="L655" s="14"/>
+      <c r="M655" s="11"/>
+      <c r="N655" s="14"/>
+      <c r="O655" s="2"/>
+    </row>
+    <row r="656" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A656" s="25"/>
+      <c r="B656" s="4"/>
+      <c r="C656" s="12"/>
+      <c r="D656" s="6"/>
+      <c r="E656" s="6"/>
+      <c r="F656" s="6"/>
+      <c r="G656" s="6"/>
+      <c r="H656" s="6"/>
+      <c r="I656" s="6"/>
+      <c r="J656" s="21"/>
+      <c r="K656" s="2"/>
+      <c r="L656" s="14"/>
+      <c r="M656" s="11"/>
+      <c r="N656" s="14"/>
+      <c r="O656" s="2"/>
+    </row>
+    <row r="657" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A657" s="25"/>
+      <c r="B657" s="4"/>
+      <c r="C657" s="12"/>
+      <c r="D657" s="6"/>
+      <c r="E657" s="6"/>
+      <c r="F657" s="6"/>
+      <c r="G657" s="6"/>
+      <c r="H657" s="6"/>
+      <c r="I657" s="6"/>
+      <c r="J657" s="21"/>
+      <c r="K657" s="2"/>
+      <c r="L657" s="14"/>
+      <c r="M657" s="11"/>
+      <c r="N657" s="14"/>
+      <c r="O657" s="2"/>
+    </row>
+    <row r="658" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A658" s="25"/>
+      <c r="B658" s="4"/>
+      <c r="C658" s="12"/>
+      <c r="D658" s="6"/>
+      <c r="E658" s="6"/>
+      <c r="F658" s="6"/>
+      <c r="G658" s="6"/>
+      <c r="H658" s="6"/>
+      <c r="I658" s="6"/>
+      <c r="J658" s="21"/>
+      <c r="K658" s="2"/>
+      <c r="L658" s="14"/>
+      <c r="M658" s="11"/>
+      <c r="N658" s="14"/>
+      <c r="O658" s="2"/>
+    </row>
+    <row r="659" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A659" s="25"/>
+      <c r="B659" s="4"/>
+      <c r="C659" s="12"/>
+      <c r="D659" s="6"/>
+      <c r="E659" s="6"/>
+      <c r="F659" s="6"/>
+      <c r="G659" s="6"/>
+      <c r="H659" s="6"/>
+      <c r="I659" s="6"/>
+      <c r="J659" s="21"/>
+      <c r="K659" s="2"/>
+      <c r="L659" s="14"/>
+      <c r="M659" s="11"/>
+      <c r="N659" s="14"/>
+      <c r="O659" s="2"/>
+    </row>
+    <row r="660" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A660" s="25"/>
+      <c r="B660" s="4"/>
+      <c r="C660" s="12"/>
+      <c r="D660" s="6"/>
+      <c r="E660" s="6"/>
+      <c r="F660" s="6"/>
+      <c r="G660" s="6"/>
+      <c r="H660" s="6"/>
+      <c r="I660" s="6"/>
+      <c r="J660" s="21"/>
+      <c r="K660" s="2"/>
+      <c r="L660" s="14"/>
+      <c r="M660" s="11"/>
+      <c r="N660" s="14"/>
+      <c r="O660" s="2"/>
+    </row>
+    <row r="661" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A661" s="25"/>
+      <c r="B661" s="4"/>
+      <c r="C661" s="12"/>
+      <c r="D661" s="6"/>
+      <c r="E661" s="6"/>
+      <c r="F661" s="6"/>
+      <c r="G661" s="6"/>
+      <c r="H661" s="6"/>
+      <c r="I661" s="6"/>
+      <c r="J661" s="21"/>
+      <c r="K661" s="2"/>
+      <c r="L661" s="14"/>
+      <c r="M661" s="11"/>
+      <c r="N661" s="14"/>
+      <c r="O661" s="2"/>
+    </row>
+    <row r="662" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A662" s="25"/>
+      <c r="B662" s="4"/>
+      <c r="C662" s="12"/>
+      <c r="D662" s="6"/>
+      <c r="E662" s="6"/>
+      <c r="F662" s="6"/>
+      <c r="G662" s="6"/>
+      <c r="H662" s="6"/>
+      <c r="I662" s="6"/>
+      <c r="J662" s="21"/>
+      <c r="K662" s="2"/>
+      <c r="L662" s="14"/>
+      <c r="M662" s="11"/>
+      <c r="N662" s="14"/>
+      <c r="O662" s="2"/>
+    </row>
+    <row r="663" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A663" s="25"/>
+      <c r="B663" s="4"/>
+      <c r="C663" s="12"/>
+      <c r="D663" s="6"/>
+      <c r="E663" s="6"/>
+      <c r="F663" s="6"/>
+      <c r="G663" s="6"/>
+      <c r="H663" s="6"/>
+      <c r="I663" s="6"/>
+      <c r="J663" s="21"/>
+      <c r="K663" s="2"/>
+      <c r="L663" s="14"/>
+      <c r="M663" s="11"/>
+      <c r="N663" s="14"/>
+      <c r="O663" s="2"/>
+    </row>
+    <row r="664" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A664" s="25"/>
+      <c r="B664" s="4"/>
+      <c r="C664" s="12"/>
+      <c r="D664" s="6"/>
+      <c r="E664" s="6"/>
+      <c r="F664" s="6"/>
+      <c r="G664" s="6"/>
+      <c r="H664" s="6"/>
+      <c r="I664" s="6"/>
+      <c r="J664" s="21"/>
+      <c r="K664" s="2"/>
+      <c r="L664" s="14"/>
+      <c r="M664" s="11"/>
+      <c r="N664" s="14"/>
+      <c r="O664" s="2"/>
+    </row>
+    <row r="665" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A665" s="25"/>
+      <c r="B665" s="4"/>
+      <c r="C665" s="12"/>
+      <c r="D665" s="6"/>
+      <c r="E665" s="6"/>
+      <c r="F665" s="6"/>
+      <c r="G665" s="6"/>
+      <c r="H665" s="6"/>
+      <c r="I665" s="6"/>
+      <c r="J665" s="21"/>
+      <c r="K665" s="2"/>
+      <c r="L665" s="14"/>
+      <c r="M665" s="11"/>
+      <c r="N665" s="14"/>
+      <c r="O665" s="2"/>
+    </row>
+    <row r="666" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="673" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="674" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="675" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -33069,6 +33524,18 @@
     <row r="1003" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1004" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1005" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1006" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1007" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1008" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1009" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1010" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1011" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1012" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1013" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1014" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1015" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1016" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1017" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <mergeCells count="4">
@@ -33089,10 +33556,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C705" xr:uid="{E693959E-FB73-FD4A-AEA2-E7D4F18895ED}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C717" xr:uid="{E693959E-FB73-FD4A-AEA2-E7D4F18895ED}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D703" xr:uid="{048E70AF-FC6A-AA4A-92FC-E2E25B50C744}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D715" xr:uid="{048E70AF-FC6A-AA4A-92FC-E2E25B50C744}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
@@ -44,12 +44,12 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$119</definedName>
+    <definedName name="web">'#system'!$V$2:$V$120</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
     <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="637">
   <si>
     <t>description</t>
   </si>
@@ -2062,13 +2062,22 @@
   <si>
     <t>beautify(json,var)</t>
   </si>
+  <si>
+    <t>dragTo(fromLocator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>beautify(xml,var)</t>
+  </si>
+  <si>
+    <t>minify(xml,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="61" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2360,8 +2369,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="62">
+  <fills count="89">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2710,8 +2820,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="87">
     <border>
       <left/>
       <right/>
@@ -3313,6 +3576,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3320,7 +3865,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="99">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3551,52 +4096,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="37" fontId="29" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="40" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="40" fontId="31" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="43" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="43" fontId="32" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="46" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="46" fontId="33" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="49" fontId="35" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="52" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="52" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="55" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="55" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="58" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="58" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="58" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="58" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="64" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="67" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="70" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="73" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="76" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="79" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="82" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="85" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="85" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="73" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="88" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="73" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3951,7 +4544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB119"/>
+  <dimension ref="A1:AB120"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4550,7 +5143,7 @@
         <v>188</v>
       </c>
       <c r="AA9" t="s">
-        <v>234</v>
+        <v>635</v>
       </c>
     </row>
     <row r="10">
@@ -4588,7 +5181,7 @@
         <v>189</v>
       </c>
       <c r="AA10" t="s">
-        <v>235</v>
+        <v>636</v>
       </c>
     </row>
     <row r="11">
@@ -4623,7 +5216,7 @@
         <v>258</v>
       </c>
       <c r="AA11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12">
@@ -4657,6 +5250,9 @@
       <c r="Y12" t="s">
         <v>190</v>
       </c>
+      <c r="AA12" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -4689,6 +5285,9 @@
       <c r="Y13" t="s">
         <v>191</v>
       </c>
+      <c r="AA13" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -5279,7 +5878,7 @@
         <v>369</v>
       </c>
       <c r="V63" t="s">
-        <v>213</v>
+        <v>634</v>
       </c>
     </row>
     <row r="64">
@@ -5287,7 +5886,7 @@
         <v>344</v>
       </c>
       <c r="V64" t="s">
-        <v>388</v>
+        <v>213</v>
       </c>
     </row>
     <row r="65">
@@ -5295,7 +5894,7 @@
         <v>312</v>
       </c>
       <c r="V65" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
     </row>
     <row r="66">
@@ -5303,7 +5902,7 @@
         <v>268</v>
       </c>
       <c r="V66" t="s">
-        <v>138</v>
+        <v>440</v>
       </c>
     </row>
     <row r="67">
@@ -5311,7 +5910,7 @@
         <v>352</v>
       </c>
       <c r="V67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68">
@@ -5319,7 +5918,7 @@
         <v>313</v>
       </c>
       <c r="V68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69">
@@ -5327,7 +5926,7 @@
         <v>409</v>
       </c>
       <c r="V69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70">
@@ -5335,7 +5934,7 @@
         <v>303</v>
       </c>
       <c r="V70" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71">
@@ -5343,7 +5942,7 @@
         <v>410</v>
       </c>
       <c r="V71" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="72">
@@ -5351,7 +5950,7 @@
         <v>261</v>
       </c>
       <c r="V72" t="s">
-        <v>452</v>
+        <v>197</v>
       </c>
     </row>
     <row r="73">
@@ -5359,7 +5958,7 @@
         <v>343</v>
       </c>
       <c r="V73" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="74">
@@ -5367,7 +5966,7 @@
         <v>279</v>
       </c>
       <c r="V74" t="s">
-        <v>142</v>
+        <v>465</v>
       </c>
     </row>
     <row r="75">
@@ -5375,7 +5974,7 @@
         <v>285</v>
       </c>
       <c r="V75" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76">
@@ -5383,7 +5982,7 @@
         <v>290</v>
       </c>
       <c r="V76" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77">
@@ -5391,7 +5990,7 @@
         <v>428</v>
       </c>
       <c r="V77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78">
@@ -5399,7 +5998,7 @@
         <v>331</v>
       </c>
       <c r="V78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79">
@@ -5407,7 +6006,7 @@
         <v>269</v>
       </c>
       <c r="V79" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80">
@@ -5415,7 +6014,7 @@
         <v>280</v>
       </c>
       <c r="V80" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="81">
@@ -5423,7 +6022,7 @@
         <v>286</v>
       </c>
       <c r="V81" t="s">
-        <v>453</v>
+        <v>199</v>
       </c>
     </row>
     <row r="82">
@@ -5431,7 +6030,7 @@
         <v>275</v>
       </c>
       <c r="V82" t="s">
-        <v>200</v>
+        <v>453</v>
       </c>
     </row>
     <row r="83">
@@ -5439,7 +6038,7 @@
         <v>270</v>
       </c>
       <c r="V83" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84">
@@ -5447,7 +6046,7 @@
         <v>287</v>
       </c>
       <c r="V84" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85">
@@ -5455,7 +6054,7 @@
         <v>271</v>
       </c>
       <c r="V85" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
     </row>
     <row r="86">
@@ -5463,7 +6062,7 @@
         <v>272</v>
       </c>
       <c r="V86" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87">
@@ -5471,7 +6070,7 @@
         <v>304</v>
       </c>
       <c r="V87" t="s">
-        <v>441</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88">
@@ -5479,7 +6078,7 @@
         <v>310</v>
       </c>
       <c r="V88" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="89">
@@ -5487,7 +6086,7 @@
         <v>294</v>
       </c>
       <c r="V89" t="s">
-        <v>203</v>
+        <v>442</v>
       </c>
     </row>
     <row r="90">
@@ -5495,7 +6094,7 @@
         <v>339</v>
       </c>
       <c r="V90" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="91">
@@ -5503,7 +6102,7 @@
         <v>276</v>
       </c>
       <c r="V91" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92">
@@ -5511,141 +6110,146 @@
         <v>277</v>
       </c>
       <c r="V92" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>149</v>
+        <v>382</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>443</v>
+        <v>161</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>162</v>
+        <v>443</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119">
       <c r="V119" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="V120" t="s">
         <v>169</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{FF7B208E-4225-E944-8DA7-AE254538F540}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="31560" windowWidth="34120" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="31560" windowWidth="34120" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="646">
   <si>
     <t>description</t>
   </si>
@@ -2096,13 +2096,16 @@
   <si>
     <t>saveAttributeList(var,locator,attrName)</t>
   </si>
+  <si>
+    <t>assertIENativeMode()</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2293,8 +2296,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="62">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2490,8 +2594,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -2811,6 +3068,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2818,7 +3357,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="83">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3001,52 +3540,100 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="10" fontId="13" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="13" fontId="15" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="16" fontId="16" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="19" fontId="17" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="22" fontId="19" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="25" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="28" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="31" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="31" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="19" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="34" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="19" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="40" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="43" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="46" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="52" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="55" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="58" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="58" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3403,7 +3990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC122"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -4333,7 +4920,7 @@
         <v>391</v>
       </c>
       <c r="W21" t="s">
-        <v>108</v>
+        <v>645</v>
       </c>
     </row>
     <row r="22">
@@ -22210,7 +22797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42103101-CB63-AA4F-9710-638DEEF16C96}">
   <dimension ref="A1:P1017"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>

--- a/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="646">
   <si>
     <t>description</t>
   </si>
@@ -2105,7 +2105,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="61" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2397,8 +2397,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="62">
+  <fills count="89">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2747,8 +2848,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="87">
     <border>
       <left/>
       <right/>
@@ -3350,6 +3604,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3357,7 +3893,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="99">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3588,52 +4124,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="37" fontId="29" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="40" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="40" fontId="31" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="43" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="43" fontId="32" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="46" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="46" fontId="33" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="49" fontId="35" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="52" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="52" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="55" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="55" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="58" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="58" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="58" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="58" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="64" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="67" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="70" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="73" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="76" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="79" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="82" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="85" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="85" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="73" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="88" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="73" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
@@ -20,37 +20,38 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$13</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3861" uniqueCount="651">
   <si>
     <t>description</t>
   </si>
@@ -2099,13 +2100,28 @@
   <si>
     <t>assertIENativeMode()</t>
   </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="61" x14ac:knownFonts="1">
+  <fonts count="109" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2498,8 +2514,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="89">
+  <fills count="170">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3001,8 +3320,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="87">
+  <borders count="171">
     <border>
       <left/>
       <right/>
@@ -3886,6 +4664,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3893,7 +5517,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="147">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4172,52 +5796,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="64" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="64" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="67" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="67" fontId="47" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="70" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="70" fontId="48" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="73" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="73" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="76" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="76" fontId="51" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="79" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="79" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="82" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="82" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="85" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="85" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="85" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="85" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="73" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="73" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="88" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="88" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="73" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="73" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="91" fontId="61" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="94" fontId="63" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="97" fontId="64" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="100" fontId="65" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="103" fontId="67" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="68" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="106" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="109" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="112" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="112" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="100" fontId="73" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="115" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="100" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="118" fontId="77" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="78" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="121" fontId="79" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="124" fontId="80" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="127" fontId="81" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="130" fontId="83" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="84" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="133" fontId="85" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="136" fontId="86" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="139" fontId="87" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="139" fontId="88" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="127" fontId="89" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="142" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="127" fontId="91" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="145" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="148" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="151" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="154" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="157" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="160" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="163" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="166" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="166" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="154" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="169" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="154" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4572,7 +6340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4594,78 +6362,81 @@
         <v>454</v>
       </c>
       <c r="D1" t="s">
+        <v>646</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>346</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>332</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>637</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>195</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>51</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>238</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>52</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>395</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>411</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>412</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>356</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>396</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>53</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>54</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>413</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4680,78 +6451,81 @@
         <v>455</v>
       </c>
       <c r="D2" t="s">
+        <v>647</v>
+      </c>
+      <c r="E2" t="s">
         <v>57</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>71</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>73</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>449</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>78</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>460</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>314</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>383</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>434</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>640</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>416</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>429</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>252</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>216</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>397</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>418</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>419</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>380</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>406</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>96</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>170</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>175</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>182</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>431</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4766,1546 +6540,1558 @@
         <v>456</v>
       </c>
       <c r="D3" t="s">
+        <v>648</v>
+      </c>
+      <c r="E3" t="s">
         <v>457</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>364</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>87</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>48</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>638</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>348</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>340</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>333</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>85</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>641</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>430</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>239</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>217</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>398</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>420</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>381</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>407</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>97</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>171</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>176</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>363</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>183</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>646</v>
       </c>
       <c r="B4" t="s">
         <v>373</v>
       </c>
       <c r="D4" t="s">
+        <v>649</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>72</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>386</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>450</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>639</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>349</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>237</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>334</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>642</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>240</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>218</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>399</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>421</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>357</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>408</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>353</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>172</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>177</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>183</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>423</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>374</v>
       </c>
       <c r="D5" t="s">
+        <v>650</v>
+      </c>
+      <c r="E5" t="s">
         <v>458</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>432</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>335</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>459</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>350</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>461</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>86</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>30</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>241</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>219</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>400</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>422</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>358</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>354</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>173</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>178</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>184</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>424</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
         <v>375</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>387</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>447</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>347</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>71</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>31</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>242</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>390</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>401</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>360</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>98</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>444</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>179</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>185</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>425</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>376</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>223</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>365</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>446</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>16</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>314</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>33</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>243</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>417</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>402</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>359</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>99</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>445</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>180</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>186</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>426</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>377</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>317</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>366</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>327</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>79</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>90</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>244</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>403</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>361</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>100</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>174</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>181</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>187</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>427</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>346</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>378</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>305</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>328</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>38</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>91</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>245</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>404</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>362</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>208</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>188</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
+        <v>346</v>
+      </c>
+      <c r="E10" t="s">
         <v>314</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>351</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>451</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>389</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>436</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>246</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>405</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>256</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>189</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>332</v>
-      </c>
-      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
         <v>254</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>273</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>321</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>633</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>92</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>247</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>257</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>258</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
+        <v>332</v>
+      </c>
+      <c r="E12" t="s">
         <v>318</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>262</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>322</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>42</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>435</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>41</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>248</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>101</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>190</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>637</v>
-      </c>
-      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
         <v>340</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>315</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>323</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>80</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>632</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>93</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>253</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>325</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>191</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>195</v>
-      </c>
-      <c r="D14" t="s">
+        <v>637</v>
+      </c>
+      <c r="E14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>263</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>324</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>81</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>94</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>249</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>102</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15" t="s">
         <v>58</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>264</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>462</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>95</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>250</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>103</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>238</v>
-      </c>
-      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
         <v>384</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>316</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>82</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>43</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>251</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>74</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E17" t="s">
         <v>385</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>88</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>83</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>104</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>395</v>
-      </c>
-      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" t="s">
         <v>414</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>89</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>379</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>411</v>
-      </c>
-      <c r="D19" t="s">
+        <v>395</v>
+      </c>
+      <c r="E19" t="s">
         <v>59</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>295</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>602</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>412</v>
-      </c>
-      <c r="D20" t="s">
+        <v>411</v>
+      </c>
+      <c r="E20" t="s">
         <v>60</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>296</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>44</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>356</v>
-      </c>
-      <c r="D21" t="s">
+        <v>412</v>
+      </c>
+      <c r="E21" t="s">
         <v>255</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>297</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>391</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>396</v>
-      </c>
-      <c r="D22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E22" t="s">
         <v>61</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>298</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>84</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" t="s">
+        <v>396</v>
+      </c>
+      <c r="E23" t="s">
         <v>320</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>289</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>433</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
         <v>62</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>278</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>45</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
         <v>448</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>75</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>46</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
         <v>224</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>281</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>413</v>
-      </c>
-      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s">
         <v>225</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>265</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>413</v>
+      </c>
+      <c r="E28" t="s">
+        <v>574</v>
+      </c>
+      <c r="G28" t="s">
+        <v>282</v>
+      </c>
+      <c r="X28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>226</v>
       </c>
-      <c r="D28" t="s">
-        <v>574</v>
-      </c>
-      <c r="F28" t="s">
-        <v>282</v>
-      </c>
-      <c r="W28" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>575</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>283</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="30">
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>415</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>215</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="31">
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>63</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>274</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="32">
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>64</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>284</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="33">
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>65</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>259</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="34">
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>66</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>329</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>67</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>306</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="36">
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>68</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>260</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="37">
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>69</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>307</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="38">
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>70</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>266</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>77</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>211</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X40" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>288</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X41" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="42">
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>299</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>300</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X43" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>342</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>341</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X45" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>210</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X46" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>319</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X47" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>338</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X48" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="49">
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>367</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X49" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>301</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>355</v>
       </c>
-      <c r="W51" t="s">
+      <c r="X51" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>330</v>
       </c>
-      <c r="W52" t="s">
+      <c r="X52" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="53">
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>267</v>
       </c>
-      <c r="W53" t="s">
+      <c r="X53" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>291</v>
       </c>
-      <c r="W54" t="s">
+      <c r="X54" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="55">
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>292</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X55" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>293</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X56" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>302</v>
       </c>
-      <c r="W57" t="s">
+      <c r="X57" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>311</v>
       </c>
-      <c r="W58" t="s">
+      <c r="X58" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>336</v>
       </c>
-      <c r="W59" t="s">
+      <c r="X59" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="60">
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>308</v>
       </c>
-      <c r="W60" t="s">
+      <c r="X60" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>309</v>
       </c>
-      <c r="W61" t="s">
+      <c r="X61" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>368</v>
       </c>
-      <c r="W62" t="s">
+      <c r="X62" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="63">
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>369</v>
       </c>
-      <c r="W63" t="s">
+      <c r="X63" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="64">
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>344</v>
       </c>
-      <c r="W64" t="s">
+      <c r="X64" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>312</v>
       </c>
-      <c r="W65" t="s">
+      <c r="X65" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>268</v>
       </c>
-      <c r="W66" t="s">
+      <c r="X66" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>352</v>
       </c>
-      <c r="W67" t="s">
+      <c r="X67" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="68">
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>313</v>
       </c>
-      <c r="W68" t="s">
+      <c r="X68" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="69">
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>409</v>
       </c>
-      <c r="W69" t="s">
+      <c r="X69" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>303</v>
       </c>
-      <c r="W70" t="s">
+      <c r="X70" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>410</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="72">
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>261</v>
       </c>
-      <c r="W72" t="s">
+      <c r="X72" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>343</v>
       </c>
-      <c r="W73" t="s">
+      <c r="X73" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>279</v>
       </c>
-      <c r="W74" t="s">
+      <c r="X74" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>285</v>
       </c>
-      <c r="W75" t="s">
+      <c r="X75" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="76">
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>290</v>
       </c>
-      <c r="W76" t="s">
+      <c r="X76" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="77">
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>428</v>
       </c>
-      <c r="W77" t="s">
+      <c r="X77" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="78">
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>331</v>
       </c>
-      <c r="W78" t="s">
+      <c r="X78" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="79">
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>269</v>
       </c>
-      <c r="W79" t="s">
+      <c r="X79" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>280</v>
       </c>
-      <c r="W80" t="s">
+      <c r="X80" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="81">
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>286</v>
       </c>
-      <c r="W81" t="s">
+      <c r="X81" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="82">
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>275</v>
       </c>
-      <c r="W82" t="s">
+      <c r="X82" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="83">
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>270</v>
       </c>
-      <c r="W83" t="s">
+      <c r="X83" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="84">
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>287</v>
       </c>
-      <c r="W84" t="s">
+      <c r="X84" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="85">
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>271</v>
       </c>
-      <c r="W85" t="s">
+      <c r="X85" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="86">
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>272</v>
       </c>
-      <c r="W86" t="s">
+      <c r="X86" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="87">
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>304</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X87" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="88">
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>310</v>
       </c>
-      <c r="W88" t="s">
+      <c r="X88" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="89">
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>294</v>
       </c>
-      <c r="W89" t="s">
+      <c r="X89" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="90">
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>339</v>
       </c>
-      <c r="W90" t="s">
+      <c r="X90" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="91">
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>276</v>
       </c>
-      <c r="W91" t="s">
+      <c r="X91" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="92">
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>277</v>
       </c>
-      <c r="W92" t="s">
+      <c r="X92" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="93">
-      <c r="W93" t="s">
+      <c r="X93" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="94">
-      <c r="W94" t="s">
+      <c r="X94" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="95">
-      <c r="W95" t="s">
+      <c r="X95" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="96">
-      <c r="W96" t="s">
+      <c r="X96" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="97">
-      <c r="W97" t="s">
+      <c r="X97" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="98">
-      <c r="W98" t="s">
+      <c r="X98" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="99">
-      <c r="W99" t="s">
+      <c r="X99" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="100">
-      <c r="W100" t="s">
+      <c r="X100" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="101">
-      <c r="W101" t="s">
+      <c r="X101" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="102">
-      <c r="W102" t="s">
+      <c r="X102" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="103">
-      <c r="W103" t="s">
+      <c r="X103" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="104">
-      <c r="W104" t="s">
+      <c r="X104" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="105">
-      <c r="W105" t="s">
+      <c r="X105" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="106">
-      <c r="W106" t="s">
+      <c r="X106" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="107">
-      <c r="W107" t="s">
+      <c r="X107" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="108">
-      <c r="W108" t="s">
+      <c r="X108" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="109">
-      <c r="W109" t="s">
+      <c r="X109" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="110">
-      <c r="W110" t="s">
+      <c r="X110" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="111">
-      <c r="W111" t="s">
+      <c r="X111" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="112">
-      <c r="W112" t="s">
+      <c r="X112" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="113">
-      <c r="W113" t="s">
+      <c r="X113" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="114">
-      <c r="W114" t="s">
+      <c r="X114" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="115">
-      <c r="W115" t="s">
+      <c r="X115" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="116">
-      <c r="W116" t="s">
+      <c r="X116" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="117">
-      <c r="W117" t="s">
+      <c r="X117" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="118">
-      <c r="W118" t="s">
+      <c r="X118" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="119">
-      <c r="W119" t="s">
+      <c r="X119" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="120">
-      <c r="W120" t="s">
+      <c r="X120" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="121">
-      <c r="W121" t="s">
+      <c r="X121" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="122">
-      <c r="W122" t="s">
+      <c r="X122" t="s">
         <v>169</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
@@ -49,7 +49,7 @@
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$13</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
     <definedName name="macro">'#system'!$N$2:$N$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3861" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4366" uniqueCount="656">
   <si>
     <t>description</t>
   </si>
@@ -2115,13 +2115,28 @@
   <si>
     <t>sendMessage(profile,queue,message,var)</t>
   </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="109" x14ac:knownFonts="1">
+  <fonts count="125" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2817,8 +2832,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="170">
+  <fills count="197">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3779,8 +3895,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="171">
+  <borders count="199">
     <border>
       <left/>
       <right/>
@@ -5510,6 +5779,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5517,7 +6068,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="163">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5940,52 +6491,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="145" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="145" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="148" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="148" fontId="95" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="151" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="151" fontId="96" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="154" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="154" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="157" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="157" fontId="99" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="160" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="160" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="163" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="163" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="166" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="166" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="166" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="166" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="154" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="154" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="169" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="169" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="154" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="154" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="172" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="175" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="178" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="181" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="184" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="187" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="190" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="193" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="193" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="181" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="196" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="181" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6526,7 +7125,7 @@
         <v>431</v>
       </c>
       <c r="AC2" t="s">
-        <v>227</v>
+        <v>651</v>
       </c>
     </row>
     <row r="3">
@@ -6609,7 +7208,7 @@
         <v>183</v>
       </c>
       <c r="AC3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4">
@@ -6689,7 +7288,7 @@
         <v>423</v>
       </c>
       <c r="AC4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5">
@@ -6757,7 +7356,7 @@
         <v>424</v>
       </c>
       <c r="AC5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6">
@@ -6816,7 +7415,7 @@
         <v>425</v>
       </c>
       <c r="AC6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7">
@@ -6872,7 +7471,7 @@
         <v>426</v>
       </c>
       <c r="AC7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8">
@@ -6925,7 +7524,7 @@
         <v>427</v>
       </c>
       <c r="AC8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9">
@@ -6969,7 +7568,7 @@
         <v>188</v>
       </c>
       <c r="AC9" t="s">
-        <v>635</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10">
@@ -7007,7 +7606,7 @@
         <v>189</v>
       </c>
       <c r="AC10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="11">
@@ -7042,7 +7641,7 @@
         <v>258</v>
       </c>
       <c r="AC11" t="s">
-        <v>234</v>
+        <v>652</v>
       </c>
     </row>
     <row r="12">
@@ -7077,7 +7676,7 @@
         <v>190</v>
       </c>
       <c r="AC12" t="s">
-        <v>235</v>
+        <v>653</v>
       </c>
     </row>
     <row r="13">
@@ -7112,7 +7711,7 @@
         <v>191</v>
       </c>
       <c r="AC13" t="s">
-        <v>236</v>
+        <v>636</v>
       </c>
     </row>
     <row r="14">
@@ -7146,6 +7745,9 @@
       <c r="AA14" t="s">
         <v>192</v>
       </c>
+      <c r="AC14" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -7175,6 +7777,9 @@
       <c r="AA15" t="s">
         <v>193</v>
       </c>
+      <c r="AC15" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -7201,6 +7806,9 @@
       <c r="AA16" t="s">
         <v>194</v>
       </c>
+      <c r="AC16" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -7221,6 +7829,9 @@
       <c r="AA17" t="s">
         <v>466</v>
       </c>
+      <c r="AC17" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -7237,6 +7848,9 @@
       </c>
       <c r="X18" t="s">
         <v>105</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="19">

--- a/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
@@ -44,12 +44,12 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="web">'#system'!$X$2:$X$123</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
     <definedName name="macro">'#system'!$N$2:$N$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4366" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4875" uniqueCount="660">
   <si>
     <t>description</t>
   </si>
@@ -2130,13 +2130,25 @@
   <si>
     <t>replace(xml,xpath,content,var)</t>
   </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="125" x14ac:knownFonts="1">
+  <fonts count="141" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2933,8 +2945,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="197">
+  <fills count="224">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4048,8 +4161,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="199">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -6061,6 +6327,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6068,7 +6616,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="179">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6539,52 +7087,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="172" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="172" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="110" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="175" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="175" fontId="111" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="178" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="178" fontId="112" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="181" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="181" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="184" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="184" fontId="115" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="187" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="187" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="190" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="190" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="193" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="193" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="193" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="193" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="181" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="181" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="196" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="196" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="181" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="181" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="199" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="202" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="205" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="208" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="211" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="214" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="217" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="220" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="220" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="208" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="223" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="208" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6939,7 +7535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD122"/>
+  <dimension ref="A1:AD123"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7711,7 +8307,7 @@
         <v>191</v>
       </c>
       <c r="AC13" t="s">
-        <v>636</v>
+        <v>657</v>
       </c>
     </row>
     <row r="14">
@@ -7746,7 +8342,7 @@
         <v>192</v>
       </c>
       <c r="AC14" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
     </row>
     <row r="15">
@@ -7778,7 +8374,7 @@
         <v>193</v>
       </c>
       <c r="AC15" t="s">
-        <v>655</v>
+        <v>636</v>
       </c>
     </row>
     <row r="16">
@@ -7807,7 +8403,7 @@
         <v>194</v>
       </c>
       <c r="AC16" t="s">
-        <v>234</v>
+        <v>654</v>
       </c>
     </row>
     <row r="17">
@@ -7830,7 +8426,7 @@
         <v>466</v>
       </c>
       <c r="AC17" t="s">
-        <v>235</v>
+        <v>655</v>
       </c>
     </row>
     <row r="18">
@@ -7850,7 +8446,7 @@
         <v>105</v>
       </c>
       <c r="AC18" t="s">
-        <v>236</v>
+        <v>659</v>
       </c>
     </row>
     <row r="19">
@@ -7869,6 +8465,9 @@
       <c r="X19" t="s">
         <v>106</v>
       </c>
+      <c r="AC19" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -7886,6 +8485,9 @@
       <c r="X20" t="s">
         <v>107</v>
       </c>
+      <c r="AC20" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -7903,6 +8505,9 @@
       <c r="X21" t="s">
         <v>645</v>
       </c>
+      <c r="AC21" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -8452,7 +9057,7 @@
         <v>269</v>
       </c>
       <c r="X79" t="s">
-        <v>145</v>
+        <v>656</v>
       </c>
     </row>
     <row r="80">
@@ -8460,7 +9065,7 @@
         <v>280</v>
       </c>
       <c r="X80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81">
@@ -8468,7 +9073,7 @@
         <v>286</v>
       </c>
       <c r="X81" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82">
@@ -8476,7 +9081,7 @@
         <v>275</v>
       </c>
       <c r="X82" t="s">
-        <v>644</v>
+        <v>198</v>
       </c>
     </row>
     <row r="83">
@@ -8484,7 +9089,7 @@
         <v>270</v>
       </c>
       <c r="X83" t="s">
-        <v>199</v>
+        <v>644</v>
       </c>
     </row>
     <row r="84">
@@ -8492,7 +9097,7 @@
         <v>287</v>
       </c>
       <c r="X84" t="s">
-        <v>453</v>
+        <v>199</v>
       </c>
     </row>
     <row r="85">
@@ -8500,7 +9105,7 @@
         <v>271</v>
       </c>
       <c r="X85" t="s">
-        <v>200</v>
+        <v>453</v>
       </c>
     </row>
     <row r="86">
@@ -8508,7 +9113,7 @@
         <v>272</v>
       </c>
       <c r="X86" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="87">
@@ -8516,7 +9121,7 @@
         <v>304</v>
       </c>
       <c r="X87" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="88">
@@ -8524,7 +9129,7 @@
         <v>310</v>
       </c>
       <c r="X88" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
     </row>
     <row r="89">
@@ -8532,7 +9137,7 @@
         <v>294</v>
       </c>
       <c r="X89" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90">
@@ -8540,7 +9145,7 @@
         <v>339</v>
       </c>
       <c r="X90" t="s">
-        <v>441</v>
+        <v>202</v>
       </c>
     </row>
     <row r="91">
@@ -8548,7 +9153,7 @@
         <v>276</v>
       </c>
       <c r="X91" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="92">
@@ -8556,156 +9161,161 @@
         <v>277</v>
       </c>
       <c r="X92" t="s">
-        <v>203</v>
+        <v>442</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>149</v>
+        <v>382</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>443</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>162</v>
+        <v>443</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="X123" t="s">
         <v>169</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
@@ -35,7 +35,7 @@
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
     <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
     <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
     <definedName name="redis">'#system'!$S$2:$S$10</definedName>
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$123</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4875" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5896" uniqueCount="663">
   <si>
     <t>description</t>
   </si>
@@ -2142,13 +2142,22 @@
   <si>
     <t>replaceIn(xml,xpath,content,var)</t>
   </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="141" x14ac:knownFonts="1">
+  <fonts count="173" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3046,8 +3055,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="224">
+  <fills count="278">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4314,8 +4525,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="283">
     <border>
       <left/>
       <right/>
@@ -6609,6 +7126,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6616,7 +7697,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="211">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7135,52 +8216,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="199" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="199" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="126" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="202" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="202" fontId="127" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="205" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="205" fontId="128" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="208" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="208" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="211" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="211" fontId="131" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="214" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="214" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="217" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="217" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="220" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="220" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="220" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="220" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="208" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="208" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="223" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="223" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="208" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="208" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="140" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="226" fontId="141" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="142" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="229" fontId="143" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="232" fontId="144" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="235" fontId="145" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="238" fontId="147" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="148" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="241" fontId="149" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="244" fontId="150" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="247" fontId="151" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="247" fontId="152" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="235" fontId="153" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="250" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="235" fontId="155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="156" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="253" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="256" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="259" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="262" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="265" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="268" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="271" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="274" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="274" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="262" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="277" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="262" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7535,7 +8712,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD123"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8362,7 +9539,7 @@
         <v>40</v>
       </c>
       <c r="P15" t="s">
-        <v>95</v>
+        <v>660</v>
       </c>
       <c r="Q15" t="s">
         <v>250</v>
@@ -8393,6 +9570,9 @@
       <c r="M16" t="s">
         <v>43</v>
       </c>
+      <c r="P16" t="s">
+        <v>661</v>
+      </c>
       <c r="Q16" t="s">
         <v>251</v>
       </c>
@@ -8420,7 +9600,7 @@
         <v>83</v>
       </c>
       <c r="X17" t="s">
-        <v>104</v>
+        <v>662</v>
       </c>
       <c r="AA17" t="s">
         <v>466</v>
@@ -8443,7 +9623,7 @@
         <v>379</v>
       </c>
       <c r="X18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AC18" t="s">
         <v>659</v>
@@ -8463,7 +9643,7 @@
         <v>602</v>
       </c>
       <c r="X19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AC19" t="s">
         <v>234</v>
@@ -8483,7 +9663,7 @@
         <v>44</v>
       </c>
       <c r="X20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC20" t="s">
         <v>235</v>
@@ -8503,7 +9683,7 @@
         <v>391</v>
       </c>
       <c r="X21" t="s">
-        <v>645</v>
+        <v>107</v>
       </c>
       <c r="AC21" t="s">
         <v>236</v>
@@ -8523,7 +9703,7 @@
         <v>84</v>
       </c>
       <c r="X22" t="s">
-        <v>109</v>
+        <v>645</v>
       </c>
     </row>
     <row r="23">
@@ -8540,7 +9720,7 @@
         <v>433</v>
       </c>
       <c r="X23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24">
@@ -8557,7 +9737,7 @@
         <v>45</v>
       </c>
       <c r="X24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25">
@@ -8574,7 +9754,7 @@
         <v>46</v>
       </c>
       <c r="X25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26">
@@ -8588,7 +9768,7 @@
         <v>281</v>
       </c>
       <c r="X26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27">
@@ -8602,7 +9782,7 @@
         <v>265</v>
       </c>
       <c r="X27" t="s">
-        <v>326</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28">
@@ -8616,7 +9796,7 @@
         <v>282</v>
       </c>
       <c r="X28" t="s">
-        <v>114</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29">
@@ -8630,7 +9810,7 @@
         <v>283</v>
       </c>
       <c r="X29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30">
@@ -8641,7 +9821,7 @@
         <v>215</v>
       </c>
       <c r="X30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31">
@@ -8652,7 +9832,7 @@
         <v>274</v>
       </c>
       <c r="X31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32">
@@ -8663,7 +9843,7 @@
         <v>284</v>
       </c>
       <c r="X32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33">
@@ -8674,7 +9854,7 @@
         <v>259</v>
       </c>
       <c r="X33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34">
@@ -8685,7 +9865,7 @@
         <v>329</v>
       </c>
       <c r="X34" t="s">
-        <v>209</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35">
@@ -8696,7 +9876,7 @@
         <v>306</v>
       </c>
       <c r="X35" t="s">
-        <v>120</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36">
@@ -8707,7 +9887,7 @@
         <v>260</v>
       </c>
       <c r="X36" t="s">
-        <v>337</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37">
@@ -8718,7 +9898,7 @@
         <v>307</v>
       </c>
       <c r="X37" t="s">
-        <v>437</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38">
@@ -8729,7 +9909,7 @@
         <v>266</v>
       </c>
       <c r="X38" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
     </row>
     <row r="39">
@@ -8737,7 +9917,7 @@
         <v>77</v>
       </c>
       <c r="X39" t="s">
-        <v>121</v>
+        <v>392</v>
       </c>
     </row>
     <row r="40">
@@ -8745,7 +9925,7 @@
         <v>211</v>
       </c>
       <c r="X40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41">
@@ -8753,7 +9933,7 @@
         <v>288</v>
       </c>
       <c r="X41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42">
@@ -8761,7 +9941,7 @@
         <v>299</v>
       </c>
       <c r="X42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43">
@@ -8769,7 +9949,7 @@
         <v>300</v>
       </c>
       <c r="X43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44">
@@ -8777,7 +9957,7 @@
         <v>342</v>
       </c>
       <c r="X44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45">
@@ -8785,7 +9965,7 @@
         <v>341</v>
       </c>
       <c r="X45" t="s">
-        <v>438</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46">
@@ -8793,7 +9973,7 @@
         <v>210</v>
       </c>
       <c r="X46" t="s">
-        <v>212</v>
+        <v>438</v>
       </c>
     </row>
     <row r="47">
@@ -8801,7 +9981,7 @@
         <v>319</v>
       </c>
       <c r="X47" t="s">
-        <v>76</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48">
@@ -8809,7 +9989,7 @@
         <v>338</v>
       </c>
       <c r="X48" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49">
@@ -8817,7 +9997,7 @@
         <v>367</v>
       </c>
       <c r="X49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50">
@@ -8825,7 +10005,7 @@
         <v>301</v>
       </c>
       <c r="X50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51">
@@ -8833,7 +10013,7 @@
         <v>355</v>
       </c>
       <c r="X51" t="s">
-        <v>643</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52">
@@ -8841,7 +10021,7 @@
         <v>330</v>
       </c>
       <c r="X52" t="s">
-        <v>463</v>
+        <v>643</v>
       </c>
     </row>
     <row r="53">
@@ -8849,7 +10029,7 @@
         <v>267</v>
       </c>
       <c r="X53" t="s">
-        <v>130</v>
+        <v>463</v>
       </c>
     </row>
     <row r="54">
@@ -8857,7 +10037,7 @@
         <v>291</v>
       </c>
       <c r="X54" t="s">
-        <v>345</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55">
@@ -8865,7 +10045,7 @@
         <v>292</v>
       </c>
       <c r="X55" t="s">
-        <v>464</v>
+        <v>345</v>
       </c>
     </row>
     <row r="56">
@@ -8873,7 +10053,7 @@
         <v>293</v>
       </c>
       <c r="X56" t="s">
-        <v>131</v>
+        <v>464</v>
       </c>
     </row>
     <row r="57">
@@ -8881,7 +10061,7 @@
         <v>302</v>
       </c>
       <c r="X57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58">
@@ -8889,7 +10069,7 @@
         <v>311</v>
       </c>
       <c r="X58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59">
@@ -8897,7 +10077,7 @@
         <v>336</v>
       </c>
       <c r="X59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60">
@@ -8905,7 +10085,7 @@
         <v>308</v>
       </c>
       <c r="X60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61">
@@ -8913,7 +10093,7 @@
         <v>309</v>
       </c>
       <c r="X61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62">
@@ -8921,7 +10101,7 @@
         <v>368</v>
       </c>
       <c r="X62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63">
@@ -8929,7 +10109,7 @@
         <v>369</v>
       </c>
       <c r="X63" t="s">
-        <v>439</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64">
@@ -8937,7 +10117,7 @@
         <v>344</v>
       </c>
       <c r="X64" t="s">
-        <v>634</v>
+        <v>439</v>
       </c>
     </row>
     <row r="65">
@@ -8945,7 +10125,7 @@
         <v>312</v>
       </c>
       <c r="X65" t="s">
-        <v>213</v>
+        <v>634</v>
       </c>
     </row>
     <row r="66">
@@ -8953,7 +10133,7 @@
         <v>268</v>
       </c>
       <c r="X66" t="s">
-        <v>388</v>
+        <v>213</v>
       </c>
     </row>
     <row r="67">
@@ -8961,7 +10141,7 @@
         <v>352</v>
       </c>
       <c r="X67" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
     </row>
     <row r="68">
@@ -8969,7 +10149,7 @@
         <v>313</v>
       </c>
       <c r="X68" t="s">
-        <v>138</v>
+        <v>440</v>
       </c>
     </row>
     <row r="69">
@@ -8977,7 +10157,7 @@
         <v>409</v>
       </c>
       <c r="X69" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70">
@@ -8985,7 +10165,7 @@
         <v>303</v>
       </c>
       <c r="X70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71">
@@ -8993,7 +10173,7 @@
         <v>410</v>
       </c>
       <c r="X71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72">
@@ -9001,7 +10181,7 @@
         <v>261</v>
       </c>
       <c r="X72" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73">
@@ -9009,7 +10189,7 @@
         <v>343</v>
       </c>
       <c r="X73" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="74">
@@ -9017,7 +10197,7 @@
         <v>279</v>
       </c>
       <c r="X74" t="s">
-        <v>452</v>
+        <v>197</v>
       </c>
     </row>
     <row r="75">
@@ -9025,7 +10205,7 @@
         <v>285</v>
       </c>
       <c r="X75" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="76">
@@ -9033,7 +10213,7 @@
         <v>290</v>
       </c>
       <c r="X76" t="s">
-        <v>142</v>
+        <v>465</v>
       </c>
     </row>
     <row r="77">
@@ -9041,7 +10221,7 @@
         <v>428</v>
       </c>
       <c r="X77" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78">
@@ -9049,7 +10229,7 @@
         <v>331</v>
       </c>
       <c r="X78" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79">
@@ -9057,7 +10237,7 @@
         <v>269</v>
       </c>
       <c r="X79" t="s">
-        <v>656</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80">
@@ -9065,7 +10245,7 @@
         <v>280</v>
       </c>
       <c r="X80" t="s">
-        <v>145</v>
+        <v>656</v>
       </c>
     </row>
     <row r="81">
@@ -9073,7 +10253,7 @@
         <v>286</v>
       </c>
       <c r="X81" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82">
@@ -9081,7 +10261,7 @@
         <v>275</v>
       </c>
       <c r="X82" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83">
@@ -9089,7 +10269,7 @@
         <v>270</v>
       </c>
       <c r="X83" t="s">
-        <v>644</v>
+        <v>198</v>
       </c>
     </row>
     <row r="84">
@@ -9097,7 +10277,7 @@
         <v>287</v>
       </c>
       <c r="X84" t="s">
-        <v>199</v>
+        <v>644</v>
       </c>
     </row>
     <row r="85">
@@ -9105,7 +10285,7 @@
         <v>271</v>
       </c>
       <c r="X85" t="s">
-        <v>453</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86">
@@ -9113,7 +10293,7 @@
         <v>272</v>
       </c>
       <c r="X86" t="s">
-        <v>200</v>
+        <v>453</v>
       </c>
     </row>
     <row r="87">
@@ -9121,7 +10301,7 @@
         <v>304</v>
       </c>
       <c r="X87" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88">
@@ -9129,7 +10309,7 @@
         <v>310</v>
       </c>
       <c r="X88" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89">
@@ -9137,7 +10317,7 @@
         <v>294</v>
       </c>
       <c r="X89" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
     </row>
     <row r="90">
@@ -9145,7 +10325,7 @@
         <v>339</v>
       </c>
       <c r="X90" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
     </row>
     <row r="91">
@@ -9153,7 +10333,7 @@
         <v>276</v>
       </c>
       <c r="X91" t="s">
-        <v>441</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92">
@@ -9161,161 +10341,166 @@
         <v>277</v>
       </c>
       <c r="X92" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>203</v>
+        <v>442</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>149</v>
+        <v>382</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>443</v>
+        <v>161</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>162</v>
+        <v>443</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="X124" t="s">
         <v>169</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="web">'#system'!$X$2:$X$125</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5896" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6919" uniqueCount="664">
   <si>
     <t>description</t>
   </si>
@@ -2151,13 +2151,16 @@
   <si>
     <t>assertElementsPresent(prefix)</t>
   </si>
+  <si>
+    <t>saveValues(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="173" x14ac:knownFonts="1">
+  <fonts count="205" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3257,8 +3260,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="278">
+  <fills count="332">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4831,8 +5036,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="283">
+  <borders count="339">
     <border>
       <left/>
       <right/>
@@ -7690,6 +8201,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7697,7 +8772,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="243">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8312,52 +9387,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="253" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="253" fontId="157" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="158" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="256" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="256" fontId="159" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="259" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="259" fontId="160" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="262" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="262" fontId="161" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="265" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="265" fontId="163" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="164" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="268" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="268" fontId="165" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="271" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="271" fontId="166" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="274" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="274" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="274" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="274" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="262" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="262" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="277" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="277" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="262" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="262" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="280" fontId="173" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="174" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="283" fontId="175" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="286" fontId="176" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="289" fontId="177" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="178" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="292" fontId="179" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="180" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="295" fontId="181" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="298" fontId="182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="301" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="301" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="289" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="304" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="289" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="188" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="307" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="310" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="313" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="316" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="319" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="322" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="325" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="328" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="328" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="316" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="331" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="316" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8712,7 +9883,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD124"/>
+  <dimension ref="A1:AD125"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -10381,126 +11552,131 @@
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>148</v>
+        <v>663</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>149</v>
+        <v>382</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>443</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>162</v>
+        <v>443</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="X125" t="s">
         <v>169</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
@@ -21,14 +21,14 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$O$2:$O$2</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6919" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7435" uniqueCount="668">
   <si>
     <t>description</t>
   </si>
@@ -2154,13 +2154,25 @@
   <si>
     <t>saveValues(var,locator)</t>
   </si>
+  <si>
+    <t>toExcel(csvFile,excel,worksheet,startCell)</t>
+  </si>
+  <si>
+    <t>copyFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>deleteFilesByRegex(sourceDir,regex)</t>
+  </si>
+  <si>
+    <t>moveFilesByRegex(sourceDir,regex,target)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="205" x14ac:knownFonts="1">
+  <fonts count="221" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3462,8 +3474,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="332">
+  <fills count="359">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5342,8 +5455,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="339">
+  <borders count="367">
     <border>
       <left/>
       <right/>
@@ -8765,6 +9031,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8772,7 +9320,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="243">
+  <cellXfs count="259">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9483,52 +10031,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="307" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="307" fontId="189" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="190" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="310" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="310" fontId="191" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="313" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="313" fontId="192" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="316" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="316" fontId="193" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="194" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="319" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="319" fontId="195" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="196" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="322" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="322" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="325" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="325" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="328" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="328" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="328" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="328" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="316" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="316" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="331" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="331" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="316" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="316" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="204" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="334" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="337" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="340" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="343" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="346" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="349" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="352" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="355" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="355" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="343" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="358" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="343" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10313,6 +10909,9 @@
       <c r="E6" t="s">
         <v>27</v>
       </c>
+      <c r="F6" t="s">
+        <v>664</v>
+      </c>
       <c r="G6" t="s">
         <v>387</v>
       </c>
@@ -10435,7 +11034,7 @@
         <v>327</v>
       </c>
       <c r="K8" t="s">
-        <v>79</v>
+        <v>665</v>
       </c>
       <c r="M8" t="s">
         <v>34</v>
@@ -10488,7 +11087,7 @@
         <v>328</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="M9" t="s">
         <v>35</v>
@@ -10529,7 +11128,7 @@
         <v>451</v>
       </c>
       <c r="K10" t="s">
-        <v>389</v>
+        <v>38</v>
       </c>
       <c r="M10" t="s">
         <v>36</v>
@@ -10567,7 +11166,7 @@
         <v>321</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>666</v>
       </c>
       <c r="M11" t="s">
         <v>633</v>
@@ -10602,7 +11201,7 @@
         <v>322</v>
       </c>
       <c r="K12" t="s">
-        <v>42</v>
+        <v>389</v>
       </c>
       <c r="M12" t="s">
         <v>435</v>
@@ -10637,7 +11236,7 @@
         <v>323</v>
       </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
         <v>632</v>
@@ -10672,7 +11271,7 @@
         <v>324</v>
       </c>
       <c r="K14" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="M14" t="s">
         <v>39</v>
@@ -10704,7 +11303,7 @@
         <v>264</v>
       </c>
       <c r="K15" t="s">
-        <v>462</v>
+        <v>667</v>
       </c>
       <c r="M15" t="s">
         <v>40</v>
@@ -10736,7 +11335,7 @@
         <v>316</v>
       </c>
       <c r="K16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M16" t="s">
         <v>43</v>
@@ -10768,7 +11367,7 @@
         <v>88</v>
       </c>
       <c r="K17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X17" t="s">
         <v>662</v>
@@ -10791,7 +11390,7 @@
         <v>89</v>
       </c>
       <c r="K18" t="s">
-        <v>379</v>
+        <v>462</v>
       </c>
       <c r="X18" t="s">
         <v>104</v>
@@ -10811,7 +11410,7 @@
         <v>295</v>
       </c>
       <c r="K19" t="s">
-        <v>602</v>
+        <v>82</v>
       </c>
       <c r="X19" t="s">
         <v>105</v>
@@ -10831,7 +11430,7 @@
         <v>296</v>
       </c>
       <c r="K20" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="X20" t="s">
         <v>106</v>
@@ -10851,7 +11450,7 @@
         <v>297</v>
       </c>
       <c r="K21" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="X21" t="s">
         <v>107</v>
@@ -10871,7 +11470,7 @@
         <v>298</v>
       </c>
       <c r="K22" t="s">
-        <v>84</v>
+        <v>602</v>
       </c>
       <c r="X22" t="s">
         <v>645</v>
@@ -10888,7 +11487,7 @@
         <v>289</v>
       </c>
       <c r="K23" t="s">
-        <v>433</v>
+        <v>44</v>
       </c>
       <c r="X23" t="s">
         <v>109</v>
@@ -10905,7 +11504,7 @@
         <v>278</v>
       </c>
       <c r="K24" t="s">
-        <v>45</v>
+        <v>391</v>
       </c>
       <c r="X24" t="s">
         <v>110</v>
@@ -10922,7 +11521,7 @@
         <v>75</v>
       </c>
       <c r="K25" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="X25" t="s">
         <v>111</v>
@@ -10938,6 +11537,9 @@
       <c r="G26" t="s">
         <v>281</v>
       </c>
+      <c r="K26" t="s">
+        <v>433</v>
+      </c>
       <c r="X26" t="s">
         <v>112</v>
       </c>
@@ -10952,6 +11554,9 @@
       <c r="G27" t="s">
         <v>265</v>
       </c>
+      <c r="K27" t="s">
+        <v>45</v>
+      </c>
       <c r="X27" t="s">
         <v>113</v>
       </c>
@@ -10965,6 +11570,9 @@
       </c>
       <c r="G28" t="s">
         <v>282</v>
+      </c>
+      <c r="K28" t="s">
+        <v>46</v>
       </c>
       <c r="X28" t="s">
         <v>326</v>

--- a/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
@@ -24,7 +24,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7435" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7953" uniqueCount="670">
   <si>
     <t>description</t>
   </si>
@@ -2166,13 +2166,19 @@
   <si>
     <t>moveFilesByRegex(sourceDir,regex,target)</t>
   </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="221" x14ac:knownFonts="1">
+  <fonts count="237" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3575,8 +3581,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="359">
+  <fills count="386">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5608,8 +5715,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="367">
+  <borders count="395">
     <border>
       <left/>
       <right/>
@@ -9313,6 +9573,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9320,7 +9862,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="259">
+  <cellXfs count="275">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10079,52 +10621,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="334" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="334" fontId="205" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="206" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="337" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="337" fontId="207" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="340" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="340" fontId="208" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="343" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="343" fontId="209" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="346" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="346" fontId="211" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="349" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="349" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="352" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="352" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="355" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="355" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="355" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="355" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="343" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="343" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="358" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="358" fontId="218" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="343" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="343" fontId="219" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="361" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="364" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="367" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="370" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="373" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="376" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="379" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="382" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="382" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="370" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="385" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="370" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11630,7 +12220,7 @@
         <v>65</v>
       </c>
       <c r="G33" t="s">
-        <v>259</v>
+        <v>668</v>
       </c>
       <c r="X33" t="s">
         <v>118</v>
@@ -11641,7 +12231,7 @@
         <v>66</v>
       </c>
       <c r="G34" t="s">
-        <v>329</v>
+        <v>259</v>
       </c>
       <c r="X34" t="s">
         <v>119</v>
@@ -11652,7 +12242,7 @@
         <v>67</v>
       </c>
       <c r="G35" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="X35" t="s">
         <v>209</v>
@@ -11663,7 +12253,7 @@
         <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="X36" t="s">
         <v>120</v>
@@ -11674,7 +12264,7 @@
         <v>69</v>
       </c>
       <c r="G37" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="X37" t="s">
         <v>337</v>
@@ -11685,7 +12275,7 @@
         <v>70</v>
       </c>
       <c r="G38" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="X38" t="s">
         <v>437</v>
@@ -11693,7 +12283,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="X39" t="s">
         <v>392</v>
@@ -11701,7 +12291,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="X40" t="s">
         <v>121</v>
@@ -11709,7 +12299,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>288</v>
+        <v>211</v>
       </c>
       <c r="X41" t="s">
         <v>122</v>
@@ -11717,7 +12307,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="X42" t="s">
         <v>123</v>
@@ -11725,7 +12315,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="X43" t="s">
         <v>124</v>
@@ -11733,7 +12323,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="X44" t="s">
         <v>125</v>
@@ -11741,7 +12331,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="X45" t="s">
         <v>126</v>
@@ -11749,7 +12339,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>210</v>
+        <v>341</v>
       </c>
       <c r="X46" t="s">
         <v>438</v>
@@ -11757,7 +12347,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>319</v>
+        <v>210</v>
       </c>
       <c r="X47" t="s">
         <v>212</v>
@@ -11765,7 +12355,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="X48" t="s">
         <v>76</v>
@@ -11773,7 +12363,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="X49" t="s">
         <v>127</v>
@@ -11781,7 +12371,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>301</v>
+        <v>367</v>
       </c>
       <c r="X50" t="s">
         <v>128</v>
@@ -11789,7 +12379,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="X51" t="s">
         <v>129</v>
@@ -11797,7 +12387,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="X52" t="s">
         <v>643</v>
@@ -11805,7 +12395,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>267</v>
+        <v>330</v>
       </c>
       <c r="X53" t="s">
         <v>463</v>
@@ -11813,7 +12403,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="X54" t="s">
         <v>130</v>
@@ -11821,7 +12411,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="X55" t="s">
         <v>345</v>
@@ -11829,7 +12419,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="X56" t="s">
         <v>464</v>
@@ -11837,7 +12427,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="X57" t="s">
         <v>131</v>
@@ -11845,7 +12435,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="X58" t="s">
         <v>132</v>
@@ -11853,7 +12443,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="X59" t="s">
         <v>133</v>
@@ -11861,7 +12451,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="X60" t="s">
         <v>134</v>
@@ -11869,7 +12459,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="X61" t="s">
         <v>135</v>
@@ -11877,7 +12467,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>368</v>
+        <v>309</v>
       </c>
       <c r="X62" t="s">
         <v>136</v>
@@ -11885,7 +12475,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="X63" t="s">
         <v>137</v>
@@ -11893,7 +12483,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="X64" t="s">
         <v>439</v>
@@ -11901,7 +12491,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="X65" t="s">
         <v>634</v>
@@ -11909,7 +12499,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="X66" t="s">
         <v>213</v>
@@ -11917,7 +12507,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>352</v>
+        <v>268</v>
       </c>
       <c r="X67" t="s">
         <v>388</v>
@@ -11925,7 +12515,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="X68" t="s">
         <v>440</v>
@@ -11933,7 +12523,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>409</v>
+        <v>313</v>
       </c>
       <c r="X69" t="s">
         <v>138</v>
@@ -11941,7 +12531,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>303</v>
+        <v>409</v>
       </c>
       <c r="X70" t="s">
         <v>139</v>
@@ -11949,7 +12539,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>410</v>
+        <v>303</v>
       </c>
       <c r="X71" t="s">
         <v>140</v>
@@ -11957,7 +12547,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>261</v>
+        <v>410</v>
       </c>
       <c r="X72" t="s">
         <v>141</v>
@@ -11965,7 +12555,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>343</v>
+        <v>261</v>
       </c>
       <c r="X73" t="s">
         <v>196</v>
@@ -11973,7 +12563,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>279</v>
+        <v>669</v>
       </c>
       <c r="X74" t="s">
         <v>197</v>
@@ -11981,7 +12571,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>285</v>
+        <v>343</v>
       </c>
       <c r="X75" t="s">
         <v>452</v>
@@ -11989,7 +12579,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="X76" t="s">
         <v>465</v>
@@ -11997,7 +12587,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>428</v>
+        <v>285</v>
       </c>
       <c r="X77" t="s">
         <v>142</v>
@@ -12005,7 +12595,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>331</v>
+        <v>290</v>
       </c>
       <c r="X78" t="s">
         <v>143</v>
@@ -12013,7 +12603,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>269</v>
+        <v>428</v>
       </c>
       <c r="X79" t="s">
         <v>144</v>
@@ -12021,7 +12611,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>280</v>
+        <v>331</v>
       </c>
       <c r="X80" t="s">
         <v>656</v>
@@ -12029,7 +12619,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="X81" t="s">
         <v>145</v>
@@ -12037,7 +12627,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="X82" t="s">
         <v>146</v>
@@ -12045,7 +12635,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="X83" t="s">
         <v>198</v>
@@ -12053,7 +12643,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="X84" t="s">
         <v>644</v>
@@ -12061,7 +12651,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="X85" t="s">
         <v>199</v>
@@ -12069,7 +12659,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="X86" t="s">
         <v>453</v>
@@ -12077,7 +12667,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="X87" t="s">
         <v>200</v>
@@ -12085,7 +12675,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="X88" t="s">
         <v>201</v>
@@ -12093,7 +12683,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="X89" t="s">
         <v>214</v>
@@ -12101,7 +12691,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="X90" t="s">
         <v>147</v>
@@ -12109,7 +12699,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="X91" t="s">
         <v>202</v>
@@ -12117,18 +12707,24 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>277</v>
+        <v>339</v>
       </c>
       <c r="X92" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="93">
+      <c r="G93" t="s">
+        <v>276</v>
+      </c>
       <c r="X93" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="94">
+      <c r="G94" t="s">
+        <v>277</v>
+      </c>
       <c r="X94" t="s">
         <v>203</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7953" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8993" uniqueCount="672">
   <si>
     <t>description</t>
   </si>
@@ -2172,13 +2172,19 @@
   <si>
     <t>saveTextByLocator(var,locator)</t>
   </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="237" x14ac:knownFonts="1">
+  <fonts count="269" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3682,8 +3688,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="386">
+  <fills count="446">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5868,8 +6076,348 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="395">
+  <borders count="451">
     <border>
       <left/>
       <right/>
@@ -9855,6 +10403,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9862,7 +10974,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="275">
+  <cellXfs count="307">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10669,52 +11781,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="361" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="361" fontId="221" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="222" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="364" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="364" fontId="223" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="367" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="367" fontId="224" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="370" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="370" fontId="225" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="226" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="373" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="373" fontId="227" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="228" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="376" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="376" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="379" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="379" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="382" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="382" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="382" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="382" fontId="232" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="370" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="370" fontId="233" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="385" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="385" fontId="234" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="370" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="370" fontId="235" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="236" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="388" fontId="237" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="238" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="391" fontId="239" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="394" fontId="240" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="397" fontId="241" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="242" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="400" fontId="243" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="244" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="403" fontId="245" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="406" fontId="246" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="409" fontId="247" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="409" fontId="248" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="397" fontId="249" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="412" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="397" fontId="251" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="415" fontId="252" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="418" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="421" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="424" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="427" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="430" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="433" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="436" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="439" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="439" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="427" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="442" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="427" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="445" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11069,7 +12277,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -12761,126 +13969,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>148</v>
+        <v>670</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>149</v>
+        <v>671</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>150</v>
+        <v>382</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>443</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>163</v>
+        <v>443</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>47</v>
+        <v>164</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>169</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
@@ -31,27 +31,28 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8993" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9521" uniqueCount="679">
   <si>
     <t>description</t>
   </si>
@@ -2178,13 +2179,34 @@
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
   </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="269" x14ac:knownFonts="1">
+  <fonts count="285" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3890,8 +3912,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="446">
+  <fills count="476">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6416,8 +6539,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="451">
+  <borders count="479">
     <border>
       <left/>
       <right/>
@@ -10967,6 +11260,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10974,7 +11549,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="307">
+  <cellXfs count="323">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11877,52 +12452,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="415" fontId="252" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="418" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="418" fontId="253" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="254" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="421" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="421" fontId="255" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="424" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="424" fontId="256" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="427" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="427" fontId="257" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="258" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="430" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="430" fontId="259" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="260" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="433" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="433" fontId="261" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="262" fillId="436" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="436" fontId="262" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="263" fillId="439" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="439" fontId="263" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="264" fillId="439" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="439" fontId="264" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="265" fillId="427" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="427" fontId="265" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="442" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="442" fontId="266" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="427" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="427" fontId="267" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="445" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="445" fontId="268" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="448" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="451" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="454" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="457" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="460" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="463" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="466" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="469" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="469" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="457" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="472" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="457" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="475" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12277,7 +12900,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -12329,51 +12952,54 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
+        <v>672</v>
+      </c>
+      <c r="O1" t="s">
         <v>637</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>195</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>238</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>52</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>395</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>411</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>412</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>356</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>396</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>53</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>413</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -12418,51 +13044,54 @@
         <v>434</v>
       </c>
       <c r="N2" t="s">
+        <v>673</v>
+      </c>
+      <c r="O2" t="s">
         <v>640</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>416</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>429</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>252</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>216</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>397</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>418</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>419</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>380</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>406</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>96</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>170</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>175</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>182</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>431</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>651</v>
       </c>
     </row>
@@ -12507,45 +13136,48 @@
         <v>85</v>
       </c>
       <c r="N3" t="s">
+        <v>674</v>
+      </c>
+      <c r="O3" t="s">
         <v>641</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>430</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>239</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>217</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>398</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>420</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>381</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>407</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>97</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>171</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>176</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>363</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>183</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -12587,45 +13219,48 @@
         <v>25</v>
       </c>
       <c r="N4" t="s">
+        <v>675</v>
+      </c>
+      <c r="O4" t="s">
         <v>642</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>240</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>218</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>399</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>421</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>357</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>408</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>353</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>172</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>177</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>183</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>423</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>228</v>
       </c>
     </row>
@@ -12660,40 +13295,43 @@
       <c r="M5" t="s">
         <v>86</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>676</v>
+      </c>
+      <c r="Q5" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>241</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>219</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>400</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>422</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>358</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>354</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>173</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>178</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>184</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>424</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>229</v>
       </c>
     </row>
@@ -12725,37 +13363,40 @@
       <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>677</v>
+      </c>
+      <c r="Q6" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>242</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>390</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>401</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>360</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>98</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>444</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>179</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>185</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>425</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>230</v>
       </c>
     </row>
@@ -12781,37 +13422,40 @@
       <c r="M7" t="s">
         <v>314</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>678</v>
+      </c>
+      <c r="Q7" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>243</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>417</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>402</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>359</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>99</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>445</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>180</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>186</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>426</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>231</v>
       </c>
     </row>
@@ -12837,34 +13481,34 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>90</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>244</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>403</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>361</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>100</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>174</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>181</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>187</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>427</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>232</v>
       </c>
     </row>
@@ -12890,25 +13534,25 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>91</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>245</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>404</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>362</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>208</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>188</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>233</v>
       </c>
     </row>
@@ -12931,22 +13575,22 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>436</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>246</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>405</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>256</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>189</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>635</v>
       </c>
     </row>
@@ -12969,19 +13613,19 @@
       <c r="M11" t="s">
         <v>633</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>92</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>247</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>257</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>258</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>652</v>
       </c>
     </row>
@@ -13004,19 +13648,19 @@
       <c r="M12" t="s">
         <v>435</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>41</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>248</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>101</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>190</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>653</v>
       </c>
     </row>
@@ -13039,25 +13683,25 @@
       <c r="M13" t="s">
         <v>632</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>93</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>253</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>325</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>191</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>637</v>
+        <v>672</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
@@ -13074,25 +13718,25 @@
       <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>94</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>249</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>102</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>192</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>195</v>
+        <v>637</v>
       </c>
       <c r="E15" t="s">
         <v>58</v>
@@ -13106,25 +13750,25 @@
       <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>660</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>250</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>103</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>193</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>195</v>
       </c>
       <c r="E16" t="s">
         <v>384</v>
@@ -13138,25 +13782,25 @@
       <c r="M16" t="s">
         <v>43</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>661</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>251</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>74</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>194</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>238</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
         <v>385</v>
@@ -13167,19 +13811,19 @@
       <c r="K17" t="s">
         <v>81</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>662</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>466</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>238</v>
       </c>
       <c r="E18" t="s">
         <v>414</v>
@@ -13190,16 +13834,16 @@
       <c r="K18" t="s">
         <v>462</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>104</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>395</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
         <v>59</v>
@@ -13210,16 +13854,16 @@
       <c r="K19" t="s">
         <v>82</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>105</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="E20" t="s">
         <v>60</v>
@@ -13230,16 +13874,16 @@
       <c r="K20" t="s">
         <v>83</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>106</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E21" t="s">
         <v>255</v>
@@ -13250,16 +13894,16 @@
       <c r="K21" t="s">
         <v>379</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>107</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>356</v>
+        <v>412</v>
       </c>
       <c r="E22" t="s">
         <v>61</v>
@@ -13270,13 +13914,13 @@
       <c r="K22" t="s">
         <v>602</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>396</v>
+        <v>356</v>
       </c>
       <c r="E23" t="s">
         <v>320</v>
@@ -13287,13 +13931,13 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>396</v>
       </c>
       <c r="E24" t="s">
         <v>62</v>
@@ -13304,13 +13948,13 @@
       <c r="K24" t="s">
         <v>391</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
         <v>448</v>
@@ -13321,13 +13965,13 @@
       <c r="K25" t="s">
         <v>84</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
         <v>224</v>
@@ -13338,13 +13982,13 @@
       <c r="K26" t="s">
         <v>433</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
         <v>225</v>
@@ -13355,13 +13999,13 @@
       <c r="K27" t="s">
         <v>45</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>413</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
         <v>574</v>
@@ -13372,13 +14016,13 @@
       <c r="K28" t="s">
         <v>46</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>226</v>
+        <v>413</v>
       </c>
       <c r="E29" t="s">
         <v>575</v>
@@ -13386,18 +14030,21 @@
       <c r="G29" t="s">
         <v>283</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>226</v>
+      </c>
       <c r="E30" t="s">
         <v>415</v>
       </c>
       <c r="G30" t="s">
         <v>215</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>115</v>
       </c>
     </row>
@@ -13408,7 +14055,7 @@
       <c r="G31" t="s">
         <v>274</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>116</v>
       </c>
     </row>
@@ -13419,7 +14066,7 @@
       <c r="G32" t="s">
         <v>284</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>117</v>
       </c>
     </row>
@@ -13430,7 +14077,7 @@
       <c r="G33" t="s">
         <v>668</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>118</v>
       </c>
     </row>
@@ -13441,7 +14088,7 @@
       <c r="G34" t="s">
         <v>259</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>119</v>
       </c>
     </row>
@@ -13452,7 +14099,7 @@
       <c r="G35" t="s">
         <v>329</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>209</v>
       </c>
     </row>
@@ -13463,7 +14110,7 @@
       <c r="G36" t="s">
         <v>306</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>120</v>
       </c>
     </row>
@@ -13474,7 +14121,7 @@
       <c r="G37" t="s">
         <v>260</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>337</v>
       </c>
     </row>
@@ -13485,7 +14132,7 @@
       <c r="G38" t="s">
         <v>307</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>437</v>
       </c>
     </row>
@@ -13493,7 +14140,7 @@
       <c r="G39" t="s">
         <v>266</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>392</v>
       </c>
     </row>
@@ -13501,7 +14148,7 @@
       <c r="G40" t="s">
         <v>77</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>121</v>
       </c>
     </row>
@@ -13509,7 +14156,7 @@
       <c r="G41" t="s">
         <v>211</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>122</v>
       </c>
     </row>
@@ -13517,7 +14164,7 @@
       <c r="G42" t="s">
         <v>288</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>123</v>
       </c>
     </row>
@@ -13525,7 +14172,7 @@
       <c r="G43" t="s">
         <v>299</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>124</v>
       </c>
     </row>
@@ -13533,7 +14180,7 @@
       <c r="G44" t="s">
         <v>300</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>125</v>
       </c>
     </row>
@@ -13541,7 +14188,7 @@
       <c r="G45" t="s">
         <v>342</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>126</v>
       </c>
     </row>
@@ -13549,7 +14196,7 @@
       <c r="G46" t="s">
         <v>341</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>438</v>
       </c>
     </row>
@@ -13557,7 +14204,7 @@
       <c r="G47" t="s">
         <v>210</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>212</v>
       </c>
     </row>
@@ -13565,7 +14212,7 @@
       <c r="G48" t="s">
         <v>319</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>76</v>
       </c>
     </row>
@@ -13573,7 +14220,7 @@
       <c r="G49" t="s">
         <v>338</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>127</v>
       </c>
     </row>
@@ -13581,7 +14228,7 @@
       <c r="G50" t="s">
         <v>367</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>128</v>
       </c>
     </row>
@@ -13589,7 +14236,7 @@
       <c r="G51" t="s">
         <v>301</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>129</v>
       </c>
     </row>
@@ -13597,7 +14244,7 @@
       <c r="G52" t="s">
         <v>355</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>643</v>
       </c>
     </row>
@@ -13605,7 +14252,7 @@
       <c r="G53" t="s">
         <v>330</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>463</v>
       </c>
     </row>
@@ -13613,7 +14260,7 @@
       <c r="G54" t="s">
         <v>267</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>130</v>
       </c>
     </row>
@@ -13621,7 +14268,7 @@
       <c r="G55" t="s">
         <v>291</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>345</v>
       </c>
     </row>
@@ -13629,7 +14276,7 @@
       <c r="G56" t="s">
         <v>292</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>464</v>
       </c>
     </row>
@@ -13637,7 +14284,7 @@
       <c r="G57" t="s">
         <v>293</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>131</v>
       </c>
     </row>
@@ -13645,7 +14292,7 @@
       <c r="G58" t="s">
         <v>302</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>132</v>
       </c>
     </row>
@@ -13653,7 +14300,7 @@
       <c r="G59" t="s">
         <v>311</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>133</v>
       </c>
     </row>
@@ -13661,7 +14308,7 @@
       <c r="G60" t="s">
         <v>336</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>134</v>
       </c>
     </row>
@@ -13669,7 +14316,7 @@
       <c r="G61" t="s">
         <v>308</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>135</v>
       </c>
     </row>
@@ -13677,7 +14324,7 @@
       <c r="G62" t="s">
         <v>309</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>136</v>
       </c>
     </row>
@@ -13685,7 +14332,7 @@
       <c r="G63" t="s">
         <v>368</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>137</v>
       </c>
     </row>
@@ -13693,7 +14340,7 @@
       <c r="G64" t="s">
         <v>369</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>439</v>
       </c>
     </row>
@@ -13701,7 +14348,7 @@
       <c r="G65" t="s">
         <v>344</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>634</v>
       </c>
     </row>
@@ -13709,7 +14356,7 @@
       <c r="G66" t="s">
         <v>312</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>213</v>
       </c>
     </row>
@@ -13717,7 +14364,7 @@
       <c r="G67" t="s">
         <v>268</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>388</v>
       </c>
     </row>
@@ -13725,7 +14372,7 @@
       <c r="G68" t="s">
         <v>352</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>440</v>
       </c>
     </row>
@@ -13733,7 +14380,7 @@
       <c r="G69" t="s">
         <v>313</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>138</v>
       </c>
     </row>
@@ -13741,7 +14388,7 @@
       <c r="G70" t="s">
         <v>409</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>139</v>
       </c>
     </row>
@@ -13749,7 +14396,7 @@
       <c r="G71" t="s">
         <v>303</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>140</v>
       </c>
     </row>
@@ -13757,7 +14404,7 @@
       <c r="G72" t="s">
         <v>410</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>141</v>
       </c>
     </row>
@@ -13765,7 +14412,7 @@
       <c r="G73" t="s">
         <v>261</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>196</v>
       </c>
     </row>
@@ -13773,7 +14420,7 @@
       <c r="G74" t="s">
         <v>669</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>197</v>
       </c>
     </row>
@@ -13781,7 +14428,7 @@
       <c r="G75" t="s">
         <v>343</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>452</v>
       </c>
     </row>
@@ -13789,7 +14436,7 @@
       <c r="G76" t="s">
         <v>279</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>465</v>
       </c>
     </row>
@@ -13797,7 +14444,7 @@
       <c r="G77" t="s">
         <v>285</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>142</v>
       </c>
     </row>
@@ -13805,7 +14452,7 @@
       <c r="G78" t="s">
         <v>290</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>143</v>
       </c>
     </row>
@@ -13813,7 +14460,7 @@
       <c r="G79" t="s">
         <v>428</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>144</v>
       </c>
     </row>
@@ -13821,7 +14468,7 @@
       <c r="G80" t="s">
         <v>331</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>656</v>
       </c>
     </row>
@@ -13829,7 +14476,7 @@
       <c r="G81" t="s">
         <v>269</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>145</v>
       </c>
     </row>
@@ -13837,7 +14484,7 @@
       <c r="G82" t="s">
         <v>280</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>146</v>
       </c>
     </row>
@@ -13845,7 +14492,7 @@
       <c r="G83" t="s">
         <v>286</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>198</v>
       </c>
     </row>
@@ -13853,7 +14500,7 @@
       <c r="G84" t="s">
         <v>275</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>644</v>
       </c>
     </row>
@@ -13861,7 +14508,7 @@
       <c r="G85" t="s">
         <v>270</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>199</v>
       </c>
     </row>
@@ -13869,7 +14516,7 @@
       <c r="G86" t="s">
         <v>287</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>453</v>
       </c>
     </row>
@@ -13877,7 +14524,7 @@
       <c r="G87" t="s">
         <v>271</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>200</v>
       </c>
     </row>
@@ -13885,7 +14532,7 @@
       <c r="G88" t="s">
         <v>272</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>201</v>
       </c>
     </row>
@@ -13893,7 +14540,7 @@
       <c r="G89" t="s">
         <v>304</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>214</v>
       </c>
     </row>
@@ -13901,7 +14548,7 @@
       <c r="G90" t="s">
         <v>310</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>147</v>
       </c>
     </row>
@@ -13909,7 +14556,7 @@
       <c r="G91" t="s">
         <v>294</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>202</v>
       </c>
     </row>
@@ -13917,7 +14564,7 @@
       <c r="G92" t="s">
         <v>339</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>441</v>
       </c>
     </row>
@@ -13925,7 +14572,7 @@
       <c r="G93" t="s">
         <v>276</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>442</v>
       </c>
     </row>
@@ -13933,172 +14580,172 @@
       <c r="G94" t="s">
         <v>277</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>169</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
@@ -28,7 +28,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -52,7 +52,7 @@
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9521" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11647" uniqueCount="683">
   <si>
     <t>description</t>
   </si>
@@ -2200,13 +2200,25 @@
   <si>
     <t>runSQLs(var,sqls)</t>
   </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="285" x14ac:knownFonts="1">
+  <fonts count="349" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4013,8 +4025,412 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="476">
+  <fills count="596">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6709,8 +7125,688 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="479">
+  <borders count="591">
     <border>
       <left/>
       <right/>
@@ -11542,6 +12638,1134 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11549,7 +13773,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="323">
+  <cellXfs count="387">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12500,52 +14724,244 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="445" fontId="268" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="448" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="448" fontId="269" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="270" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="271" fillId="451" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="451" fontId="271" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="272" fillId="454" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="454" fontId="272" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="273" fillId="457" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="457" fontId="273" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="274" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="275" fillId="460" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="460" fontId="275" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="276" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="277" fillId="463" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="463" fontId="277" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="278" fillId="466" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="466" fontId="278" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="279" fillId="469" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="469" fontId="279" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="280" fillId="469" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="469" fontId="280" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="281" fillId="457" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="457" fontId="281" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="282" fillId="472" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="472" fontId="282" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="457" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="457" fontId="283" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="475" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="475" fontId="284" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="486" fillId="478" fontId="285" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="286" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="481" fontId="287" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="484" fontId="288" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="487" fontId="289" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="290" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="490" fontId="291" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="292" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="493" fontId="293" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="496" fontId="294" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="499" fontId="295" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="499" fontId="296" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="487" fontId="297" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="502" fontId="298" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="487" fontId="299" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="505" fontId="300" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="508" fontId="301" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="302" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="518" fillId="511" fontId="303" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="514" fontId="304" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="517" fontId="305" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="306" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="520" fontId="307" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="308" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="523" fontId="309" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="526" fontId="310" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="529" fontId="311" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="529" fontId="312" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="517" fontId="313" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="532" fontId="314" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="517" fontId="315" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="535" fontId="316" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="538" fontId="317" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="318" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="541" fontId="319" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="544" fontId="320" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="547" fontId="321" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="322" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="550" fontId="323" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="324" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="553" fontId="325" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="556" fontId="326" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="559" fontId="327" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="559" fontId="328" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="547" fontId="329" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="562" fontId="330" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="547" fontId="331" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="565" fontId="332" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="568" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="571" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="574" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="577" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="580" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="583" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="586" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="589" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="589" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="577" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="592" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="577" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="595" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13296,7 +15712,7 @@
         <v>86</v>
       </c>
       <c r="N5" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>
@@ -13364,7 +15780,7 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
@@ -13423,7 +15839,7 @@
         <v>314</v>
       </c>
       <c r="N7" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
@@ -13481,6 +15897,9 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
+      <c r="N8" t="s">
+        <v>676</v>
+      </c>
       <c r="Q8" t="s">
         <v>90</v>
       </c>
@@ -13534,6 +15953,9 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
+      <c r="N9" t="s">
+        <v>677</v>
+      </c>
       <c r="Q9" t="s">
         <v>91</v>
       </c>
@@ -13575,6 +15997,9 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
+      <c r="N10" t="s">
+        <v>678</v>
+      </c>
       <c r="Q10" t="s">
         <v>436</v>
       </c>
@@ -13963,7 +16388,7 @@
         <v>75</v>
       </c>
       <c r="K25" t="s">
-        <v>84</v>
+        <v>682</v>
       </c>
       <c r="Y25" t="s">
         <v>111</v>
@@ -13980,7 +16405,7 @@
         <v>281</v>
       </c>
       <c r="K26" t="s">
-        <v>433</v>
+        <v>84</v>
       </c>
       <c r="Y26" t="s">
         <v>112</v>
@@ -13997,7 +16422,7 @@
         <v>265</v>
       </c>
       <c r="K27" t="s">
-        <v>45</v>
+        <v>433</v>
       </c>
       <c r="Y27" t="s">
         <v>113</v>
@@ -14014,7 +16439,7 @@
         <v>282</v>
       </c>
       <c r="K28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y28" t="s">
         <v>326</v>
@@ -14029,6 +16454,9 @@
       </c>
       <c r="G29" t="s">
         <v>283</v>
+      </c>
+      <c r="K29" t="s">
+        <v>46</v>
       </c>
       <c r="Y29" t="s">
         <v>114</v>

--- a/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
@@ -51,8 +51,8 @@
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11647" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12182" uniqueCount="687">
   <si>
     <t>description</t>
   </si>
@@ -2212,13 +2212,25 @@
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget)</t>
   </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="349" x14ac:knownFonts="1">
+  <fonts count="365" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4429,8 +4441,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="596">
+  <fills count="626">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7805,8 +7918,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="591">
+  <borders count="619">
     <border>
       <left/>
       <right/>
@@ -13766,6 +14049,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13773,7 +14338,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="387">
+  <cellXfs count="403">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14916,52 +15481,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="565" fontId="332" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="568" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="568" fontId="333" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="334" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="335" fillId="571" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="571" fontId="335" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="336" fillId="574" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="574" fontId="336" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="577" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="577" fontId="337" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="338" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="339" fillId="580" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="580" fontId="339" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="340" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="583" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="582" fillId="583" fontId="341" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="586" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="586" fontId="342" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="343" fillId="589" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="589" fontId="343" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="344" fillId="589" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="589" fontId="344" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="345" fillId="577" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="577" fontId="345" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="592" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="592" fontId="346" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="347" fillId="577" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="577" fontId="347" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="348" fillId="595" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="595" fontId="348" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="598" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="601" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="604" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="607" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="610" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="613" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="616" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="619" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="619" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="607" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="622" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="607" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="625" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15522,7 +16135,7 @@
         <v>456</v>
       </c>
       <c r="D3" t="s">
-        <v>648</v>
+        <v>683</v>
       </c>
       <c r="E3" t="s">
         <v>457</v>
@@ -15605,7 +16218,7 @@
         <v>373</v>
       </c>
       <c r="D4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -15688,7 +16301,7 @@
         <v>374</v>
       </c>
       <c r="D5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E5" t="s">
         <v>458</v>
@@ -15712,7 +16325,7 @@
         <v>86</v>
       </c>
       <c r="N5" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>
@@ -15758,6 +16371,9 @@
       <c r="B6" t="s">
         <v>375</v>
       </c>
+      <c r="D6" t="s">
+        <v>650</v>
+      </c>
       <c r="E6" t="s">
         <v>27</v>
       </c>
@@ -15780,7 +16396,7 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
@@ -15839,7 +16455,7 @@
         <v>314</v>
       </c>
       <c r="N7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
@@ -15898,7 +16514,7 @@
         <v>34</v>
       </c>
       <c r="N8" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="Q8" t="s">
         <v>90</v>
@@ -15954,7 +16570,7 @@
         <v>35</v>
       </c>
       <c r="N9" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="Q9" t="s">
         <v>91</v>
@@ -15998,7 +16614,7 @@
         <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="Q10" t="s">
         <v>436</v>
@@ -16038,6 +16654,9 @@
       <c r="M11" t="s">
         <v>633</v>
       </c>
+      <c r="N11" t="s">
+        <v>677</v>
+      </c>
       <c r="Q11" t="s">
         <v>92</v>
       </c>
@@ -16073,6 +16692,9 @@
       <c r="M12" t="s">
         <v>435</v>
       </c>
+      <c r="N12" t="s">
+        <v>678</v>
+      </c>
       <c r="Q12" t="s">
         <v>41</v>
       </c>
@@ -16388,7 +17010,7 @@
         <v>75</v>
       </c>
       <c r="K25" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="Y25" t="s">
         <v>111</v>

--- a/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
@@ -26,7 +26,7 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12182" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12719" uniqueCount="689">
   <si>
     <t>description</t>
   </si>
@@ -2224,13 +2224,19 @@
   <si>
     <t>importEXCEL(var,excel,sheet,ranges,table)</t>
   </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="365" x14ac:knownFonts="1">
+  <fonts count="381" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4542,8 +4548,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="626">
+  <fills count="656">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8088,8 +8195,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="619">
+  <borders count="647">
     <border>
       <left/>
       <right/>
@@ -14331,6 +14608,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -14338,7 +14897,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="403">
+  <cellXfs count="419">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15529,52 +16088,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="595" fontId="348" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="349" fillId="598" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="598" fontId="349" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="350" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="601" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="601" fontId="351" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="352" fillId="604" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="604" fontId="352" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="353" fillId="607" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="607" fontId="353" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="354" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="354" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="355" fillId="610" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="610" fontId="355" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="356" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="613" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="613" fontId="357" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="358" fillId="616" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="614" fillId="616" fontId="358" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="359" fillId="619" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="619" fontId="359" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="360" fillId="619" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="619" fontId="360" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="361" fillId="607" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="607" fontId="361" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="362" fillId="622" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="622" fontId="362" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="363" fillId="607" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="607" fontId="363" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="364" fillId="625" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="625" fontId="364" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="628" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="631" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="634" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="637" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="640" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="643" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="646" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="649" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="649" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="637" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="652" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="637" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="655" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15929,7 +16536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AE128"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -16315,6 +16922,9 @@
       <c r="H5" t="s">
         <v>459</v>
       </c>
+      <c r="I5" t="s">
+        <v>687</v>
+      </c>
       <c r="J5" t="s">
         <v>350</v>
       </c>
@@ -17191,7 +17801,7 @@
         <v>266</v>
       </c>
       <c r="Y39" t="s">
-        <v>392</v>
+        <v>688</v>
       </c>
     </row>
     <row r="40">
@@ -17199,7 +17809,7 @@
         <v>77</v>
       </c>
       <c r="Y40" t="s">
-        <v>121</v>
+        <v>392</v>
       </c>
     </row>
     <row r="41">
@@ -17207,7 +17817,7 @@
         <v>211</v>
       </c>
       <c r="Y41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42">
@@ -17215,7 +17825,7 @@
         <v>288</v>
       </c>
       <c r="Y42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43">
@@ -17223,7 +17833,7 @@
         <v>299</v>
       </c>
       <c r="Y43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44">
@@ -17231,7 +17841,7 @@
         <v>300</v>
       </c>
       <c r="Y44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45">
@@ -17239,7 +17849,7 @@
         <v>342</v>
       </c>
       <c r="Y45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46">
@@ -17247,7 +17857,7 @@
         <v>341</v>
       </c>
       <c r="Y46" t="s">
-        <v>438</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47">
@@ -17255,7 +17865,7 @@
         <v>210</v>
       </c>
       <c r="Y47" t="s">
-        <v>212</v>
+        <v>438</v>
       </c>
     </row>
     <row r="48">
@@ -17263,7 +17873,7 @@
         <v>319</v>
       </c>
       <c r="Y48" t="s">
-        <v>76</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49">
@@ -17271,7 +17881,7 @@
         <v>338</v>
       </c>
       <c r="Y49" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50">
@@ -17279,7 +17889,7 @@
         <v>367</v>
       </c>
       <c r="Y50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51">
@@ -17287,7 +17897,7 @@
         <v>301</v>
       </c>
       <c r="Y51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52">
@@ -17295,7 +17905,7 @@
         <v>355</v>
       </c>
       <c r="Y52" t="s">
-        <v>643</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53">
@@ -17303,7 +17913,7 @@
         <v>330</v>
       </c>
       <c r="Y53" t="s">
-        <v>463</v>
+        <v>643</v>
       </c>
     </row>
     <row r="54">
@@ -17311,7 +17921,7 @@
         <v>267</v>
       </c>
       <c r="Y54" t="s">
-        <v>130</v>
+        <v>463</v>
       </c>
     </row>
     <row r="55">
@@ -17319,7 +17929,7 @@
         <v>291</v>
       </c>
       <c r="Y55" t="s">
-        <v>345</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56">
@@ -17327,7 +17937,7 @@
         <v>292</v>
       </c>
       <c r="Y56" t="s">
-        <v>464</v>
+        <v>345</v>
       </c>
     </row>
     <row r="57">
@@ -17335,7 +17945,7 @@
         <v>293</v>
       </c>
       <c r="Y57" t="s">
-        <v>131</v>
+        <v>464</v>
       </c>
     </row>
     <row r="58">
@@ -17343,7 +17953,7 @@
         <v>302</v>
       </c>
       <c r="Y58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59">
@@ -17351,7 +17961,7 @@
         <v>311</v>
       </c>
       <c r="Y59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60">
@@ -17359,7 +17969,7 @@
         <v>336</v>
       </c>
       <c r="Y60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61">
@@ -17367,7 +17977,7 @@
         <v>308</v>
       </c>
       <c r="Y61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62">
@@ -17375,7 +17985,7 @@
         <v>309</v>
       </c>
       <c r="Y62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63">
@@ -17383,7 +17993,7 @@
         <v>368</v>
       </c>
       <c r="Y63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64">
@@ -17391,7 +18001,7 @@
         <v>369</v>
       </c>
       <c r="Y64" t="s">
-        <v>439</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65">
@@ -17399,7 +18009,7 @@
         <v>344</v>
       </c>
       <c r="Y65" t="s">
-        <v>634</v>
+        <v>439</v>
       </c>
     </row>
     <row r="66">
@@ -17407,7 +18017,7 @@
         <v>312</v>
       </c>
       <c r="Y66" t="s">
-        <v>213</v>
+        <v>634</v>
       </c>
     </row>
     <row r="67">
@@ -17415,7 +18025,7 @@
         <v>268</v>
       </c>
       <c r="Y67" t="s">
-        <v>388</v>
+        <v>213</v>
       </c>
     </row>
     <row r="68">
@@ -17423,7 +18033,7 @@
         <v>352</v>
       </c>
       <c r="Y68" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
     </row>
     <row r="69">
@@ -17431,7 +18041,7 @@
         <v>313</v>
       </c>
       <c r="Y69" t="s">
-        <v>138</v>
+        <v>440</v>
       </c>
     </row>
     <row r="70">
@@ -17439,7 +18049,7 @@
         <v>409</v>
       </c>
       <c r="Y70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71">
@@ -17447,7 +18057,7 @@
         <v>303</v>
       </c>
       <c r="Y71" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72">
@@ -17455,7 +18065,7 @@
         <v>410</v>
       </c>
       <c r="Y72" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73">
@@ -17463,7 +18073,7 @@
         <v>261</v>
       </c>
       <c r="Y73" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74">
@@ -17471,7 +18081,7 @@
         <v>669</v>
       </c>
       <c r="Y74" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75">
@@ -17479,7 +18089,7 @@
         <v>343</v>
       </c>
       <c r="Y75" t="s">
-        <v>452</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76">
@@ -17487,7 +18097,7 @@
         <v>279</v>
       </c>
       <c r="Y76" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="77">
@@ -17495,7 +18105,7 @@
         <v>285</v>
       </c>
       <c r="Y77" t="s">
-        <v>142</v>
+        <v>465</v>
       </c>
     </row>
     <row r="78">
@@ -17503,7 +18113,7 @@
         <v>290</v>
       </c>
       <c r="Y78" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="79">
@@ -17511,7 +18121,7 @@
         <v>428</v>
       </c>
       <c r="Y79" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80">
@@ -17519,7 +18129,7 @@
         <v>331</v>
       </c>
       <c r="Y80" t="s">
-        <v>656</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81">
@@ -17527,7 +18137,7 @@
         <v>269</v>
       </c>
       <c r="Y81" t="s">
-        <v>145</v>
+        <v>656</v>
       </c>
     </row>
     <row r="82">
@@ -17535,7 +18145,7 @@
         <v>280</v>
       </c>
       <c r="Y82" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83">
@@ -17543,7 +18153,7 @@
         <v>286</v>
       </c>
       <c r="Y83" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84">
@@ -17551,7 +18161,7 @@
         <v>275</v>
       </c>
       <c r="Y84" t="s">
-        <v>644</v>
+        <v>198</v>
       </c>
     </row>
     <row r="85">
@@ -17559,7 +18169,7 @@
         <v>270</v>
       </c>
       <c r="Y85" t="s">
-        <v>199</v>
+        <v>644</v>
       </c>
     </row>
     <row r="86">
@@ -17567,7 +18177,7 @@
         <v>287</v>
       </c>
       <c r="Y86" t="s">
-        <v>453</v>
+        <v>199</v>
       </c>
     </row>
     <row r="87">
@@ -17575,7 +18185,7 @@
         <v>271</v>
       </c>
       <c r="Y87" t="s">
-        <v>200</v>
+        <v>453</v>
       </c>
     </row>
     <row r="88">
@@ -17583,7 +18193,7 @@
         <v>272</v>
       </c>
       <c r="Y88" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89">
@@ -17591,7 +18201,7 @@
         <v>304</v>
       </c>
       <c r="Y89" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90">
@@ -17599,7 +18209,7 @@
         <v>310</v>
       </c>
       <c r="Y90" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
     </row>
     <row r="91">
@@ -17607,7 +18217,7 @@
         <v>294</v>
       </c>
       <c r="Y91" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92">
@@ -17615,7 +18225,7 @@
         <v>339</v>
       </c>
       <c r="Y92" t="s">
-        <v>441</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93">
@@ -17623,7 +18233,7 @@
         <v>276</v>
       </c>
       <c r="Y93" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="94">
@@ -17631,171 +18241,176 @@
         <v>277</v>
       </c>
       <c r="Y94" t="s">
-        <v>203</v>
+        <v>442</v>
       </c>
     </row>
     <row r="95">
       <c r="Y95" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>663</v>
+        <v>207</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>148</v>
+        <v>670</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>671</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>382</v>
+        <v>671</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>149</v>
+        <v>382</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>443</v>
+        <v>161</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>162</v>
+        <v>443</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Y128" t="s">
         <v>169</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
@@ -24,13 +24,13 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$17</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -44,12 +44,12 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12719" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13266" uniqueCount="700">
   <si>
     <t>description</t>
   </si>
@@ -2230,13 +2230,46 @@
   <si>
     <t>assertTextNotContains(locator,text)</t>
   </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="381" x14ac:knownFonts="1">
+  <fonts count="397" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4649,8 +4682,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="656">
+  <fills count="683">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8365,8 +8499,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="647">
+  <borders count="679">
     <border>
       <left/>
       <right/>
@@ -14890,6 +15177,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -14897,7 +15510,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="419">
+  <cellXfs count="435">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16136,52 +16749,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="625" fontId="364" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="365" fillId="628" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="628" fontId="365" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="366" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="367" fillId="631" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="631" fontId="367" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="368" fillId="634" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="634" fontId="368" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="369" fillId="637" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="637" fontId="369" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="370" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="371" fillId="640" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="640" fontId="371" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="372" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="643" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="643" fontId="373" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="646" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="646" fontId="374" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="375" fillId="649" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="649" fontId="375" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="376" fillId="649" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="649" fontId="376" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="637" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="637" fontId="377" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="378" fillId="652" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="652" fontId="378" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="379" fillId="637" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="637" fontId="379" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="655" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="655" fontId="380" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="658" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="661" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="664" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="667" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="670" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="673" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="664" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="676" borderId="678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="676" borderId="678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="667" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="679" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="667" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="682" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16536,7 +17197,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE128"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -17058,6 +17719,9 @@
       <c r="H7" t="s">
         <v>446</v>
       </c>
+      <c r="J7" t="s">
+        <v>691</v>
+      </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
@@ -17098,7 +17762,7 @@
         <v>426</v>
       </c>
       <c r="AD7" t="s">
-        <v>231</v>
+        <v>694</v>
       </c>
     </row>
     <row r="8">
@@ -17154,7 +17818,7 @@
         <v>427</v>
       </c>
       <c r="AD8" t="s">
-        <v>232</v>
+        <v>695</v>
       </c>
     </row>
     <row r="9">
@@ -17201,7 +17865,7 @@
         <v>188</v>
       </c>
       <c r="AD9" t="s">
-        <v>233</v>
+        <v>696</v>
       </c>
     </row>
     <row r="10">
@@ -17242,7 +17906,7 @@
         <v>189</v>
       </c>
       <c r="AD10" t="s">
-        <v>635</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11">
@@ -17280,7 +17944,7 @@
         <v>258</v>
       </c>
       <c r="AD11" t="s">
-        <v>652</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12">
@@ -17300,7 +17964,7 @@
         <v>389</v>
       </c>
       <c r="M12" t="s">
-        <v>435</v>
+        <v>692</v>
       </c>
       <c r="N12" t="s">
         <v>678</v>
@@ -17318,7 +17982,7 @@
         <v>190</v>
       </c>
       <c r="AD12" t="s">
-        <v>653</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13">
@@ -17338,7 +18002,7 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>632</v>
+        <v>435</v>
       </c>
       <c r="Q13" t="s">
         <v>93</v>
@@ -17353,7 +18017,7 @@
         <v>191</v>
       </c>
       <c r="AD13" t="s">
-        <v>657</v>
+        <v>635</v>
       </c>
     </row>
     <row r="14">
@@ -17373,7 +18037,7 @@
         <v>42</v>
       </c>
       <c r="M14" t="s">
-        <v>39</v>
+        <v>632</v>
       </c>
       <c r="Q14" t="s">
         <v>94</v>
@@ -17388,7 +18052,7 @@
         <v>192</v>
       </c>
       <c r="AD14" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="15">
@@ -17405,7 +18069,7 @@
         <v>667</v>
       </c>
       <c r="M15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" t="s">
         <v>660</v>
@@ -17420,7 +18084,7 @@
         <v>193</v>
       </c>
       <c r="AD15" t="s">
-        <v>636</v>
+        <v>653</v>
       </c>
     </row>
     <row r="16">
@@ -17437,7 +18101,7 @@
         <v>80</v>
       </c>
       <c r="M16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q16" t="s">
         <v>661</v>
@@ -17452,7 +18116,7 @@
         <v>194</v>
       </c>
       <c r="AD16" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="17">
@@ -17468,6 +18132,9 @@
       <c r="K17" t="s">
         <v>81</v>
       </c>
+      <c r="M17" t="s">
+        <v>43</v>
+      </c>
       <c r="Y17" t="s">
         <v>662</v>
       </c>
@@ -17475,7 +18142,7 @@
         <v>466</v>
       </c>
       <c r="AD17" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="18">
@@ -17495,7 +18162,7 @@
         <v>104</v>
       </c>
       <c r="AD18" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
     </row>
     <row r="19">
@@ -17515,7 +18182,7 @@
         <v>105</v>
       </c>
       <c r="AD19" t="s">
-        <v>234</v>
+        <v>654</v>
       </c>
     </row>
     <row r="20">
@@ -17535,7 +18202,7 @@
         <v>106</v>
       </c>
       <c r="AD20" t="s">
-        <v>235</v>
+        <v>655</v>
       </c>
     </row>
     <row r="21">
@@ -17555,7 +18222,7 @@
         <v>107</v>
       </c>
       <c r="AD21" t="s">
-        <v>236</v>
+        <v>659</v>
       </c>
     </row>
     <row r="22">
@@ -17574,6 +18241,9 @@
       <c r="Y22" t="s">
         <v>645</v>
       </c>
+      <c r="AD22" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -17591,6 +18261,9 @@
       <c r="Y23" t="s">
         <v>109</v>
       </c>
+      <c r="AD23" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -17608,6 +18281,9 @@
       <c r="Y24" t="s">
         <v>110</v>
       </c>
+      <c r="AD24" t="s">
+        <v>698</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -17625,6 +18301,9 @@
       <c r="Y25" t="s">
         <v>111</v>
       </c>
+      <c r="AD25" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -17642,6 +18321,9 @@
       <c r="Y26" t="s">
         <v>112</v>
       </c>
+      <c r="AD26" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -17659,6 +18341,9 @@
       <c r="Y27" t="s">
         <v>113</v>
       </c>
+      <c r="AD27" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -17889,7 +18574,7 @@
         <v>367</v>
       </c>
       <c r="Y50" t="s">
-        <v>127</v>
+        <v>693</v>
       </c>
     </row>
     <row r="51">
@@ -17897,7 +18582,7 @@
         <v>301</v>
       </c>
       <c r="Y51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52">
@@ -17905,7 +18590,7 @@
         <v>355</v>
       </c>
       <c r="Y52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53">
@@ -17913,7 +18598,7 @@
         <v>330</v>
       </c>
       <c r="Y53" t="s">
-        <v>643</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54">
@@ -17921,7 +18606,7 @@
         <v>267</v>
       </c>
       <c r="Y54" t="s">
-        <v>463</v>
+        <v>643</v>
       </c>
     </row>
     <row r="55">
@@ -17929,7 +18614,7 @@
         <v>291</v>
       </c>
       <c r="Y55" t="s">
-        <v>130</v>
+        <v>463</v>
       </c>
     </row>
     <row r="56">
@@ -17937,7 +18622,7 @@
         <v>292</v>
       </c>
       <c r="Y56" t="s">
-        <v>345</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57">
@@ -17945,7 +18630,7 @@
         <v>293</v>
       </c>
       <c r="Y57" t="s">
-        <v>464</v>
+        <v>345</v>
       </c>
     </row>
     <row r="58">
@@ -17953,7 +18638,7 @@
         <v>302</v>
       </c>
       <c r="Y58" t="s">
-        <v>131</v>
+        <v>464</v>
       </c>
     </row>
     <row r="59">
@@ -17961,7 +18646,7 @@
         <v>311</v>
       </c>
       <c r="Y59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60">
@@ -17969,7 +18654,7 @@
         <v>336</v>
       </c>
       <c r="Y60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61">
@@ -17977,7 +18662,7 @@
         <v>308</v>
       </c>
       <c r="Y61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62">
@@ -17985,7 +18670,7 @@
         <v>309</v>
       </c>
       <c r="Y62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63">
@@ -17993,7 +18678,7 @@
         <v>368</v>
       </c>
       <c r="Y63" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64">
@@ -18001,7 +18686,7 @@
         <v>369</v>
       </c>
       <c r="Y64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65">
@@ -18009,7 +18694,7 @@
         <v>344</v>
       </c>
       <c r="Y65" t="s">
-        <v>439</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66">
@@ -18017,7 +18702,7 @@
         <v>312</v>
       </c>
       <c r="Y66" t="s">
-        <v>634</v>
+        <v>439</v>
       </c>
     </row>
     <row r="67">
@@ -18025,15 +18710,15 @@
         <v>268</v>
       </c>
       <c r="Y67" t="s">
-        <v>213</v>
+        <v>634</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>352</v>
+        <v>689</v>
       </c>
       <c r="Y68" t="s">
-        <v>388</v>
+        <v>213</v>
       </c>
     </row>
     <row r="69">
@@ -18041,7 +18726,7 @@
         <v>313</v>
       </c>
       <c r="Y69" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
     </row>
     <row r="70">
@@ -18049,7 +18734,7 @@
         <v>409</v>
       </c>
       <c r="Y70" t="s">
-        <v>138</v>
+        <v>440</v>
       </c>
     </row>
     <row r="71">
@@ -18057,7 +18742,7 @@
         <v>303</v>
       </c>
       <c r="Y71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72">
@@ -18065,7 +18750,7 @@
         <v>410</v>
       </c>
       <c r="Y72" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73">
@@ -18073,7 +18758,7 @@
         <v>261</v>
       </c>
       <c r="Y73" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74">
@@ -18081,7 +18766,7 @@
         <v>669</v>
       </c>
       <c r="Y74" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75">
@@ -18089,7 +18774,7 @@
         <v>343</v>
       </c>
       <c r="Y75" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="76">
@@ -18097,7 +18782,7 @@
         <v>279</v>
       </c>
       <c r="Y76" t="s">
-        <v>452</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77">
@@ -18105,7 +18790,7 @@
         <v>285</v>
       </c>
       <c r="Y77" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="78">
@@ -18113,7 +18798,7 @@
         <v>290</v>
       </c>
       <c r="Y78" t="s">
-        <v>142</v>
+        <v>465</v>
       </c>
     </row>
     <row r="79">
@@ -18121,7 +18806,7 @@
         <v>428</v>
       </c>
       <c r="Y79" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80">
@@ -18129,7 +18814,7 @@
         <v>331</v>
       </c>
       <c r="Y80" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81">
@@ -18137,7 +18822,7 @@
         <v>269</v>
       </c>
       <c r="Y81" t="s">
-        <v>656</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82">
@@ -18145,7 +18830,7 @@
         <v>280</v>
       </c>
       <c r="Y82" t="s">
-        <v>145</v>
+        <v>656</v>
       </c>
     </row>
     <row r="83">
@@ -18153,7 +18838,7 @@
         <v>286</v>
       </c>
       <c r="Y83" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84">
@@ -18161,256 +18846,264 @@
         <v>275</v>
       </c>
       <c r="Y84" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>270</v>
+        <v>690</v>
       </c>
       <c r="Y85" t="s">
-        <v>644</v>
+        <v>198</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="Y86" t="s">
-        <v>199</v>
+        <v>644</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="Y87" t="s">
-        <v>453</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y88" t="s">
-        <v>200</v>
+        <v>453</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="Y89" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="Y90" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="Y91" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="Y92" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>276</v>
+        <v>339</v>
       </c>
       <c r="Y93" t="s">
-        <v>441</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
         <v>277</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Y95" t="s">
         <v>442</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>663</v>
+        <v>207</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>148</v>
+        <v>670</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>671</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>382</v>
+        <v>671</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>149</v>
+        <v>382</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>443</v>
+        <v>161</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>162</v>
+        <v>443</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="Y129" t="s">
         <v>169</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -43,16 +43,17 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13266" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13817" uniqueCount="703">
   <si>
     <t>description</t>
   </si>
@@ -2263,13 +2264,22 @@
   <si>
     <t>storeSoapFaultString(var,xml)</t>
   </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>spellCheck(var,profile,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="397" x14ac:knownFonts="1">
+  <fonts count="413" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4783,8 +4793,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="683">
+  <fills count="710">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8652,8 +8763,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="679">
+  <borders count="711">
     <border>
       <left/>
       <right/>
@@ -15503,6 +15767,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -15510,7 +16100,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="435">
+  <cellXfs count="451">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16797,52 +17387,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="655" fontId="380" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="381" fillId="658" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="654" fillId="658" fontId="381" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="382" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="383" fillId="661" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="661" fontId="383" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="384" fillId="664" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="664" fontId="384" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="667" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="666" fillId="667" fontId="385" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="386" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="387" fillId="670" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="670" fontId="387" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="388" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="389" fillId="673" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="670" fillId="673" fontId="389" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="664" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="664" fontId="390" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="391" fillId="676" borderId="678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="678" fillId="676" fontId="391" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="392" fillId="676" borderId="678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="678" fillId="676" fontId="392" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="393" fillId="667" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="667" fontId="393" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="394" fillId="679" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="679" fontId="394" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="395" fillId="667" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="667" fontId="395" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="396" fillId="682" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="682" fontId="396" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="685" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="688" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="691" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="694" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="697" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="700" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="691" borderId="706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="703" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="703" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="694" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="706" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="694" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="709" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17197,7 +17835,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AF129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -17282,21 +17920,24 @@
         <v>396</v>
       </c>
       <c r="Y1" t="s">
+        <v>700</v>
+      </c>
+      <c r="Z1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>413</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -17374,21 +18015,24 @@
         <v>406</v>
       </c>
       <c r="Y2" t="s">
+        <v>702</v>
+      </c>
+      <c r="Z2" t="s">
         <v>96</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>170</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>175</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>182</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>431</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>651</v>
       </c>
     </row>
@@ -17459,22 +18103,22 @@
       <c r="X3" t="s">
         <v>407</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>97</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>171</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>176</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>363</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>183</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -17542,22 +18186,22 @@
       <c r="X4" t="s">
         <v>408</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>353</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>172</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>177</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>183</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>423</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>228</v>
       </c>
     </row>
@@ -17616,22 +18260,22 @@
       <c r="W5" t="s">
         <v>358</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>354</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>173</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>178</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>184</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>424</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>229</v>
       </c>
     </row>
@@ -17684,22 +18328,22 @@
       <c r="W6" t="s">
         <v>360</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>98</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>444</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>179</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>185</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>425</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>230</v>
       </c>
     </row>
@@ -17746,22 +18390,22 @@
       <c r="W7" t="s">
         <v>359</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>99</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>445</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>180</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>186</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>426</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>694</v>
       </c>
     </row>
@@ -17802,22 +18446,22 @@
       <c r="W8" t="s">
         <v>361</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>100</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>174</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>181</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>187</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>427</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>695</v>
       </c>
     </row>
@@ -17858,13 +18502,13 @@
       <c r="W9" t="s">
         <v>362</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>208</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>188</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>696</v>
       </c>
     </row>
@@ -17899,13 +18543,13 @@
       <c r="T10" t="s">
         <v>405</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>256</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>189</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>231</v>
       </c>
     </row>
@@ -17937,13 +18581,13 @@
       <c r="R11" t="s">
         <v>247</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>257</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>258</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>232</v>
       </c>
     </row>
@@ -17975,13 +18619,13 @@
       <c r="R12" t="s">
         <v>248</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>101</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>190</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>233</v>
       </c>
     </row>
@@ -18010,13 +18654,13 @@
       <c r="R13" t="s">
         <v>253</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>325</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>191</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>635</v>
       </c>
     </row>
@@ -18045,13 +18689,13 @@
       <c r="R14" t="s">
         <v>249</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>102</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>192</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>652</v>
       </c>
     </row>
@@ -18077,13 +18721,13 @@
       <c r="R15" t="s">
         <v>250</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>103</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>193</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>653</v>
       </c>
     </row>
@@ -18109,13 +18753,13 @@
       <c r="R16" t="s">
         <v>251</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>74</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>194</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>657</v>
       </c>
     </row>
@@ -18135,13 +18779,13 @@
       <c r="M17" t="s">
         <v>43</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>662</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>466</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>658</v>
       </c>
     </row>
@@ -18158,10 +18802,10 @@
       <c r="K18" t="s">
         <v>462</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>104</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>636</v>
       </c>
     </row>
@@ -18178,10 +18822,10 @@
       <c r="K19" t="s">
         <v>82</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>105</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>654</v>
       </c>
     </row>
@@ -18198,10 +18842,10 @@
       <c r="K20" t="s">
         <v>83</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>106</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>655</v>
       </c>
     </row>
@@ -18218,10 +18862,10 @@
       <c r="K21" t="s">
         <v>379</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>107</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>659</v>
       </c>
     </row>
@@ -18230,7 +18874,7 @@
         <v>412</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>701</v>
       </c>
       <c r="G22" t="s">
         <v>298</v>
@@ -18238,10 +18882,10 @@
       <c r="K22" t="s">
         <v>602</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>645</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>234</v>
       </c>
     </row>
@@ -18250,7 +18894,7 @@
         <v>356</v>
       </c>
       <c r="E23" t="s">
-        <v>320</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
         <v>289</v>
@@ -18258,10 +18902,10 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>109</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>697</v>
       </c>
     </row>
@@ -18270,7 +18914,7 @@
         <v>396</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>320</v>
       </c>
       <c r="G24" t="s">
         <v>278</v>
@@ -18278,19 +18922,19 @@
       <c r="K24" t="s">
         <v>391</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>110</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>700</v>
       </c>
       <c r="E25" t="s">
-        <v>448</v>
+        <v>62</v>
       </c>
       <c r="G25" t="s">
         <v>75</v>
@@ -18298,19 +18942,19 @@
       <c r="K25" t="s">
         <v>684</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>111</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>224</v>
+        <v>448</v>
       </c>
       <c r="G26" t="s">
         <v>281</v>
@@ -18318,19 +18962,19 @@
       <c r="K26" t="s">
         <v>84</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>112</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G27" t="s">
         <v>265</v>
@@ -18338,19 +18982,19 @@
       <c r="K27" t="s">
         <v>433</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>113</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>574</v>
+        <v>225</v>
       </c>
       <c r="G28" t="s">
         <v>282</v>
@@ -18358,16 +19002,16 @@
       <c r="K28" t="s">
         <v>45</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>413</v>
+        <v>56</v>
       </c>
       <c r="E29" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G29" t="s">
         <v>283</v>
@@ -18375,117 +19019,123 @@
       <c r="K29" t="s">
         <v>46</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>226</v>
+        <v>413</v>
       </c>
       <c r="E30" t="s">
-        <v>415</v>
+        <v>575</v>
       </c>
       <c r="G30" t="s">
         <v>215</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="s">
+        <v>226</v>
+      </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>415</v>
       </c>
       <c r="G31" t="s">
         <v>274</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G32" t="s">
         <v>284</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G33" t="s">
         <v>668</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G34" t="s">
         <v>259</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G35" t="s">
         <v>329</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G36" t="s">
         <v>306</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G37" t="s">
         <v>260</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G38" t="s">
         <v>307</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="39">
+      <c r="E39" t="s">
+        <v>70</v>
+      </c>
       <c r="G39" t="s">
         <v>266</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>688</v>
       </c>
     </row>
@@ -18493,7 +19143,7 @@
       <c r="G40" t="s">
         <v>77</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>392</v>
       </c>
     </row>
@@ -18501,7 +19151,7 @@
       <c r="G41" t="s">
         <v>211</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Z41" t="s">
         <v>121</v>
       </c>
     </row>
@@ -18509,7 +19159,7 @@
       <c r="G42" t="s">
         <v>288</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>122</v>
       </c>
     </row>
@@ -18517,7 +19167,7 @@
       <c r="G43" t="s">
         <v>299</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>123</v>
       </c>
     </row>
@@ -18525,7 +19175,7 @@
       <c r="G44" t="s">
         <v>300</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>124</v>
       </c>
     </row>
@@ -18533,7 +19183,7 @@
       <c r="G45" t="s">
         <v>342</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>125</v>
       </c>
     </row>
@@ -18541,7 +19191,7 @@
       <c r="G46" t="s">
         <v>341</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>126</v>
       </c>
     </row>
@@ -18549,7 +19199,7 @@
       <c r="G47" t="s">
         <v>210</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>438</v>
       </c>
     </row>
@@ -18557,7 +19207,7 @@
       <c r="G48" t="s">
         <v>319</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>212</v>
       </c>
     </row>
@@ -18565,7 +19215,7 @@
       <c r="G49" t="s">
         <v>338</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>76</v>
       </c>
     </row>
@@ -18573,7 +19223,7 @@
       <c r="G50" t="s">
         <v>367</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>693</v>
       </c>
     </row>
@@ -18581,7 +19231,7 @@
       <c r="G51" t="s">
         <v>301</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>127</v>
       </c>
     </row>
@@ -18589,7 +19239,7 @@
       <c r="G52" t="s">
         <v>355</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>128</v>
       </c>
     </row>
@@ -18597,7 +19247,7 @@
       <c r="G53" t="s">
         <v>330</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>129</v>
       </c>
     </row>
@@ -18605,7 +19255,7 @@
       <c r="G54" t="s">
         <v>267</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>643</v>
       </c>
     </row>
@@ -18613,7 +19263,7 @@
       <c r="G55" t="s">
         <v>291</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>463</v>
       </c>
     </row>
@@ -18621,7 +19271,7 @@
       <c r="G56" t="s">
         <v>292</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>130</v>
       </c>
     </row>
@@ -18629,7 +19279,7 @@
       <c r="G57" t="s">
         <v>293</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>345</v>
       </c>
     </row>
@@ -18637,7 +19287,7 @@
       <c r="G58" t="s">
         <v>302</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>464</v>
       </c>
     </row>
@@ -18645,7 +19295,7 @@
       <c r="G59" t="s">
         <v>311</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>131</v>
       </c>
     </row>
@@ -18653,7 +19303,7 @@
       <c r="G60" t="s">
         <v>336</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>132</v>
       </c>
     </row>
@@ -18661,7 +19311,7 @@
       <c r="G61" t="s">
         <v>308</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>133</v>
       </c>
     </row>
@@ -18669,7 +19319,7 @@
       <c r="G62" t="s">
         <v>309</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>134</v>
       </c>
     </row>
@@ -18677,7 +19327,7 @@
       <c r="G63" t="s">
         <v>368</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>135</v>
       </c>
     </row>
@@ -18685,7 +19335,7 @@
       <c r="G64" t="s">
         <v>369</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>136</v>
       </c>
     </row>
@@ -18693,7 +19343,7 @@
       <c r="G65" t="s">
         <v>344</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>137</v>
       </c>
     </row>
@@ -18701,7 +19351,7 @@
       <c r="G66" t="s">
         <v>312</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>439</v>
       </c>
     </row>
@@ -18709,7 +19359,7 @@
       <c r="G67" t="s">
         <v>268</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>634</v>
       </c>
     </row>
@@ -18717,7 +19367,7 @@
       <c r="G68" t="s">
         <v>689</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>213</v>
       </c>
     </row>
@@ -18725,7 +19375,7 @@
       <c r="G69" t="s">
         <v>313</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>388</v>
       </c>
     </row>
@@ -18733,7 +19383,7 @@
       <c r="G70" t="s">
         <v>409</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>440</v>
       </c>
     </row>
@@ -18741,7 +19391,7 @@
       <c r="G71" t="s">
         <v>303</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>138</v>
       </c>
     </row>
@@ -18749,7 +19399,7 @@
       <c r="G72" t="s">
         <v>410</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>139</v>
       </c>
     </row>
@@ -18757,7 +19407,7 @@
       <c r="G73" t="s">
         <v>261</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>140</v>
       </c>
     </row>
@@ -18765,7 +19415,7 @@
       <c r="G74" t="s">
         <v>669</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>141</v>
       </c>
     </row>
@@ -18773,7 +19423,7 @@
       <c r="G75" t="s">
         <v>343</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>196</v>
       </c>
     </row>
@@ -18781,7 +19431,7 @@
       <c r="G76" t="s">
         <v>279</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>197</v>
       </c>
     </row>
@@ -18789,7 +19439,7 @@
       <c r="G77" t="s">
         <v>285</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>452</v>
       </c>
     </row>
@@ -18797,7 +19447,7 @@
       <c r="G78" t="s">
         <v>290</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>465</v>
       </c>
     </row>
@@ -18805,7 +19455,7 @@
       <c r="G79" t="s">
         <v>428</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>142</v>
       </c>
     </row>
@@ -18813,7 +19463,7 @@
       <c r="G80" t="s">
         <v>331</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>143</v>
       </c>
     </row>
@@ -18821,7 +19471,7 @@
       <c r="G81" t="s">
         <v>269</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>144</v>
       </c>
     </row>
@@ -18829,7 +19479,7 @@
       <c r="G82" t="s">
         <v>280</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>656</v>
       </c>
     </row>
@@ -18837,7 +19487,7 @@
       <c r="G83" t="s">
         <v>286</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>145</v>
       </c>
     </row>
@@ -18845,7 +19495,7 @@
       <c r="G84" t="s">
         <v>275</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>146</v>
       </c>
     </row>
@@ -18853,7 +19503,7 @@
       <c r="G85" t="s">
         <v>690</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>198</v>
       </c>
     </row>
@@ -18861,7 +19511,7 @@
       <c r="G86" t="s">
         <v>270</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>644</v>
       </c>
     </row>
@@ -18869,7 +19519,7 @@
       <c r="G87" t="s">
         <v>287</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>199</v>
       </c>
     </row>
@@ -18877,7 +19527,7 @@
       <c r="G88" t="s">
         <v>271</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>453</v>
       </c>
     </row>
@@ -18885,7 +19535,7 @@
       <c r="G89" t="s">
         <v>272</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>200</v>
       </c>
     </row>
@@ -18893,7 +19543,7 @@
       <c r="G90" t="s">
         <v>304</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>201</v>
       </c>
     </row>
@@ -18901,7 +19551,7 @@
       <c r="G91" t="s">
         <v>310</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>214</v>
       </c>
     </row>
@@ -18909,7 +19559,7 @@
       <c r="G92" t="s">
         <v>294</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>147</v>
       </c>
     </row>
@@ -18917,7 +19567,7 @@
       <c r="G93" t="s">
         <v>339</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>202</v>
       </c>
     </row>
@@ -18925,7 +19575,7 @@
       <c r="G94" t="s">
         <v>276</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>441</v>
       </c>
     </row>
@@ -18933,177 +19583,177 @@
       <c r="G95" t="s">
         <v>277</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="96">
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="97">
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="98">
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="108">
-      <c r="Y108" t="s">
+      <c r="Z108" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="109">
-      <c r="Y109" t="s">
+      <c r="Z109" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="110">
-      <c r="Y110" t="s">
+      <c r="Z110" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="111">
-      <c r="Y111" t="s">
+      <c r="Z111" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="112">
-      <c r="Y112" t="s">
+      <c r="Z112" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="113">
-      <c r="Y113" t="s">
+      <c r="Z113" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="114">
-      <c r="Y114" t="s">
+      <c r="Z114" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="115">
-      <c r="Y115" t="s">
+      <c r="Z115" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="116">
-      <c r="Y116" t="s">
+      <c r="Z116" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="117">
-      <c r="Y117" t="s">
+      <c r="Z117" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="118">
-      <c r="Y118" t="s">
+      <c r="Z118" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="119">
-      <c r="Y119" t="s">
+      <c r="Z119" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="120">
-      <c r="Y120" t="s">
+      <c r="Z120" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="121">
-      <c r="Y121" t="s">
+      <c r="Z121" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="122">
-      <c r="Y122" t="s">
+      <c r="Z122" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="123">
-      <c r="Y123" t="s">
+      <c r="Z123" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="124">
-      <c r="Y124" t="s">
+      <c r="Z124" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="125">
-      <c r="Y125" t="s">
+      <c r="Z125" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="126">
-      <c r="Y126" t="s">
+      <c r="Z126" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="127">
-      <c r="Y127" t="s">
+      <c r="Z127" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="128">
-      <c r="Y128" t="s">
+      <c r="Z128" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="129">
-      <c r="Y129" t="s">
+      <c r="Z129" t="s">
         <v>169</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
@@ -24,7 +24,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13817" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14923" uniqueCount="705">
   <si>
     <t>description</t>
   </si>
@@ -2273,13 +2273,19 @@
   <si>
     <t>spellCheck(var,profile,text)</t>
   </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="413" x14ac:knownFonts="1">
+  <fonts count="445" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4894,8 +4900,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="710">
+  <fills count="764">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8916,8 +9124,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="711">
+  <borders count="775">
     <border>
       <left/>
       <right/>
@@ -16093,6 +16607,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -16100,7 +17266,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="451">
+  <cellXfs count="483">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17435,52 +18601,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="682" fontId="396" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="397" fillId="685" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="686" fillId="685" fontId="397" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="398" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="399" fillId="688" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="688" fontId="399" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="400" fillId="691" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="694" fillId="691" fontId="400" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="401" fillId="694" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="698" fillId="694" fontId="401" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="402" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="403" fillId="697" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="697" fontId="403" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="404" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="700" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="700" fontId="405" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="406" fillId="691" borderId="706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="706" fillId="691" fontId="406" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="407" fillId="703" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="710" fillId="703" fontId="407" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="408" fillId="703" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="710" fillId="703" fontId="408" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="409" fillId="694" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="694" fontId="409" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="410" fillId="706" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="706" fontId="410" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="411" fillId="694" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="694" fontId="411" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="412" fillId="709" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="709" fontId="412" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="712" fontId="413" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="414" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="722" fillId="715" fontId="415" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="726" fillId="718" fontId="416" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="721" fontId="417" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="418" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="724" fontId="419" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="420" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="734" fillId="727" fontId="421" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="738" fillId="718" fontId="422" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="742" fillId="730" fontId="423" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="742" fillId="730" fontId="424" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="721" fontId="425" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="733" fontId="426" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="721" fontId="427" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="736" fontId="428" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="429" fillId="739" borderId="750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="742" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="745" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="748" borderId="762" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="751" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="754" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="745" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="439" fillId="757" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="757" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="748" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="760" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="443" fillId="748" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="763" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -19157,7 +20419,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>288</v>
+        <v>703</v>
       </c>
       <c r="Z42" t="s">
         <v>122</v>
@@ -19165,7 +20427,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="Z43" t="s">
         <v>123</v>
@@ -19173,7 +20435,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Z44" t="s">
         <v>124</v>
@@ -19181,7 +20443,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="Z45" t="s">
         <v>125</v>
@@ -19189,7 +20451,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z46" t="s">
         <v>126</v>
@@ -19197,7 +20459,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>210</v>
+        <v>341</v>
       </c>
       <c r="Z47" t="s">
         <v>438</v>
@@ -19205,7 +20467,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>319</v>
+        <v>210</v>
       </c>
       <c r="Z48" t="s">
         <v>212</v>
@@ -19213,7 +20475,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="Z49" t="s">
         <v>76</v>
@@ -19221,7 +20483,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="Z50" t="s">
         <v>693</v>
@@ -19229,7 +20491,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>301</v>
+        <v>367</v>
       </c>
       <c r="Z51" t="s">
         <v>127</v>
@@ -19237,7 +20499,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="Z52" t="s">
         <v>128</v>
@@ -19245,7 +20507,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="Z53" t="s">
         <v>129</v>
@@ -19253,7 +20515,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>267</v>
+        <v>330</v>
       </c>
       <c r="Z54" t="s">
         <v>643</v>
@@ -19261,7 +20523,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="Z55" t="s">
         <v>463</v>
@@ -19269,7 +20531,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Z56" t="s">
         <v>130</v>
@@ -19277,7 +20539,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Z57" t="s">
         <v>345</v>
@@ -19285,7 +20547,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>302</v>
+        <v>704</v>
       </c>
       <c r="Z58" t="s">
         <v>464</v>
@@ -19293,7 +20555,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="Z59" t="s">
         <v>131</v>
@@ -19301,7 +20563,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="Z60" t="s">
         <v>132</v>
@@ -19309,7 +20571,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Z61" t="s">
         <v>133</v>
@@ -19317,7 +20579,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="Z62" t="s">
         <v>134</v>
@@ -19325,7 +20587,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>368</v>
+        <v>308</v>
       </c>
       <c r="Z63" t="s">
         <v>135</v>
@@ -19333,7 +20595,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>369</v>
+        <v>309</v>
       </c>
       <c r="Z64" t="s">
         <v>136</v>
@@ -19341,7 +20603,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="Z65" t="s">
         <v>137</v>
@@ -19349,7 +20611,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>312</v>
+        <v>369</v>
       </c>
       <c r="Z66" t="s">
         <v>439</v>
@@ -19357,7 +20619,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>268</v>
+        <v>344</v>
       </c>
       <c r="Z67" t="s">
         <v>634</v>
@@ -19365,7 +20627,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>689</v>
+        <v>312</v>
       </c>
       <c r="Z68" t="s">
         <v>213</v>
@@ -19373,7 +20635,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
       <c r="Z69" t="s">
         <v>388</v>
@@ -19381,7 +20643,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>409</v>
+        <v>689</v>
       </c>
       <c r="Z70" t="s">
         <v>440</v>
@@ -19389,7 +20651,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="Z71" t="s">
         <v>138</v>
@@ -19397,7 +20659,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="Z72" t="s">
         <v>139</v>
@@ -19405,7 +20667,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="Z73" t="s">
         <v>140</v>
@@ -19413,7 +20675,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>669</v>
+        <v>410</v>
       </c>
       <c r="Z74" t="s">
         <v>141</v>
@@ -19421,7 +20683,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>343</v>
+        <v>261</v>
       </c>
       <c r="Z75" t="s">
         <v>196</v>
@@ -19429,7 +20691,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>279</v>
+        <v>669</v>
       </c>
       <c r="Z76" t="s">
         <v>197</v>
@@ -19437,7 +20699,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>285</v>
+        <v>343</v>
       </c>
       <c r="Z77" t="s">
         <v>452</v>
@@ -19445,7 +20707,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="Z78" t="s">
         <v>465</v>
@@ -19453,7 +20715,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>428</v>
+        <v>285</v>
       </c>
       <c r="Z79" t="s">
         <v>142</v>
@@ -19461,7 +20723,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>331</v>
+        <v>290</v>
       </c>
       <c r="Z80" t="s">
         <v>143</v>
@@ -19469,7 +20731,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>269</v>
+        <v>428</v>
       </c>
       <c r="Z81" t="s">
         <v>144</v>
@@ -19477,7 +20739,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>280</v>
+        <v>331</v>
       </c>
       <c r="Z82" t="s">
         <v>656</v>
@@ -19485,7 +20747,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="Z83" t="s">
         <v>145</v>
@@ -19493,7 +20755,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Z84" t="s">
         <v>146</v>
@@ -19501,7 +20763,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>690</v>
+        <v>286</v>
       </c>
       <c r="Z85" t="s">
         <v>198</v>
@@ -19509,7 +20771,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Z86" t="s">
         <v>644</v>
@@ -19517,7 +20779,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>287</v>
+        <v>690</v>
       </c>
       <c r="Z87" t="s">
         <v>199</v>
@@ -19525,7 +20787,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Z88" t="s">
         <v>453</v>
@@ -19533,7 +20795,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="Z89" t="s">
         <v>200</v>
@@ -19541,7 +20803,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="Z90" t="s">
         <v>201</v>
@@ -19549,7 +20811,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="Z91" t="s">
         <v>214</v>
@@ -19557,7 +20819,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="Z92" t="s">
         <v>147</v>
@@ -19565,7 +20827,7 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="Z93" t="s">
         <v>202</v>
@@ -19573,7 +20835,7 @@
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="Z94" t="s">
         <v>441</v>
@@ -19581,18 +20843,24 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>277</v>
+        <v>339</v>
       </c>
       <c r="Z95" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="96">
+      <c r="G96" t="s">
+        <v>276</v>
+      </c>
       <c r="Z96" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="97">
+      <c r="G97" t="s">
+        <v>277</v>
+      </c>
       <c r="Z97" t="s">
         <v>204</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
@@ -30,7 +30,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -43,13 +43,13 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14923" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15474" uniqueCount="706">
   <si>
     <t>description</t>
   </si>
@@ -2279,13 +2279,16 @@
   <si>
     <t>mouseWheel(amount,modifiers,x,y)</t>
   </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="445" x14ac:knownFonts="1">
+  <fonts count="461" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5102,8 +5105,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="764">
+  <fills count="791">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9430,8 +9534,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="775">
+  <borders count="807">
     <border>
       <left/>
       <right/>
@@ -17259,6 +17516,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -17266,7 +17849,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="483">
+  <cellXfs count="499">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18697,52 +19280,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="736" fontId="428" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="429" fillId="739" borderId="750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="750" fillId="739" fontId="429" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="430" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="430" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="431" fillId="742" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="754" fillId="742" fontId="431" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="432" fillId="745" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="745" fontId="432" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="433" fillId="748" borderId="762" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="762" fillId="748" fontId="433" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="434" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="435" fillId="751" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="751" fontId="435" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="436" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="437" fillId="754" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="766" fillId="754" fontId="437" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="438" fillId="745" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="770" fillId="745" fontId="438" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="439" fillId="757" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="757" fontId="439" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="440" fillId="757" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="757" fontId="440" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="441" fillId="748" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="748" fontId="441" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="442" fillId="760" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="760" fontId="442" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="443" fillId="748" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="748" fontId="443" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="444" fillId="763" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="763" fontId="444" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="766" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="769" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="772" borderId="790" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="775" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="778" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="781" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="772" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="455" fillId="784" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="784" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="457" fillId="775" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="787" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="775" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="790" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -19097,7 +19728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -19182,24 +19813,21 @@
         <v>396</v>
       </c>
       <c r="Y1" t="s">
-        <v>700</v>
+        <v>53</v>
       </c>
       <c r="Z1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC1" t="s">
-        <v>56</v>
+        <v>413</v>
       </c>
       <c r="AD1" t="s">
-        <v>413</v>
-      </c>
-      <c r="AE1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -19277,24 +19905,21 @@
         <v>406</v>
       </c>
       <c r="Y2" t="s">
-        <v>702</v>
+        <v>96</v>
       </c>
       <c r="Z2" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="AA2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AB2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="AC2" t="s">
-        <v>182</v>
+        <v>431</v>
       </c>
       <c r="AD2" t="s">
-        <v>431</v>
-      </c>
-      <c r="AE2" t="s">
         <v>651</v>
       </c>
     </row>
@@ -19365,22 +19990,22 @@
       <c r="X3" t="s">
         <v>407</v>
       </c>
+      <c r="Y3" t="s">
+        <v>97</v>
+      </c>
       <c r="Z3" t="s">
-        <v>97</v>
+        <v>171</v>
       </c>
       <c r="AA3" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AB3" t="s">
-        <v>176</v>
+        <v>363</v>
       </c>
       <c r="AC3" t="s">
-        <v>363</v>
+        <v>183</v>
       </c>
       <c r="AD3" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -19448,22 +20073,22 @@
       <c r="X4" t="s">
         <v>408</v>
       </c>
+      <c r="Y4" t="s">
+        <v>353</v>
+      </c>
       <c r="Z4" t="s">
-        <v>353</v>
+        <v>172</v>
       </c>
       <c r="AA4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AB4" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AC4" t="s">
-        <v>183</v>
+        <v>423</v>
       </c>
       <c r="AD4" t="s">
-        <v>423</v>
-      </c>
-      <c r="AE4" t="s">
         <v>228</v>
       </c>
     </row>
@@ -19522,22 +20147,22 @@
       <c r="W5" t="s">
         <v>358</v>
       </c>
+      <c r="Y5" t="s">
+        <v>354</v>
+      </c>
       <c r="Z5" t="s">
-        <v>354</v>
+        <v>173</v>
       </c>
       <c r="AA5" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AB5" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AC5" t="s">
-        <v>184</v>
+        <v>424</v>
       </c>
       <c r="AD5" t="s">
-        <v>424</v>
-      </c>
-      <c r="AE5" t="s">
         <v>229</v>
       </c>
     </row>
@@ -19590,22 +20215,22 @@
       <c r="W6" t="s">
         <v>360</v>
       </c>
+      <c r="Y6" t="s">
+        <v>98</v>
+      </c>
       <c r="Z6" t="s">
-        <v>98</v>
+        <v>444</v>
       </c>
       <c r="AA6" t="s">
-        <v>444</v>
+        <v>179</v>
       </c>
       <c r="AB6" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AC6" t="s">
-        <v>185</v>
+        <v>425</v>
       </c>
       <c r="AD6" t="s">
-        <v>425</v>
-      </c>
-      <c r="AE6" t="s">
         <v>230</v>
       </c>
     </row>
@@ -19652,22 +20277,22 @@
       <c r="W7" t="s">
         <v>359</v>
       </c>
+      <c r="Y7" t="s">
+        <v>99</v>
+      </c>
       <c r="Z7" t="s">
-        <v>99</v>
+        <v>445</v>
       </c>
       <c r="AA7" t="s">
-        <v>445</v>
+        <v>180</v>
       </c>
       <c r="AB7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AC7" t="s">
-        <v>186</v>
+        <v>426</v>
       </c>
       <c r="AD7" t="s">
-        <v>426</v>
-      </c>
-      <c r="AE7" t="s">
         <v>694</v>
       </c>
     </row>
@@ -19708,22 +20333,22 @@
       <c r="W8" t="s">
         <v>361</v>
       </c>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
       <c r="Z8" t="s">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="AA8" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AB8" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AC8" t="s">
-        <v>187</v>
+        <v>427</v>
       </c>
       <c r="AD8" t="s">
-        <v>427</v>
-      </c>
-      <c r="AE8" t="s">
         <v>695</v>
       </c>
     </row>
@@ -19764,13 +20389,13 @@
       <c r="W9" t="s">
         <v>362</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>208</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>188</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>696</v>
       </c>
     </row>
@@ -19805,13 +20430,13 @@
       <c r="T10" t="s">
         <v>405</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>256</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>189</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>231</v>
       </c>
     </row>
@@ -19843,13 +20468,13 @@
       <c r="R11" t="s">
         <v>247</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>257</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>258</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>232</v>
       </c>
     </row>
@@ -19881,13 +20506,13 @@
       <c r="R12" t="s">
         <v>248</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>101</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>190</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>233</v>
       </c>
     </row>
@@ -19916,13 +20541,13 @@
       <c r="R13" t="s">
         <v>253</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>325</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>191</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>635</v>
       </c>
     </row>
@@ -19951,13 +20576,13 @@
       <c r="R14" t="s">
         <v>249</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>102</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>192</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>652</v>
       </c>
     </row>
@@ -19983,13 +20608,13 @@
       <c r="R15" t="s">
         <v>250</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>103</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>193</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>653</v>
       </c>
     </row>
@@ -20007,7 +20632,7 @@
         <v>80</v>
       </c>
       <c r="M16" t="s">
-        <v>40</v>
+        <v>705</v>
       </c>
       <c r="Q16" t="s">
         <v>661</v>
@@ -20015,13 +20640,13 @@
       <c r="R16" t="s">
         <v>251</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>74</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>194</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>657</v>
       </c>
     </row>
@@ -20039,15 +20664,15 @@
         <v>81</v>
       </c>
       <c r="M17" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y17" t="s">
         <v>662</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>466</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>658</v>
       </c>
     </row>
@@ -20064,10 +20689,13 @@
       <c r="K18" t="s">
         <v>462</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y18" t="s">
         <v>104</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>636</v>
       </c>
     </row>
@@ -20084,10 +20712,10 @@
       <c r="K19" t="s">
         <v>82</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>105</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>654</v>
       </c>
     </row>
@@ -20104,10 +20732,10 @@
       <c r="K20" t="s">
         <v>83</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>106</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>655</v>
       </c>
     </row>
@@ -20124,10 +20752,10 @@
       <c r="K21" t="s">
         <v>379</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>107</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>659</v>
       </c>
     </row>
@@ -20144,10 +20772,10 @@
       <c r="K22" t="s">
         <v>602</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>645</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>234</v>
       </c>
     </row>
@@ -20164,10 +20792,10 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>109</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>697</v>
       </c>
     </row>
@@ -20184,16 +20812,16 @@
       <c r="K24" t="s">
         <v>391</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>110</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>700</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
         <v>62</v>
@@ -20204,16 +20832,16 @@
       <c r="K25" t="s">
         <v>684</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>111</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
         <v>448</v>
@@ -20224,16 +20852,16 @@
       <c r="K26" t="s">
         <v>84</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>112</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
         <v>224</v>
@@ -20244,16 +20872,16 @@
       <c r="K27" t="s">
         <v>433</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>113</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
         <v>225</v>
@@ -20264,13 +20892,13 @@
       <c r="K28" t="s">
         <v>45</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>413</v>
       </c>
       <c r="E29" t="s">
         <v>574</v>
@@ -20281,13 +20909,13 @@
       <c r="K29" t="s">
         <v>46</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>413</v>
+        <v>226</v>
       </c>
       <c r="E30" t="s">
         <v>575</v>
@@ -20295,21 +20923,18 @@
       <c r="G30" t="s">
         <v>215</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>226</v>
-      </c>
       <c r="E31" t="s">
         <v>415</v>
       </c>
       <c r="G31" t="s">
         <v>274</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>116</v>
       </c>
     </row>
@@ -20320,7 +20945,7 @@
       <c r="G32" t="s">
         <v>284</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>117</v>
       </c>
     </row>
@@ -20331,7 +20956,7 @@
       <c r="G33" t="s">
         <v>668</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>118</v>
       </c>
     </row>
@@ -20342,7 +20967,7 @@
       <c r="G34" t="s">
         <v>259</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>119</v>
       </c>
     </row>
@@ -20353,7 +20978,7 @@
       <c r="G35" t="s">
         <v>329</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>209</v>
       </c>
     </row>
@@ -20364,7 +20989,7 @@
       <c r="G36" t="s">
         <v>306</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>120</v>
       </c>
     </row>
@@ -20375,7 +21000,7 @@
       <c r="G37" t="s">
         <v>260</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>337</v>
       </c>
     </row>
@@ -20386,7 +21011,7 @@
       <c r="G38" t="s">
         <v>307</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>437</v>
       </c>
     </row>
@@ -20397,7 +21022,7 @@
       <c r="G39" t="s">
         <v>266</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>688</v>
       </c>
     </row>
@@ -20405,7 +21030,7 @@
       <c r="G40" t="s">
         <v>77</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>392</v>
       </c>
     </row>
@@ -20413,7 +21038,7 @@
       <c r="G41" t="s">
         <v>211</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>121</v>
       </c>
     </row>
@@ -20421,7 +21046,7 @@
       <c r="G42" t="s">
         <v>703</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>122</v>
       </c>
     </row>
@@ -20429,7 +21054,7 @@
       <c r="G43" t="s">
         <v>288</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>123</v>
       </c>
     </row>
@@ -20437,7 +21062,7 @@
       <c r="G44" t="s">
         <v>299</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>124</v>
       </c>
     </row>
@@ -20445,7 +21070,7 @@
       <c r="G45" t="s">
         <v>300</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>125</v>
       </c>
     </row>
@@ -20453,7 +21078,7 @@
       <c r="G46" t="s">
         <v>342</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>126</v>
       </c>
     </row>
@@ -20461,7 +21086,7 @@
       <c r="G47" t="s">
         <v>341</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>438</v>
       </c>
     </row>
@@ -20469,7 +21094,7 @@
       <c r="G48" t="s">
         <v>210</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>212</v>
       </c>
     </row>
@@ -20477,7 +21102,7 @@
       <c r="G49" t="s">
         <v>319</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>76</v>
       </c>
     </row>
@@ -20485,7 +21110,7 @@
       <c r="G50" t="s">
         <v>338</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>693</v>
       </c>
     </row>
@@ -20493,7 +21118,7 @@
       <c r="G51" t="s">
         <v>367</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>127</v>
       </c>
     </row>
@@ -20501,7 +21126,7 @@
       <c r="G52" t="s">
         <v>301</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>128</v>
       </c>
     </row>
@@ -20509,7 +21134,7 @@
       <c r="G53" t="s">
         <v>355</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>129</v>
       </c>
     </row>
@@ -20517,7 +21142,7 @@
       <c r="G54" t="s">
         <v>330</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>643</v>
       </c>
     </row>
@@ -20525,7 +21150,7 @@
       <c r="G55" t="s">
         <v>267</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>463</v>
       </c>
     </row>
@@ -20533,7 +21158,7 @@
       <c r="G56" t="s">
         <v>291</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>130</v>
       </c>
     </row>
@@ -20541,7 +21166,7 @@
       <c r="G57" t="s">
         <v>292</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>345</v>
       </c>
     </row>
@@ -20549,7 +21174,7 @@
       <c r="G58" t="s">
         <v>704</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>464</v>
       </c>
     </row>
@@ -20557,7 +21182,7 @@
       <c r="G59" t="s">
         <v>293</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>131</v>
       </c>
     </row>
@@ -20565,7 +21190,7 @@
       <c r="G60" t="s">
         <v>302</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>132</v>
       </c>
     </row>
@@ -20573,7 +21198,7 @@
       <c r="G61" t="s">
         <v>311</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>133</v>
       </c>
     </row>
@@ -20581,7 +21206,7 @@
       <c r="G62" t="s">
         <v>336</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>134</v>
       </c>
     </row>
@@ -20589,7 +21214,7 @@
       <c r="G63" t="s">
         <v>308</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>135</v>
       </c>
     </row>
@@ -20597,7 +21222,7 @@
       <c r="G64" t="s">
         <v>309</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>136</v>
       </c>
     </row>
@@ -20605,7 +21230,7 @@
       <c r="G65" t="s">
         <v>368</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>137</v>
       </c>
     </row>
@@ -20613,7 +21238,7 @@
       <c r="G66" t="s">
         <v>369</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>439</v>
       </c>
     </row>
@@ -20621,7 +21246,7 @@
       <c r="G67" t="s">
         <v>344</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>634</v>
       </c>
     </row>
@@ -20629,7 +21254,7 @@
       <c r="G68" t="s">
         <v>312</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>213</v>
       </c>
     </row>
@@ -20637,7 +21262,7 @@
       <c r="G69" t="s">
         <v>268</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>388</v>
       </c>
     </row>
@@ -20645,7 +21270,7 @@
       <c r="G70" t="s">
         <v>689</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>440</v>
       </c>
     </row>
@@ -20653,7 +21278,7 @@
       <c r="G71" t="s">
         <v>313</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>138</v>
       </c>
     </row>
@@ -20661,7 +21286,7 @@
       <c r="G72" t="s">
         <v>409</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>139</v>
       </c>
     </row>
@@ -20669,7 +21294,7 @@
       <c r="G73" t="s">
         <v>303</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>140</v>
       </c>
     </row>
@@ -20677,7 +21302,7 @@
       <c r="G74" t="s">
         <v>410</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>141</v>
       </c>
     </row>
@@ -20685,7 +21310,7 @@
       <c r="G75" t="s">
         <v>261</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>196</v>
       </c>
     </row>
@@ -20693,7 +21318,7 @@
       <c r="G76" t="s">
         <v>669</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>197</v>
       </c>
     </row>
@@ -20701,7 +21326,7 @@
       <c r="G77" t="s">
         <v>343</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>452</v>
       </c>
     </row>
@@ -20709,7 +21334,7 @@
       <c r="G78" t="s">
         <v>279</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>465</v>
       </c>
     </row>
@@ -20717,7 +21342,7 @@
       <c r="G79" t="s">
         <v>285</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>142</v>
       </c>
     </row>
@@ -20725,7 +21350,7 @@
       <c r="G80" t="s">
         <v>290</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>143</v>
       </c>
     </row>
@@ -20733,7 +21358,7 @@
       <c r="G81" t="s">
         <v>428</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>144</v>
       </c>
     </row>
@@ -20741,7 +21366,7 @@
       <c r="G82" t="s">
         <v>331</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>656</v>
       </c>
     </row>
@@ -20749,7 +21374,7 @@
       <c r="G83" t="s">
         <v>269</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>145</v>
       </c>
     </row>
@@ -20757,7 +21382,7 @@
       <c r="G84" t="s">
         <v>280</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>146</v>
       </c>
     </row>
@@ -20765,7 +21390,7 @@
       <c r="G85" t="s">
         <v>286</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>198</v>
       </c>
     </row>
@@ -20773,7 +21398,7 @@
       <c r="G86" t="s">
         <v>275</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>644</v>
       </c>
     </row>
@@ -20781,7 +21406,7 @@
       <c r="G87" t="s">
         <v>690</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>199</v>
       </c>
     </row>
@@ -20789,7 +21414,7 @@
       <c r="G88" t="s">
         <v>270</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>453</v>
       </c>
     </row>
@@ -20797,7 +21422,7 @@
       <c r="G89" t="s">
         <v>287</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>200</v>
       </c>
     </row>
@@ -20805,7 +21430,7 @@
       <c r="G90" t="s">
         <v>271</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>201</v>
       </c>
     </row>
@@ -20813,7 +21438,7 @@
       <c r="G91" t="s">
         <v>272</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>214</v>
       </c>
     </row>
@@ -20821,7 +21446,7 @@
       <c r="G92" t="s">
         <v>304</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>147</v>
       </c>
     </row>
@@ -20829,7 +21454,7 @@
       <c r="G93" t="s">
         <v>310</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>202</v>
       </c>
     </row>
@@ -20837,7 +21462,7 @@
       <c r="G94" t="s">
         <v>294</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>441</v>
       </c>
     </row>
@@ -20845,7 +21470,7 @@
       <c r="G95" t="s">
         <v>339</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>442</v>
       </c>
     </row>
@@ -20853,7 +21478,7 @@
       <c r="G96" t="s">
         <v>276</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>203</v>
       </c>
     </row>
@@ -20861,167 +21486,167 @@
       <c r="G97" t="s">
         <v>277</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>169</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15474" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17137" uniqueCount="710">
   <si>
     <t>description</t>
   </si>
@@ -2282,13 +2282,25 @@
   <si>
     <t>storeKeys(json,jsonpath,var)</t>
   </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>saveISTDivsAsCsv(config,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="461" x14ac:knownFonts="1">
+  <fonts count="509" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5206,8 +5218,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="791">
+  <fills count="872">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9687,8 +10002,467 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="807">
+  <borders count="903">
     <border>
       <left/>
       <right/>
@@ -17842,6 +18616,984 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -17849,7 +19601,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="499">
+  <cellXfs count="547">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -19328,52 +21080,196 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="763" fontId="444" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="445" fillId="766" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="782" fillId="766" fontId="445" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="446" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="446" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="447" fillId="769" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="769" fontId="447" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="448" fillId="772" borderId="790" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="790" fillId="772" fontId="448" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="449" fillId="775" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="794" fillId="775" fontId="449" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="450" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="451" fillId="778" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="778" fontId="451" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="452" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="452" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="453" fillId="781" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="798" fillId="781" fontId="453" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="454" fillId="772" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="772" fontId="454" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="455" fillId="784" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="806" fillId="784" fontId="455" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="456" fillId="784" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="806" fillId="784" fontId="456" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="457" fillId="775" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="775" fontId="457" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="458" fillId="787" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="787" fontId="458" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="459" fillId="775" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="775" fontId="459" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="460" fillId="790" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="790" fontId="460" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="793" fontId="461" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="462" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="818" fillId="796" fontId="463" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="822" fillId="799" fontId="464" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="826" fillId="802" fontId="465" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="466" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="805" fontId="467" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="468" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="830" fillId="808" fontId="469" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="834" fillId="799" fontId="470" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="838" fillId="811" fontId="471" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="838" fillId="811" fontId="472" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="802" fontId="473" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="814" fontId="474" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="802" fontId="475" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="817" fontId="476" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="846" fillId="820" fontId="477" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="478" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="850" fillId="823" fontId="479" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="854" fillId="826" fontId="480" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="858" fillId="829" fontId="481" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="482" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="832" fontId="483" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="484" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="862" fillId="835" fontId="485" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="866" fillId="826" fontId="486" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="870" fillId="838" fontId="487" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="870" fillId="838" fontId="488" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="829" fontId="489" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="841" fontId="490" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="829" fontId="491" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="844" fontId="492" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="493" fillId="847" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="850" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="853" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="856" borderId="890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="859" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="862" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="853" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="865" borderId="902" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="865" borderId="902" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="856" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="868" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="856" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="871" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -19728,7 +21624,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AE133"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -20813,7 +22709,7 @@
         <v>391</v>
       </c>
       <c r="Y24" t="s">
-        <v>110</v>
+        <v>706</v>
       </c>
       <c r="AD24" t="s">
         <v>698</v>
@@ -20833,7 +22729,7 @@
         <v>684</v>
       </c>
       <c r="Y25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AD25" t="s">
         <v>699</v>
@@ -20853,7 +22749,7 @@
         <v>84</v>
       </c>
       <c r="Y26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AD26" t="s">
         <v>235</v>
@@ -20873,7 +22769,7 @@
         <v>433</v>
       </c>
       <c r="Y27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD27" t="s">
         <v>236</v>
@@ -20893,7 +22789,7 @@
         <v>45</v>
       </c>
       <c r="Y28" t="s">
-        <v>326</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29">
@@ -20910,7 +22806,7 @@
         <v>46</v>
       </c>
       <c r="Y29" t="s">
-        <v>114</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30">
@@ -20924,7 +22820,7 @@
         <v>215</v>
       </c>
       <c r="Y30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31">
@@ -20935,7 +22831,7 @@
         <v>274</v>
       </c>
       <c r="Y31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32">
@@ -20946,7 +22842,7 @@
         <v>284</v>
       </c>
       <c r="Y32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33">
@@ -20957,7 +22853,7 @@
         <v>668</v>
       </c>
       <c r="Y33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34">
@@ -20968,7 +22864,7 @@
         <v>259</v>
       </c>
       <c r="Y34" t="s">
-        <v>119</v>
+        <v>707</v>
       </c>
     </row>
     <row r="35">
@@ -20979,7 +22875,7 @@
         <v>329</v>
       </c>
       <c r="Y35" t="s">
-        <v>209</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36">
@@ -20990,7 +22886,7 @@
         <v>306</v>
       </c>
       <c r="Y36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37">
@@ -21001,7 +22897,7 @@
         <v>260</v>
       </c>
       <c r="Y37" t="s">
-        <v>337</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38">
@@ -21012,7 +22908,7 @@
         <v>307</v>
       </c>
       <c r="Y38" t="s">
-        <v>437</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39">
@@ -21023,7 +22919,7 @@
         <v>266</v>
       </c>
       <c r="Y39" t="s">
-        <v>688</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40">
@@ -21031,7 +22927,7 @@
         <v>77</v>
       </c>
       <c r="Y40" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
     </row>
     <row r="41">
@@ -21039,7 +22935,7 @@
         <v>211</v>
       </c>
       <c r="Y41" t="s">
-        <v>121</v>
+        <v>688</v>
       </c>
     </row>
     <row r="42">
@@ -21047,7 +22943,7 @@
         <v>703</v>
       </c>
       <c r="Y42" t="s">
-        <v>122</v>
+        <v>392</v>
       </c>
     </row>
     <row r="43">
@@ -21055,7 +22951,7 @@
         <v>288</v>
       </c>
       <c r="Y43" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44">
@@ -21063,7 +22959,7 @@
         <v>299</v>
       </c>
       <c r="Y44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45">
@@ -21071,7 +22967,7 @@
         <v>300</v>
       </c>
       <c r="Y45" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46">
@@ -21079,7 +22975,7 @@
         <v>342</v>
       </c>
       <c r="Y46" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47">
@@ -21087,7 +22983,7 @@
         <v>341</v>
       </c>
       <c r="Y47" t="s">
-        <v>438</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48">
@@ -21095,7 +22991,7 @@
         <v>210</v>
       </c>
       <c r="Y48" t="s">
-        <v>212</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49">
@@ -21103,7 +22999,7 @@
         <v>319</v>
       </c>
       <c r="Y49" t="s">
-        <v>76</v>
+        <v>438</v>
       </c>
     </row>
     <row r="50">
@@ -21111,7 +23007,7 @@
         <v>338</v>
       </c>
       <c r="Y50" t="s">
-        <v>693</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51">
@@ -21119,7 +23015,7 @@
         <v>367</v>
       </c>
       <c r="Y51" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52">
@@ -21127,7 +23023,7 @@
         <v>301</v>
       </c>
       <c r="Y52" t="s">
-        <v>128</v>
+        <v>693</v>
       </c>
     </row>
     <row r="53">
@@ -21135,7 +23031,7 @@
         <v>355</v>
       </c>
       <c r="Y53" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54">
@@ -21143,7 +23039,7 @@
         <v>330</v>
       </c>
       <c r="Y54" t="s">
-        <v>643</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55">
@@ -21151,7 +23047,7 @@
         <v>267</v>
       </c>
       <c r="Y55" t="s">
-        <v>463</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56">
@@ -21159,7 +23055,7 @@
         <v>291</v>
       </c>
       <c r="Y56" t="s">
-        <v>130</v>
+        <v>643</v>
       </c>
     </row>
     <row r="57">
@@ -21167,7 +23063,7 @@
         <v>292</v>
       </c>
       <c r="Y57" t="s">
-        <v>345</v>
+        <v>463</v>
       </c>
     </row>
     <row r="58">
@@ -21175,7 +23071,7 @@
         <v>704</v>
       </c>
       <c r="Y58" t="s">
-        <v>464</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59">
@@ -21183,7 +23079,7 @@
         <v>293</v>
       </c>
       <c r="Y59" t="s">
-        <v>131</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60">
@@ -21191,7 +23087,7 @@
         <v>302</v>
       </c>
       <c r="Y60" t="s">
-        <v>132</v>
+        <v>464</v>
       </c>
     </row>
     <row r="61">
@@ -21199,7 +23095,7 @@
         <v>311</v>
       </c>
       <c r="Y61" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62">
@@ -21207,7 +23103,7 @@
         <v>336</v>
       </c>
       <c r="Y62" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63">
@@ -21215,7 +23111,7 @@
         <v>308</v>
       </c>
       <c r="Y63" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64">
@@ -21223,7 +23119,7 @@
         <v>309</v>
       </c>
       <c r="Y64" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65">
@@ -21231,7 +23127,7 @@
         <v>368</v>
       </c>
       <c r="Y65" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66">
@@ -21239,7 +23135,7 @@
         <v>369</v>
       </c>
       <c r="Y66" t="s">
-        <v>439</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67">
@@ -21247,7 +23143,7 @@
         <v>344</v>
       </c>
       <c r="Y67" t="s">
-        <v>634</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68">
@@ -21255,7 +23151,7 @@
         <v>312</v>
       </c>
       <c r="Y68" t="s">
-        <v>213</v>
+        <v>439</v>
       </c>
     </row>
     <row r="69">
@@ -21263,7 +23159,7 @@
         <v>268</v>
       </c>
       <c r="Y69" t="s">
-        <v>388</v>
+        <v>634</v>
       </c>
     </row>
     <row r="70">
@@ -21271,7 +23167,7 @@
         <v>689</v>
       </c>
       <c r="Y70" t="s">
-        <v>440</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71">
@@ -21279,7 +23175,7 @@
         <v>313</v>
       </c>
       <c r="Y71" t="s">
-        <v>138</v>
+        <v>388</v>
       </c>
     </row>
     <row r="72">
@@ -21287,7 +23183,7 @@
         <v>409</v>
       </c>
       <c r="Y72" t="s">
-        <v>139</v>
+        <v>440</v>
       </c>
     </row>
     <row r="73">
@@ -21295,7 +23191,7 @@
         <v>303</v>
       </c>
       <c r="Y73" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74">
@@ -21303,7 +23199,7 @@
         <v>410</v>
       </c>
       <c r="Y74" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75">
@@ -21311,7 +23207,7 @@
         <v>261</v>
       </c>
       <c r="Y75" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76">
@@ -21319,7 +23215,7 @@
         <v>669</v>
       </c>
       <c r="Y76" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77">
@@ -21327,7 +23223,7 @@
         <v>343</v>
       </c>
       <c r="Y77" t="s">
-        <v>452</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78">
@@ -21335,7 +23231,7 @@
         <v>279</v>
       </c>
       <c r="Y78" t="s">
-        <v>465</v>
+        <v>197</v>
       </c>
     </row>
     <row r="79">
@@ -21343,7 +23239,7 @@
         <v>285</v>
       </c>
       <c r="Y79" t="s">
-        <v>142</v>
+        <v>452</v>
       </c>
     </row>
     <row r="80">
@@ -21351,7 +23247,7 @@
         <v>290</v>
       </c>
       <c r="Y80" t="s">
-        <v>143</v>
+        <v>465</v>
       </c>
     </row>
     <row r="81">
@@ -21359,7 +23255,7 @@
         <v>428</v>
       </c>
       <c r="Y81" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82">
@@ -21367,7 +23263,7 @@
         <v>331</v>
       </c>
       <c r="Y82" t="s">
-        <v>656</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83">
@@ -21375,7 +23271,7 @@
         <v>269</v>
       </c>
       <c r="Y83" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84">
@@ -21383,7 +23279,7 @@
         <v>280</v>
       </c>
       <c r="Y84" t="s">
-        <v>146</v>
+        <v>656</v>
       </c>
     </row>
     <row r="85">
@@ -21391,7 +23287,7 @@
         <v>286</v>
       </c>
       <c r="Y85" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86">
@@ -21399,7 +23295,7 @@
         <v>275</v>
       </c>
       <c r="Y86" t="s">
-        <v>644</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87">
@@ -21407,7 +23303,7 @@
         <v>690</v>
       </c>
       <c r="Y87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88">
@@ -21415,7 +23311,7 @@
         <v>270</v>
       </c>
       <c r="Y88" t="s">
-        <v>453</v>
+        <v>644</v>
       </c>
     </row>
     <row r="89">
@@ -21423,7 +23319,7 @@
         <v>287</v>
       </c>
       <c r="Y89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90">
@@ -21431,7 +23327,7 @@
         <v>271</v>
       </c>
       <c r="Y90" t="s">
-        <v>201</v>
+        <v>453</v>
       </c>
     </row>
     <row r="91">
@@ -21439,7 +23335,7 @@
         <v>272</v>
       </c>
       <c r="Y91" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92">
@@ -21447,7 +23343,7 @@
         <v>304</v>
       </c>
       <c r="Y92" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93">
@@ -21455,7 +23351,7 @@
         <v>310</v>
       </c>
       <c r="Y93" t="s">
-        <v>202</v>
+        <v>709</v>
       </c>
     </row>
     <row r="94">
@@ -21463,7 +23359,7 @@
         <v>294</v>
       </c>
       <c r="Y94" t="s">
-        <v>441</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95">
@@ -21471,7 +23367,7 @@
         <v>339</v>
       </c>
       <c r="Y95" t="s">
-        <v>442</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96">
@@ -21479,7 +23375,7 @@
         <v>276</v>
       </c>
       <c r="Y96" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="97">
@@ -21487,166 +23383,186 @@
         <v>277</v>
       </c>
       <c r="Y97" t="s">
-        <v>204</v>
+        <v>441</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>205</v>
+        <v>442</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>663</v>
+        <v>206</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>670</v>
+        <v>222</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>382</v>
+        <v>670</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>150</v>
+        <v>671</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>151</v>
+        <v>382</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>443</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>164</v>
+        <v>443</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>47</v>
+        <v>708</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
         <v>169</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
@@ -24,7 +24,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17137" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17693" uniqueCount="712">
   <si>
     <t>description</t>
   </si>
@@ -2294,13 +2294,19 @@
   <si>
     <t>saveISTDivsAsCsv(config,file)</t>
   </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="509" x14ac:knownFonts="1">
+  <fonts count="525" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5521,8 +5527,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="872">
+  <fills count="899">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10461,8 +10568,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="903">
+  <borders count="935">
     <border>
       <left/>
       <right/>
@@ -19594,6 +19854,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -19601,7 +20187,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="547">
+  <cellXfs count="563">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -21224,52 +21810,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="844" fontId="492" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="493" fillId="847" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="878" fillId="847" fontId="493" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="494" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="494" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="495" fillId="850" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="882" fillId="850" fontId="495" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="496" fillId="853" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="886" fillId="853" fontId="496" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="497" fillId="856" borderId="890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="890" fillId="856" fontId="497" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="498" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="498" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="499" fillId="859" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="859" fontId="499" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="500" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="500" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="501" fillId="862" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="894" fillId="862" fontId="501" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="502" fillId="853" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="898" fillId="853" fontId="502" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="503" fillId="865" borderId="902" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="902" fillId="865" fontId="503" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="504" fillId="865" borderId="902" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="902" fillId="865" fontId="504" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="505" fillId="856" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="856" fontId="505" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="506" fillId="868" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="868" fontId="506" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="507" fillId="856" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="856" fontId="507" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="508" fillId="871" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="871" fontId="508" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="509" fillId="874" borderId="910" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="877" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="880" borderId="918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="883" borderId="922" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="515" fillId="886" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="517" fillId="889" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="518" fillId="880" borderId="930" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="519" fillId="892" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="520" fillId="892" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="521" fillId="883" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="522" fillId="895" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="523" fillId="883" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="524" fillId="898" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -22005,7 +22639,7 @@
         <v>432</v>
       </c>
       <c r="G5" t="s">
-        <v>335</v>
+        <v>710</v>
       </c>
       <c r="H5" t="s">
         <v>459</v>
@@ -22079,7 +22713,7 @@
         <v>664</v>
       </c>
       <c r="G6" t="s">
-        <v>387</v>
+        <v>335</v>
       </c>
       <c r="H6" t="s">
         <v>447</v>
@@ -22141,7 +22775,7 @@
         <v>223</v>
       </c>
       <c r="G7" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="H7" t="s">
         <v>446</v>
@@ -22203,7 +22837,7 @@
         <v>317</v>
       </c>
       <c r="G8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H8" t="s">
         <v>327</v>
@@ -22259,7 +22893,7 @@
         <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>305</v>
+        <v>366</v>
       </c>
       <c r="H9" t="s">
         <v>328</v>
@@ -22303,7 +22937,7 @@
         <v>314</v>
       </c>
       <c r="G10" t="s">
-        <v>351</v>
+        <v>305</v>
       </c>
       <c r="H10" t="s">
         <v>451</v>
@@ -22344,7 +22978,7 @@
         <v>254</v>
       </c>
       <c r="G11" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="H11" t="s">
         <v>321</v>
@@ -22382,7 +23016,7 @@
         <v>318</v>
       </c>
       <c r="G12" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="H12" t="s">
         <v>322</v>
@@ -22420,7 +23054,7 @@
         <v>340</v>
       </c>
       <c r="G13" t="s">
-        <v>315</v>
+        <v>262</v>
       </c>
       <c r="H13" t="s">
         <v>323</v>
@@ -22455,7 +23089,7 @@
         <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="H14" t="s">
         <v>324</v>
@@ -22490,7 +23124,7 @@
         <v>58</v>
       </c>
       <c r="G15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K15" t="s">
         <v>667</v>
@@ -22522,7 +23156,7 @@
         <v>384</v>
       </c>
       <c r="G16" t="s">
-        <v>316</v>
+        <v>264</v>
       </c>
       <c r="K16" t="s">
         <v>80</v>
@@ -22554,7 +23188,7 @@
         <v>385</v>
       </c>
       <c r="G17" t="s">
-        <v>88</v>
+        <v>316</v>
       </c>
       <c r="K17" t="s">
         <v>81</v>
@@ -22580,7 +23214,7 @@
         <v>414</v>
       </c>
       <c r="G18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s">
         <v>462</v>
@@ -22603,7 +23237,7 @@
         <v>59</v>
       </c>
       <c r="G19" t="s">
-        <v>295</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s">
         <v>82</v>
@@ -22623,7 +23257,7 @@
         <v>60</v>
       </c>
       <c r="G20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K20" t="s">
         <v>83</v>
@@ -22643,7 +23277,7 @@
         <v>255</v>
       </c>
       <c r="G21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K21" t="s">
         <v>379</v>
@@ -22663,7 +23297,7 @@
         <v>701</v>
       </c>
       <c r="G22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K22" t="s">
         <v>602</v>
@@ -22683,7 +23317,7 @@
         <v>61</v>
       </c>
       <c r="G23" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="K23" t="s">
         <v>44</v>
@@ -22703,7 +23337,7 @@
         <v>320</v>
       </c>
       <c r="G24" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="K24" t="s">
         <v>391</v>
@@ -22723,7 +23357,7 @@
         <v>62</v>
       </c>
       <c r="G25" t="s">
-        <v>75</v>
+        <v>278</v>
       </c>
       <c r="K25" t="s">
         <v>684</v>
@@ -22743,7 +23377,7 @@
         <v>448</v>
       </c>
       <c r="G26" t="s">
-        <v>281</v>
+        <v>75</v>
       </c>
       <c r="K26" t="s">
         <v>84</v>
@@ -22763,7 +23397,7 @@
         <v>224</v>
       </c>
       <c r="G27" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="K27" t="s">
         <v>433</v>
@@ -22783,7 +23417,7 @@
         <v>225</v>
       </c>
       <c r="G28" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="K28" t="s">
         <v>45</v>
@@ -22800,7 +23434,7 @@
         <v>574</v>
       </c>
       <c r="G29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K29" t="s">
         <v>46</v>
@@ -22817,7 +23451,7 @@
         <v>575</v>
       </c>
       <c r="G30" t="s">
-        <v>215</v>
+        <v>283</v>
       </c>
       <c r="Y30" t="s">
         <v>114</v>
@@ -22828,7 +23462,7 @@
         <v>415</v>
       </c>
       <c r="G31" t="s">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="Y31" t="s">
         <v>115</v>
@@ -22839,7 +23473,7 @@
         <v>63</v>
       </c>
       <c r="G32" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="Y32" t="s">
         <v>116</v>
@@ -22850,7 +23484,7 @@
         <v>64</v>
       </c>
       <c r="G33" t="s">
-        <v>668</v>
+        <v>284</v>
       </c>
       <c r="Y33" t="s">
         <v>117</v>
@@ -22861,7 +23495,7 @@
         <v>65</v>
       </c>
       <c r="G34" t="s">
-        <v>259</v>
+        <v>668</v>
       </c>
       <c r="Y34" t="s">
         <v>707</v>
@@ -22872,7 +23506,7 @@
         <v>66</v>
       </c>
       <c r="G35" t="s">
-        <v>329</v>
+        <v>259</v>
       </c>
       <c r="Y35" t="s">
         <v>118</v>
@@ -22883,7 +23517,7 @@
         <v>67</v>
       </c>
       <c r="G36" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="Y36" t="s">
         <v>119</v>
@@ -22894,7 +23528,7 @@
         <v>68</v>
       </c>
       <c r="G37" t="s">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="Y37" t="s">
         <v>209</v>
@@ -22905,7 +23539,7 @@
         <v>69</v>
       </c>
       <c r="G38" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="Y38" t="s">
         <v>120</v>
@@ -22916,7 +23550,7 @@
         <v>70</v>
       </c>
       <c r="G39" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="Y39" t="s">
         <v>337</v>
@@ -22924,7 +23558,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="Y40" t="s">
         <v>437</v>
@@ -22932,7 +23566,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="Y41" t="s">
         <v>688</v>
@@ -22940,7 +23574,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>703</v>
+        <v>211</v>
       </c>
       <c r="Y42" t="s">
         <v>392</v>
@@ -22948,7 +23582,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>288</v>
+        <v>703</v>
       </c>
       <c r="Y43" t="s">
         <v>121</v>
@@ -22956,7 +23590,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="Y44" t="s">
         <v>122</v>
@@ -22964,7 +23598,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y45" t="s">
         <v>123</v>
@@ -22972,7 +23606,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="Y46" t="s">
         <v>124</v>
@@ -22980,7 +23614,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Y47" t="s">
         <v>125</v>
@@ -22988,7 +23622,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>210</v>
+        <v>341</v>
       </c>
       <c r="Y48" t="s">
         <v>126</v>
@@ -22996,7 +23630,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>319</v>
+        <v>210</v>
       </c>
       <c r="Y49" t="s">
         <v>438</v>
@@ -23004,7 +23638,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="Y50" t="s">
         <v>212</v>
@@ -23012,7 +23646,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="Y51" t="s">
         <v>76</v>
@@ -23020,7 +23654,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>301</v>
+        <v>367</v>
       </c>
       <c r="Y52" t="s">
         <v>693</v>
@@ -23028,7 +23662,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="Y53" t="s">
         <v>127</v>
@@ -23036,7 +23670,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="Y54" t="s">
         <v>128</v>
@@ -23044,7 +23678,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>267</v>
+        <v>330</v>
       </c>
       <c r="Y55" t="s">
         <v>129</v>
@@ -23052,7 +23686,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="Y56" t="s">
         <v>643</v>
@@ -23060,7 +23694,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Y57" t="s">
         <v>463</v>
@@ -23068,7 +23702,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>704</v>
+        <v>292</v>
       </c>
       <c r="Y58" t="s">
         <v>130</v>
@@ -23076,7 +23710,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>293</v>
+        <v>704</v>
       </c>
       <c r="Y59" t="s">
         <v>345</v>
@@ -23084,7 +23718,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="Y60" t="s">
         <v>464</v>
@@ -23092,7 +23726,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="Y61" t="s">
         <v>131</v>
@@ -23100,7 +23734,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="Y62" t="s">
         <v>132</v>
@@ -23108,7 +23742,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="Y63" t="s">
         <v>133</v>
@@ -23116,7 +23750,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Y64" t="s">
         <v>134</v>
@@ -23124,7 +23758,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>368</v>
+        <v>309</v>
       </c>
       <c r="Y65" t="s">
         <v>135</v>
@@ -23132,7 +23766,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Y66" t="s">
         <v>136</v>
@@ -23140,7 +23774,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="Y67" t="s">
         <v>137</v>
@@ -23148,7 +23782,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="Y68" t="s">
         <v>439</v>
@@ -23156,7 +23790,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="Y69" t="s">
         <v>634</v>
@@ -23164,7 +23798,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>689</v>
+        <v>268</v>
       </c>
       <c r="Y70" t="s">
         <v>213</v>
@@ -23172,7 +23806,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>313</v>
+        <v>689</v>
       </c>
       <c r="Y71" t="s">
         <v>388</v>
@@ -23180,7 +23814,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>409</v>
+        <v>313</v>
       </c>
       <c r="Y72" t="s">
         <v>440</v>
@@ -23188,7 +23822,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>303</v>
+        <v>409</v>
       </c>
       <c r="Y73" t="s">
         <v>138</v>
@@ -23196,7 +23830,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>410</v>
+        <v>303</v>
       </c>
       <c r="Y74" t="s">
         <v>139</v>
@@ -23204,7 +23838,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>261</v>
+        <v>410</v>
       </c>
       <c r="Y75" t="s">
         <v>140</v>
@@ -23212,7 +23846,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>669</v>
+        <v>261</v>
       </c>
       <c r="Y76" t="s">
         <v>141</v>
@@ -23220,7 +23854,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>343</v>
+        <v>669</v>
       </c>
       <c r="Y77" t="s">
         <v>196</v>
@@ -23228,7 +23862,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>279</v>
+        <v>343</v>
       </c>
       <c r="Y78" t="s">
         <v>197</v>
@@ -23236,7 +23870,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Y79" t="s">
         <v>452</v>
@@ -23244,7 +23878,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="Y80" t="s">
         <v>465</v>
@@ -23252,7 +23886,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>428</v>
+        <v>290</v>
       </c>
       <c r="Y81" t="s">
         <v>142</v>
@@ -23260,7 +23894,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>331</v>
+        <v>428</v>
       </c>
       <c r="Y82" t="s">
         <v>143</v>
@@ -23268,7 +23902,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>269</v>
+        <v>331</v>
       </c>
       <c r="Y83" t="s">
         <v>144</v>
@@ -23276,7 +23910,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="Y84" t="s">
         <v>656</v>
@@ -23284,7 +23918,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="Y85" t="s">
         <v>145</v>
@@ -23292,7 +23926,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="Y86" t="s">
         <v>146</v>
@@ -23300,7 +23934,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>690</v>
+        <v>275</v>
       </c>
       <c r="Y87" t="s">
         <v>198</v>
@@ -23308,7 +23942,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>270</v>
+        <v>690</v>
       </c>
       <c r="Y88" t="s">
         <v>644</v>
@@ -23316,7 +23950,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="Y89" t="s">
         <v>199</v>
@@ -23324,7 +23958,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="Y90" t="s">
         <v>453</v>
@@ -23332,7 +23966,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y91" t="s">
         <v>200</v>
@@ -23340,7 +23974,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="Y92" t="s">
         <v>201</v>
@@ -23348,15 +23982,15 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="Y93" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="Y94" t="s">
         <v>214</v>
@@ -23364,7 +23998,7 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="Y95" t="s">
         <v>147</v>
@@ -23372,7 +24006,7 @@
     </row>
     <row r="96">
       <c r="G96" t="s">
-        <v>276</v>
+        <v>339</v>
       </c>
       <c r="Y96" t="s">
         <v>202</v>
@@ -23380,13 +24014,16 @@
     </row>
     <row r="97">
       <c r="G97" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Y97" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="98">
+      <c r="G98" t="s">
+        <v>277</v>
+      </c>
       <c r="Y98" t="s">
         <v>442</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17693" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18250" uniqueCount="713">
   <si>
     <t>description</t>
   </si>
@@ -2300,13 +2300,16 @@
   <si>
     <t>saveInfiniteDivsAsCsv(config,file)</t>
   </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="525" x14ac:knownFonts="1">
+  <fonts count="541" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5628,8 +5631,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="899">
+  <fills count="926">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10721,8 +10825,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="935">
+  <borders count="967">
     <border>
       <left/>
       <right/>
@@ -20180,6 +20437,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -20187,7 +20770,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="563">
+  <cellXfs count="579">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -21858,52 +22441,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="871" fontId="508" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="509" fillId="874" borderId="910" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="910" fillId="874" fontId="509" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="510" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="510" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="511" fillId="877" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="914" fillId="877" fontId="511" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="512" fillId="880" borderId="918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="918" fillId="880" fontId="512" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="513" fillId="883" borderId="922" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="922" fillId="883" fontId="513" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="514" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="514" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="515" fillId="886" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="886" fontId="515" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="516" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="516" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="517" fillId="889" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="926" fillId="889" fontId="517" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="518" fillId="880" borderId="930" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="930" fillId="880" fontId="518" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="519" fillId="892" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="934" fillId="892" fontId="519" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="520" fillId="892" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="934" fillId="892" fontId="520" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="521" fillId="883" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="883" fontId="521" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="522" fillId="895" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="895" fontId="522" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="523" fillId="883" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="883" fontId="523" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="524" fillId="898" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="898" fontId="524" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="525" fillId="901" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="526" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="527" fillId="904" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="528" fillId="907" borderId="950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="529" fillId="910" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="530" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="531" fillId="913" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="532" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="533" fillId="916" borderId="958" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="534" fillId="907" borderId="962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="535" fillId="919" borderId="966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="536" fillId="919" borderId="966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="537" fillId="910" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="538" fillId="922" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="539" fillId="910" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="540" fillId="925" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -22258,7 +22889,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE133"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -23993,7 +24624,7 @@
         <v>310</v>
       </c>
       <c r="Y94" t="s">
-        <v>214</v>
+        <v>712</v>
       </c>
     </row>
     <row r="95">
@@ -24001,7 +24632,7 @@
         <v>294</v>
       </c>
       <c r="Y95" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
     </row>
     <row r="96">
@@ -24009,7 +24640,7 @@
         <v>339</v>
       </c>
       <c r="Y96" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97">
@@ -24017,7 +24648,7 @@
         <v>276</v>
       </c>
       <c r="Y97" t="s">
-        <v>441</v>
+        <v>202</v>
       </c>
     </row>
     <row r="98">
@@ -24025,181 +24656,186 @@
         <v>277</v>
       </c>
       <c r="Y98" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>203</v>
+        <v>442</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>663</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>148</v>
+        <v>670</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>671</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>382</v>
+        <v>671</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>149</v>
+        <v>382</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>443</v>
+        <v>161</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>162</v>
+        <v>443</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>708</v>
+        <v>162</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>163</v>
+        <v>708</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="130">
       <c r="Y130" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
     </row>
     <row r="131">
       <c r="Y131" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="132">
       <c r="Y132" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="133">
       <c r="Y133" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>169</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
@@ -20,40 +20,41 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18250" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18811" uniqueCount="719">
   <si>
     <t>description</t>
   </si>
@@ -2303,13 +2304,31 @@
   <si>
     <t>saveInfiniteTableAsCsv(config,file)</t>
   </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="541" x14ac:knownFonts="1">
+  <fonts count="557" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5732,8 +5751,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="926">
+  <fills count="953">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10978,8 +11098,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="967">
+  <borders count="999">
     <border>
       <left/>
       <right/>
@@ -20763,6 +21036,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -20770,7 +21369,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="579">
+  <cellXfs count="595">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -22489,52 +23088,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="898" fontId="524" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="525" fillId="901" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="942" fillId="901" fontId="525" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="526" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="526" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="527" fillId="904" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="946" fillId="904" fontId="527" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="528" fillId="907" borderId="950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="950" fillId="907" fontId="528" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="529" fillId="910" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="954" fillId="910" fontId="529" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="530" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="530" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="531" fillId="913" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="913" fontId="531" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="532" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="532" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="533" fillId="916" borderId="958" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="958" fillId="916" fontId="533" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="534" fillId="907" borderId="962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="962" fillId="907" fontId="534" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="535" fillId="919" borderId="966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="966" fillId="919" fontId="535" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="536" fillId="919" borderId="966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="966" fillId="919" fontId="536" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="537" fillId="910" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="910" fontId="537" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="538" fillId="922" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="922" fontId="538" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="539" fillId="910" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="910" fontId="539" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="540" fillId="925" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="925" fontId="540" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="541" fillId="928" borderId="974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="543" fillId="931" borderId="978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="544" fillId="934" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="545" fillId="937" borderId="986" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="546" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="547" fillId="940" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="548" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="549" fillId="943" borderId="990" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="550" fillId="934" borderId="994" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="551" fillId="946" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="552" fillId="946" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="553" fillId="937" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="554" fillId="949" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="555" fillId="937" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="556" fillId="952" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -22889,7 +23536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -22914,81 +23561,84 @@
         <v>646</v>
       </c>
       <c r="E1" t="s">
+        <v>713</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>346</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>332</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>672</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>637</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>195</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>51</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>238</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>52</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>395</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>411</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>412</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>356</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>396</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>413</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -23006,81 +23656,84 @@
         <v>647</v>
       </c>
       <c r="E2" t="s">
+        <v>714</v>
+      </c>
+      <c r="F2" t="s">
         <v>57</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>71</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>73</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>449</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>78</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>460</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>314</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>383</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>434</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>673</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>640</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>416</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>429</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>252</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>216</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>397</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>418</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>419</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>380</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>406</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>96</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>170</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>175</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>182</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>431</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>651</v>
       </c>
     </row>
@@ -23097,76 +23750,76 @@
       <c r="D3" t="s">
         <v>683</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>457</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>364</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>87</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>48</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>638</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>348</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>340</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>333</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>85</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>674</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>641</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>430</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>239</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>217</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>398</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>420</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>381</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>407</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>97</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>171</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>176</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>363</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>183</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -23180,82 +23833,82 @@
       <c r="D4" t="s">
         <v>648</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>72</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>386</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>450</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>639</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>349</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>237</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>334</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>675</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>642</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>240</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>218</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>399</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>421</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>357</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>408</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>353</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>172</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>177</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>183</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>423</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>713</v>
       </c>
       <c r="B5" t="s">
         <v>374</v>
@@ -23263,73 +23916,73 @@
       <c r="D5" t="s">
         <v>649</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>458</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>432</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>710</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>459</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>687</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>350</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>461</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>86</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>685</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>30</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>241</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>219</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>400</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>422</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>358</v>
       </c>
-      <c r="Y5" t="s">
-        <v>354</v>
-      </c>
       <c r="Z5" t="s">
+        <v>716</v>
+      </c>
+      <c r="AA5" t="s">
         <v>173</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>178</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>184</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>424</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>375</v>
@@ -23337,1505 +23990,1513 @@
       <c r="D6" t="s">
         <v>650</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>664</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>335</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>447</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>347</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>71</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>679</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>31</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>242</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>390</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>401</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>360</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>98</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>444</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>179</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>185</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>425</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>376</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>223</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>387</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>446</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>691</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>314</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>680</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>33</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>243</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>417</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>402</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>359</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>99</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>445</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>180</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>186</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>426</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>377</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>317</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>365</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>327</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>665</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>34</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>681</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>90</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>244</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>403</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>361</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>100</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>174</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>181</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>187</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>427</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>378</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>32</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>366</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>328</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>79</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>686</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>91</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>245</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>404</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>362</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>208</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>188</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>346</v>
-      </c>
-      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>314</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>305</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>451</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>38</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>676</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>436</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>246</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>405</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>256</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>189</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>254</v>
-      </c>
-      <c r="G11" t="s">
+        <v>346</v>
+      </c>
+      <c r="F11" t="s">
+        <v>715</v>
+      </c>
+      <c r="H11" t="s">
         <v>351</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>321</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>666</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>633</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>677</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>92</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>247</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>257</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>258</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>332</v>
-      </c>
-      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>318</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>273</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>322</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>389</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>692</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>678</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>41</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>248</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>101</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>190</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F13" t="s">
         <v>340</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>262</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>323</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>17</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>435</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>93</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>253</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>325</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>191</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>672</v>
-      </c>
-      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>37</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>315</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>324</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>42</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>632</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>94</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>249</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>102</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>192</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>637</v>
-      </c>
-      <c r="E15" t="s">
+        <v>672</v>
+      </c>
+      <c r="F15" t="s">
         <v>58</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>263</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>667</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>660</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>250</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>103</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>193</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>195</v>
-      </c>
-      <c r="E16" t="s">
+        <v>637</v>
+      </c>
+      <c r="F16" t="s">
         <v>384</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>264</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>80</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>705</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>661</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>251</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>74</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>194</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" t="s">
         <v>385</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>316</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>81</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>40</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>662</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>466</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>238</v>
-      </c>
-      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
         <v>414</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>88</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>462</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>43</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>104</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" t="s">
+        <v>238</v>
+      </c>
+      <c r="F19" t="s">
         <v>59</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>89</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>82</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>105</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>395</v>
-      </c>
-      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" t="s">
         <v>60</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>295</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>83</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>106</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>411</v>
-      </c>
-      <c r="E21" t="s">
+        <v>395</v>
+      </c>
+      <c r="F21" t="s">
         <v>255</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>296</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>379</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>107</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>412</v>
-      </c>
-      <c r="E22" t="s">
+        <v>411</v>
+      </c>
+      <c r="F22" t="s">
         <v>701</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>297</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>602</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>645</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>356</v>
-      </c>
-      <c r="E23" t="s">
+        <v>412</v>
+      </c>
+      <c r="F23" t="s">
         <v>61</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>298</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>44</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>109</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>396</v>
-      </c>
-      <c r="E24" t="s">
+        <v>356</v>
+      </c>
+      <c r="F24" t="s">
         <v>320</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>289</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>391</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>706</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" t="s">
+        <v>396</v>
+      </c>
+      <c r="F25" t="s">
         <v>62</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>278</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>684</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>110</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" t="s">
         <v>448</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>75</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>84</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>111</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" t="s">
         <v>224</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>281</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>433</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>112</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" t="s">
         <v>225</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>265</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>45</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>413</v>
-      </c>
-      <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>574</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>282</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>46</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>413</v>
+      </c>
+      <c r="F30" t="s">
+        <v>575</v>
+      </c>
+      <c r="H30" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>226</v>
       </c>
-      <c r="E30" t="s">
-        <v>575</v>
-      </c>
-      <c r="G30" t="s">
-        <v>283</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>415</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>215</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="32">
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>63</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>274</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="33">
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>64</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>284</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="34">
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>65</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>668</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="35">
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>66</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>259</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>67</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>329</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>68</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>306</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>69</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>260</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>70</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>307</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>266</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>77</v>
       </c>
-      <c r="Y41" t="s">
-        <v>688</v>
+      <c r="Z41" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>211</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>703</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>288</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>299</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>300</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>342</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>341</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>210</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>319</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>338</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>367</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>301</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>355</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>330</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>267</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>291</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>292</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>704</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>293</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>302</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>311</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>336</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>308</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>309</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>368</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>369</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>344</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>312</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>268</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>689</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>313</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>409</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>303</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>410</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>261</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>669</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>343</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>279</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>285</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>290</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>428</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>331</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>269</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>280</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>286</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>275</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>690</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>270</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>287</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>271</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>272</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>304</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>310</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>294</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>339</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>276</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>277</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>169</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18811" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19373" uniqueCount="721">
   <si>
     <t>description</t>
   </si>
@@ -2322,13 +2322,19 @@
   <si>
     <t>screenshot(file,locator)</t>
   </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="557" x14ac:knownFonts="1">
+  <fonts count="573" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5852,8 +5858,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="953">
+  <fills count="980">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11251,8 +11358,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="999">
+  <borders count="1031">
     <border>
       <left/>
       <right/>
@@ -21362,6 +21622,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -21369,7 +21955,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="595">
+  <cellXfs count="611">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -23136,52 +23722,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="925" fontId="540" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="541" fillId="928" borderId="974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="974" fillId="928" fontId="541" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="542" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="542" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="543" fillId="931" borderId="978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="978" fillId="931" fontId="543" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="544" fillId="934" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="982" fillId="934" fontId="544" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="545" fillId="937" borderId="986" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="986" fillId="937" fontId="545" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="546" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="546" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="547" fillId="940" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="940" fontId="547" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="548" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="548" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="549" fillId="943" borderId="990" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="990" fillId="943" fontId="549" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="550" fillId="934" borderId="994" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="994" fillId="934" fontId="550" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="551" fillId="946" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="998" fillId="946" fontId="551" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="552" fillId="946" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="998" fillId="946" fontId="552" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="553" fillId="937" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="937" fontId="553" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="554" fillId="949" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="949" fontId="554" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="555" fillId="937" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="937" fontId="555" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="556" fillId="952" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="952" fontId="556" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="557" fillId="955" borderId="1006" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="558" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="559" fillId="958" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="560" fillId="961" borderId="1014" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="561" fillId="964" borderId="1018" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="562" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="563" fillId="967" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="564" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="565" fillId="970" borderId="1022" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="566" fillId="961" borderId="1026" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="567" fillId="973" borderId="1030" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="568" fillId="973" borderId="1030" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="569" fillId="964" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="570" fillId="976" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="571" fillId="964" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="572" fillId="979" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -24495,7 +25129,7 @@
         <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>414</v>
+        <v>719</v>
       </c>
       <c r="H18" t="s">
         <v>88</v>
@@ -24518,7 +25152,7 @@
         <v>238</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>414</v>
       </c>
       <c r="H19" t="s">
         <v>89</v>
@@ -24538,7 +25172,7 @@
         <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H20" t="s">
         <v>295</v>
@@ -24558,13 +25192,13 @@
         <v>395</v>
       </c>
       <c r="F21" t="s">
-        <v>255</v>
+        <v>60</v>
       </c>
       <c r="H21" t="s">
         <v>296</v>
       </c>
       <c r="L21" t="s">
-        <v>379</v>
+        <v>720</v>
       </c>
       <c r="Z21" t="s">
         <v>107</v>
@@ -24578,7 +25212,7 @@
         <v>411</v>
       </c>
       <c r="F22" t="s">
-        <v>701</v>
+        <v>255</v>
       </c>
       <c r="H22" t="s">
         <v>297</v>
@@ -24598,7 +25232,7 @@
         <v>412</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>701</v>
       </c>
       <c r="H23" t="s">
         <v>298</v>
@@ -24618,7 +25252,7 @@
         <v>356</v>
       </c>
       <c r="F24" t="s">
-        <v>320</v>
+        <v>61</v>
       </c>
       <c r="H24" t="s">
         <v>289</v>
@@ -24638,7 +25272,7 @@
         <v>396</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>320</v>
       </c>
       <c r="H25" t="s">
         <v>278</v>
@@ -24658,7 +25292,7 @@
         <v>53</v>
       </c>
       <c r="F26" t="s">
-        <v>448</v>
+        <v>62</v>
       </c>
       <c r="H26" t="s">
         <v>75</v>
@@ -24678,7 +25312,7 @@
         <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>224</v>
+        <v>448</v>
       </c>
       <c r="H27" t="s">
         <v>281</v>
@@ -24698,7 +25332,7 @@
         <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H28" t="s">
         <v>265</v>
@@ -24715,7 +25349,7 @@
         <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>574</v>
+        <v>225</v>
       </c>
       <c r="H29" t="s">
         <v>282</v>
@@ -24732,7 +25366,7 @@
         <v>413</v>
       </c>
       <c r="F30" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H30" t="s">
         <v>283</v>
@@ -24746,7 +25380,7 @@
         <v>226</v>
       </c>
       <c r="F31" t="s">
-        <v>415</v>
+        <v>575</v>
       </c>
       <c r="H31" t="s">
         <v>215</v>
@@ -24757,7 +25391,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>63</v>
+        <v>415</v>
       </c>
       <c r="H32" t="s">
         <v>274</v>
@@ -24768,7 +25402,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H33" t="s">
         <v>284</v>
@@ -24779,7 +25413,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H34" t="s">
         <v>668</v>
@@ -24790,7 +25424,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H35" t="s">
         <v>259</v>
@@ -24801,7 +25435,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H36" t="s">
         <v>329</v>
@@ -24812,7 +25446,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H37" t="s">
         <v>306</v>
@@ -24823,7 +25457,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H38" t="s">
         <v>260</v>
@@ -24834,7 +25468,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H39" t="s">
         <v>307</v>
@@ -24844,6 +25478,9 @@
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>70</v>
+      </c>
       <c r="H40" t="s">
         <v>266</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
@@ -20,15 +20,15 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19373" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19938" uniqueCount="726">
   <si>
     <t>description</t>
   </si>
@@ -2328,13 +2328,28 @@
   <si>
     <t>saveMatches(var,path,fileFilter,textFilter)</t>
   </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="573" x14ac:knownFonts="1">
+  <fonts count="589" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5959,8 +5974,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="980">
+  <fills count="1007">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11511,8 +11627,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1031">
+  <borders count="1063">
     <border>
       <left/>
       <right/>
@@ -21948,6 +22217,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -21955,7 +22550,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="611">
+  <cellXfs count="627">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -23770,52 +24365,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="952" fontId="556" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="557" fillId="955" borderId="1006" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1006" fillId="955" fontId="557" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="558" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="558" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="559" fillId="958" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1010" fillId="958" fontId="559" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="560" fillId="961" borderId="1014" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1014" fillId="961" fontId="560" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="561" fillId="964" borderId="1018" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1018" fillId="964" fontId="561" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="562" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="562" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="563" fillId="967" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="967" fontId="563" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="564" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="564" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="565" fillId="970" borderId="1022" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1022" fillId="970" fontId="565" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="566" fillId="961" borderId="1026" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1026" fillId="961" fontId="566" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="567" fillId="973" borderId="1030" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1030" fillId="973" fontId="567" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="568" fillId="973" borderId="1030" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1030" fillId="973" fontId="568" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="569" fillId="964" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="964" fontId="569" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="570" fillId="976" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="976" fontId="570" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="571" fillId="964" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="964" fontId="571" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="572" fillId="979" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="979" fontId="572" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="573" fillId="982" borderId="1038" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="574" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="575" fillId="985" borderId="1042" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="576" fillId="988" borderId="1046" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="577" fillId="991" borderId="1050" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="578" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="579" fillId="994" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="580" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="581" fillId="997" borderId="1054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="582" fillId="988" borderId="1058" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="583" fillId="1000" borderId="1062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="584" fillId="1000" borderId="1062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="585" fillId="991" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="586" fillId="1003" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="587" fillId="991" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="588" fillId="1006" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -24170,7 +24813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -24486,7 +25129,7 @@
         <v>349</v>
       </c>
       <c r="L4" t="s">
-        <v>237</v>
+        <v>722</v>
       </c>
       <c r="M4" t="s">
         <v>334</v>
@@ -24522,7 +25165,7 @@
         <v>408</v>
       </c>
       <c r="Z4" t="s">
-        <v>353</v>
+        <v>723</v>
       </c>
       <c r="AA4" t="s">
         <v>172</v>
@@ -24569,7 +25212,7 @@
         <v>350</v>
       </c>
       <c r="L5" t="s">
-        <v>461</v>
+        <v>237</v>
       </c>
       <c r="N5" t="s">
         <v>86</v>
@@ -24636,11 +25279,14 @@
       <c r="I6" t="s">
         <v>447</v>
       </c>
+      <c r="J6" t="s">
+        <v>721</v>
+      </c>
       <c r="K6" t="s">
         <v>347</v>
       </c>
       <c r="L6" t="s">
-        <v>71</v>
+        <v>461</v>
       </c>
       <c r="N6" t="s">
         <v>29</v>
@@ -24702,7 +25348,7 @@
         <v>691</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="N7" t="s">
         <v>314</v>
@@ -24761,7 +25407,7 @@
         <v>327</v>
       </c>
       <c r="L8" t="s">
-        <v>665</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
         <v>34</v>
@@ -24817,7 +25463,7 @@
         <v>328</v>
       </c>
       <c r="L9" t="s">
-        <v>79</v>
+        <v>665</v>
       </c>
       <c r="N9" t="s">
         <v>35</v>
@@ -24861,7 +25507,7 @@
         <v>451</v>
       </c>
       <c r="L10" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="N10" t="s">
         <v>36</v>
@@ -24902,7 +25548,7 @@
         <v>321</v>
       </c>
       <c r="L11" t="s">
-        <v>666</v>
+        <v>38</v>
       </c>
       <c r="N11" t="s">
         <v>633</v>
@@ -24940,7 +25586,7 @@
         <v>322</v>
       </c>
       <c r="L12" t="s">
-        <v>389</v>
+        <v>666</v>
       </c>
       <c r="N12" t="s">
         <v>692</v>
@@ -24978,7 +25624,7 @@
         <v>323</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>389</v>
       </c>
       <c r="N13" t="s">
         <v>435</v>
@@ -25013,7 +25659,7 @@
         <v>324</v>
       </c>
       <c r="L14" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
         <v>632</v>
@@ -25045,7 +25691,7 @@
         <v>263</v>
       </c>
       <c r="L15" t="s">
-        <v>667</v>
+        <v>42</v>
       </c>
       <c r="N15" t="s">
         <v>39</v>
@@ -25077,7 +25723,7 @@
         <v>264</v>
       </c>
       <c r="L16" t="s">
-        <v>80</v>
+        <v>667</v>
       </c>
       <c r="N16" t="s">
         <v>705</v>
@@ -25109,7 +25755,7 @@
         <v>316</v>
       </c>
       <c r="L17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N17" t="s">
         <v>40</v>
@@ -25129,13 +25775,13 @@
         <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>719</v>
+        <v>414</v>
       </c>
       <c r="H18" t="s">
         <v>88</v>
       </c>
       <c r="L18" t="s">
-        <v>462</v>
+        <v>81</v>
       </c>
       <c r="N18" t="s">
         <v>43</v>
@@ -25152,13 +25798,13 @@
         <v>238</v>
       </c>
       <c r="F19" t="s">
-        <v>414</v>
+        <v>59</v>
       </c>
       <c r="H19" t="s">
         <v>89</v>
       </c>
       <c r="L19" t="s">
-        <v>82</v>
+        <v>462</v>
       </c>
       <c r="Z19" t="s">
         <v>105</v>
@@ -25172,13 +25818,13 @@
         <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
         <v>295</v>
       </c>
       <c r="L20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z20" t="s">
         <v>106</v>
@@ -25192,13 +25838,13 @@
         <v>395</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>255</v>
       </c>
       <c r="H21" t="s">
         <v>296</v>
       </c>
       <c r="L21" t="s">
-        <v>720</v>
+        <v>83</v>
       </c>
       <c r="Z21" t="s">
         <v>107</v>
@@ -25212,13 +25858,13 @@
         <v>411</v>
       </c>
       <c r="F22" t="s">
-        <v>255</v>
+        <v>701</v>
       </c>
       <c r="H22" t="s">
         <v>297</v>
       </c>
       <c r="L22" t="s">
-        <v>602</v>
+        <v>720</v>
       </c>
       <c r="Z22" t="s">
         <v>645</v>
@@ -25232,13 +25878,13 @@
         <v>412</v>
       </c>
       <c r="F23" t="s">
-        <v>701</v>
+        <v>61</v>
       </c>
       <c r="H23" t="s">
         <v>298</v>
       </c>
       <c r="L23" t="s">
-        <v>44</v>
+        <v>602</v>
       </c>
       <c r="Z23" t="s">
         <v>109</v>
@@ -25252,13 +25898,13 @@
         <v>356</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>320</v>
       </c>
       <c r="H24" t="s">
         <v>289</v>
       </c>
       <c r="L24" t="s">
-        <v>391</v>
+        <v>44</v>
       </c>
       <c r="Z24" t="s">
         <v>706</v>
@@ -25272,13 +25918,13 @@
         <v>396</v>
       </c>
       <c r="F25" t="s">
-        <v>320</v>
+        <v>62</v>
       </c>
       <c r="H25" t="s">
         <v>278</v>
       </c>
       <c r="L25" t="s">
-        <v>684</v>
+        <v>391</v>
       </c>
       <c r="Z25" t="s">
         <v>110</v>
@@ -25292,13 +25938,13 @@
         <v>53</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>448</v>
       </c>
       <c r="H26" t="s">
         <v>75</v>
       </c>
       <c r="L26" t="s">
-        <v>84</v>
+        <v>684</v>
       </c>
       <c r="Z26" t="s">
         <v>111</v>
@@ -25312,13 +25958,13 @@
         <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>448</v>
+        <v>224</v>
       </c>
       <c r="H27" t="s">
         <v>281</v>
       </c>
       <c r="L27" t="s">
-        <v>433</v>
+        <v>84</v>
       </c>
       <c r="Z27" t="s">
         <v>112</v>
@@ -25332,13 +25978,13 @@
         <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H28" t="s">
         <v>265</v>
       </c>
       <c r="L28" t="s">
-        <v>45</v>
+        <v>433</v>
       </c>
       <c r="Z28" t="s">
         <v>113</v>
@@ -25349,13 +25995,13 @@
         <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>225</v>
+        <v>574</v>
       </c>
       <c r="H29" t="s">
         <v>282</v>
       </c>
       <c r="L29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z29" t="s">
         <v>326</v>
@@ -25366,10 +26012,13 @@
         <v>413</v>
       </c>
       <c r="F30" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H30" t="s">
         <v>283</v>
+      </c>
+      <c r="L30" t="s">
+        <v>46</v>
       </c>
       <c r="Z30" t="s">
         <v>114</v>
@@ -25380,7 +26029,7 @@
         <v>226</v>
       </c>
       <c r="F31" t="s">
-        <v>575</v>
+        <v>415</v>
       </c>
       <c r="H31" t="s">
         <v>215</v>
@@ -25391,7 +26040,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>415</v>
+        <v>63</v>
       </c>
       <c r="H32" t="s">
         <v>274</v>
@@ -25402,7 +26051,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H33" t="s">
         <v>284</v>
@@ -25413,7 +26062,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H34" t="s">
         <v>668</v>
@@ -25424,7 +26073,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H35" t="s">
         <v>259</v>
@@ -25435,7 +26084,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H36" t="s">
         <v>329</v>
@@ -25446,7 +26095,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H37" t="s">
         <v>306</v>
@@ -25457,7 +26106,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H38" t="s">
         <v>260</v>
@@ -25468,7 +26117,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H39" t="s">
         <v>307</v>
@@ -25478,9 +26127,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>70</v>
-      </c>
       <c r="H40" t="s">
         <v>266</v>
       </c>
@@ -25954,186 +26600,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>442</v>
+        <v>724</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>203</v>
+        <v>725</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>204</v>
+        <v>442</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>663</v>
+        <v>222</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>718</v>
+        <v>207</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>148</v>
+        <v>718</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>149</v>
+        <v>671</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>150</v>
+        <v>382</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>443</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>708</v>
+        <v>443</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>164</v>
+        <v>708</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>47</v>
+        <v>164</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>169</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19938" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20503" uniqueCount="726">
   <si>
     <t>description</t>
   </si>
@@ -2349,7 +2349,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="589" x14ac:knownFonts="1">
+  <fonts count="605" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6075,8 +6075,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1007">
+  <fills count="1034">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11780,8 +11881,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1063">
+  <borders count="1095">
     <border>
       <left/>
       <right/>
@@ -22543,6 +22797,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -22550,7 +23130,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="627">
+  <cellXfs count="643">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -24413,52 +24993,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="979" fontId="572" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="573" fillId="982" borderId="1038" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1038" fillId="982" fontId="573" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="574" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="574" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="575" fillId="985" borderId="1042" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1042" fillId="985" fontId="575" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="576" fillId="988" borderId="1046" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1046" fillId="988" fontId="576" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="577" fillId="991" borderId="1050" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1050" fillId="991" fontId="577" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="578" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="578" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="579" fillId="994" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="994" fontId="579" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="580" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="580" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="581" fillId="997" borderId="1054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1054" fillId="997" fontId="581" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="582" fillId="988" borderId="1058" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1058" fillId="988" fontId="582" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="583" fillId="1000" borderId="1062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1062" fillId="1000" fontId="583" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="584" fillId="1000" borderId="1062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1062" fillId="1000" fontId="584" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="585" fillId="991" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="991" fontId="585" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="586" fillId="1003" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1003" fontId="586" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="587" fillId="991" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="991" fontId="587" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="588" fillId="1006" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1006" fontId="588" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="589" fillId="1009" borderId="1070" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="590" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="591" fillId="1012" borderId="1074" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="592" fillId="1015" borderId="1078" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="593" fillId="1018" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="594" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="595" fillId="1021" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="596" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="597" fillId="1024" borderId="1086" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="598" fillId="1015" borderId="1090" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="599" fillId="1027" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="600" fillId="1027" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="601" fillId="1018" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="602" fillId="1030" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="603" fillId="1018" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="604" fillId="1033" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20503" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21069" uniqueCount="727">
   <si>
     <t>description</t>
   </si>
@@ -2343,13 +2343,16 @@
   <si>
     <t>saveSelectedValue(var,locator)</t>
   </si>
+  <si>
+    <t>saveBrowserVersion(var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="605" x14ac:knownFonts="1">
+  <fonts count="621" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6176,8 +6179,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1034">
+  <fills count="1061">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12034,8 +12138,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1095">
+  <borders count="1127">
     <border>
       <left/>
       <right/>
@@ -23123,6 +23380,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -23130,7 +23713,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="643">
+  <cellXfs count="659">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -25041,52 +25624,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1006" fontId="588" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="589" fillId="1009" borderId="1070" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1070" fillId="1009" fontId="589" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="590" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="590" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="591" fillId="1012" borderId="1074" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1074" fillId="1012" fontId="591" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="592" fillId="1015" borderId="1078" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1078" fillId="1015" fontId="592" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="593" fillId="1018" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1082" fillId="1018" fontId="593" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="594" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="594" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="595" fillId="1021" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1021" fontId="595" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="596" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="596" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="597" fillId="1024" borderId="1086" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1086" fillId="1024" fontId="597" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="598" fillId="1015" borderId="1090" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1090" fillId="1015" fontId="598" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="599" fillId="1027" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1094" fillId="1027" fontId="599" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="600" fillId="1027" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1094" fillId="1027" fontId="600" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="601" fillId="1018" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1018" fontId="601" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="602" fillId="1030" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1030" fontId="602" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="603" fillId="1018" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1018" fontId="603" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="604" fillId="1033" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1033" fontId="604" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="605" fillId="1036" borderId="1102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="606" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="607" fillId="1039" borderId="1106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="608" fillId="1042" borderId="1110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="609" fillId="1045" borderId="1114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="610" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="611" fillId="1048" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="612" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="613" fillId="1051" borderId="1118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="614" fillId="1042" borderId="1122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="615" fillId="1054" borderId="1126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="616" fillId="1054" borderId="1126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="617" fillId="1045" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="618" fillId="1057" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="619" fillId="1045" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="620" fillId="1060" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -25441,7 +26072,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF137"/>
+  <dimension ref="A1:AF138"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -27151,7 +27782,7 @@
         <v>270</v>
       </c>
       <c r="Z89" t="s">
-        <v>199</v>
+        <v>726</v>
       </c>
     </row>
     <row r="90">
@@ -27159,7 +27790,7 @@
         <v>287</v>
       </c>
       <c r="Z90" t="s">
-        <v>453</v>
+        <v>199</v>
       </c>
     </row>
     <row r="91">
@@ -27167,7 +27798,7 @@
         <v>271</v>
       </c>
       <c r="Z91" t="s">
-        <v>200</v>
+        <v>453</v>
       </c>
     </row>
     <row r="92">
@@ -27175,7 +27806,7 @@
         <v>272</v>
       </c>
       <c r="Z92" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93">
@@ -27183,7 +27814,7 @@
         <v>304</v>
       </c>
       <c r="Z93" t="s">
-        <v>711</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94">
@@ -27191,7 +27822,7 @@
         <v>310</v>
       </c>
       <c r="Z94" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="95">
@@ -27199,7 +27830,7 @@
         <v>294</v>
       </c>
       <c r="Z95" t="s">
-        <v>214</v>
+        <v>712</v>
       </c>
     </row>
     <row r="96">
@@ -27207,7 +27838,7 @@
         <v>339</v>
       </c>
       <c r="Z96" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
     </row>
     <row r="97">
@@ -27215,7 +27846,7 @@
         <v>276</v>
       </c>
       <c r="Z97" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
     </row>
     <row r="98">
@@ -27223,201 +27854,206 @@
         <v>277</v>
       </c>
       <c r="Z98" t="s">
-        <v>441</v>
+        <v>202</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>724</v>
+        <v>441</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>442</v>
+        <v>725</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>203</v>
+        <v>442</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>663</v>
+        <v>207</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>718</v>
+        <v>663</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>670</v>
+        <v>718</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>148</v>
+        <v>670</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>671</v>
+        <v>148</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>382</v>
+        <v>671</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>149</v>
+        <v>382</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>443</v>
+        <v>161</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>162</v>
+        <v>443</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>708</v>
+        <v>162</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>163</v>
+        <v>708</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="Z138" t="s">
         <v>169</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21069" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21635" uniqueCount="727">
   <si>
     <t>description</t>
   </si>
@@ -2352,7 +2352,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="621" x14ac:knownFonts="1">
+  <fonts count="637" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6280,8 +6280,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1061">
+  <fills count="1088">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12291,8 +12392,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1127">
+  <borders count="1159">
     <border>
       <left/>
       <right/>
@@ -23706,6 +23960,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -23713,7 +24293,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="659">
+  <cellXfs count="675">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -25672,52 +26252,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1033" fontId="604" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="605" fillId="1036" borderId="1102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1102" fillId="1036" fontId="605" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="606" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="606" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="607" fillId="1039" borderId="1106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1106" fillId="1039" fontId="607" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="608" fillId="1042" borderId="1110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1110" fillId="1042" fontId="608" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="609" fillId="1045" borderId="1114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1114" fillId="1045" fontId="609" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="610" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="610" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="611" fillId="1048" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1048" fontId="611" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="612" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="612" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="613" fillId="1051" borderId="1118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1118" fillId="1051" fontId="613" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="614" fillId="1042" borderId="1122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1122" fillId="1042" fontId="614" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="615" fillId="1054" borderId="1126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1126" fillId="1054" fontId="615" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="616" fillId="1054" borderId="1126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1126" fillId="1054" fontId="616" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="617" fillId="1045" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1045" fontId="617" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="618" fillId="1057" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1057" fontId="618" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="619" fillId="1045" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1045" fontId="619" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="620" fillId="1060" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1060" fontId="620" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="621" fillId="1063" borderId="1134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="622" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="623" fillId="1066" borderId="1138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="624" fillId="1069" borderId="1142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="625" fillId="1072" borderId="1146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="626" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="627" fillId="1075" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="628" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="629" fillId="1078" borderId="1150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="630" fillId="1069" borderId="1154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="631" fillId="1081" borderId="1158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="632" fillId="1081" borderId="1158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="633" fillId="1072" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="634" fillId="1084" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="635" fillId="1072" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="636" fillId="1087" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
@@ -25,9 +25,9 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
-    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
@@ -36,25 +36,26 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
+    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21635" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22220" uniqueCount="746">
   <si>
     <t>description</t>
   </si>
@@ -2346,13 +2347,70 @@
   <si>
     <t>saveBrowserVersion(var)</t>
   </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>saveTotalColumnCount(file,worksheet,row,saveVar)</t>
+  </si>
+  <si>
+    <t>saveTotalRowCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>ocr(image,saveVar)</t>
+  </si>
+  <si>
+    <t>saveAsPdf(profile,content,file)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveText(profile,var)</t>
+  </si>
+  <si>
+    <t>typeKeys(profile,keystrokes)</t>
+  </si>
+  <si>
+    <t>updateScreenFields(profile)</t>
+  </si>
+  <si>
+    <t>assertElementEnabled(locator)</t>
+  </si>
+  <si>
+    <t>saveTitle(var)</t>
+  </si>
+  <si>
+    <t>selectAllOptions(locator)</t>
+  </si>
+  <si>
+    <t>selectMultiByValue(locator,array)</t>
+  </si>
+  <si>
+    <t>switchBrowser(profile,config)</t>
+  </si>
+  <si>
+    <t>waitForElementsPresent(locators)</t>
+  </si>
+  <si>
+    <t>clearCookieFields(var,remove)</t>
+  </si>
+  <si>
+    <t>saveAllAsText(var,exclude)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="637" x14ac:knownFonts="1">
+  <fonts count="653" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6381,8 +6439,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1088">
+  <fills count="1115">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12545,8 +12704,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1159">
+  <borders count="1191">
     <border>
       <left/>
       <right/>
@@ -24286,6 +24598,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -24293,7 +24931,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="675">
+  <cellXfs count="691">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -26300,52 +26938,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1060" fontId="620" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="621" fillId="1063" borderId="1134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1134" fillId="1063" fontId="621" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="622" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="622" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="623" fillId="1066" borderId="1138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1138" fillId="1066" fontId="623" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="624" fillId="1069" borderId="1142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1142" fillId="1069" fontId="624" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="625" fillId="1072" borderId="1146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1146" fillId="1072" fontId="625" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="626" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="626" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="627" fillId="1075" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1075" fontId="627" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="628" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="628" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="629" fillId="1078" borderId="1150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1150" fillId="1078" fontId="629" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="630" fillId="1069" borderId="1154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1154" fillId="1069" fontId="630" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="631" fillId="1081" borderId="1158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1158" fillId="1081" fontId="631" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="632" fillId="1081" borderId="1158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1158" fillId="1081" fontId="632" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="633" fillId="1072" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1072" fontId="633" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="634" fillId="1084" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1084" fontId="634" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="635" fillId="1072" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1072" fontId="635" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="636" fillId="1087" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1087" fontId="636" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="637" fillId="1090" borderId="1166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="638" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="639" fillId="1093" borderId="1170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="640" fillId="1096" borderId="1174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="641" fillId="1099" borderId="1178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="642" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="643" fillId="1102" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="644" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="645" fillId="1105" borderId="1182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="646" fillId="1096" borderId="1186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="647" fillId="1108" borderId="1190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="648" fillId="1108" borderId="1190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="649" fillId="1099" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="650" fillId="1111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="651" fillId="1099" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="652" fillId="1114" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -26700,7 +27386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF138"/>
+  <dimension ref="A1:AG144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -26788,21 +27474,24 @@
         <v>396</v>
       </c>
       <c r="Z1" t="s">
+        <v>727</v>
+      </c>
+      <c r="AA1" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>413</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -26838,7 +27527,7 @@
         <v>78</v>
       </c>
       <c r="K2" t="s">
-        <v>460</v>
+        <v>730</v>
       </c>
       <c r="L2" t="s">
         <v>314</v>
@@ -26883,21 +27572,24 @@
         <v>406</v>
       </c>
       <c r="Z2" t="s">
+        <v>733</v>
+      </c>
+      <c r="AA2" t="s">
         <v>96</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>170</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>175</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>182</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>431</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>651</v>
       </c>
     </row>
@@ -26969,21 +27661,24 @@
         <v>407</v>
       </c>
       <c r="Z3" t="s">
+        <v>734</v>
+      </c>
+      <c r="AA3" t="s">
         <v>97</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>171</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>176</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>363</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>183</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -27052,21 +27747,24 @@
         <v>408</v>
       </c>
       <c r="Z4" t="s">
+        <v>735</v>
+      </c>
+      <c r="AA4" t="s">
         <v>723</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>172</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>177</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>183</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>423</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>228</v>
       </c>
     </row>
@@ -27126,21 +27824,24 @@
         <v>358</v>
       </c>
       <c r="Z5" t="s">
+        <v>736</v>
+      </c>
+      <c r="AA5" t="s">
         <v>716</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>173</v>
       </c>
-      <c r="AB5" t="s">
-        <v>178</v>
-      </c>
       <c r="AC5" t="s">
+        <v>744</v>
+      </c>
+      <c r="AD5" t="s">
         <v>184</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>424</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>229</v>
       </c>
     </row>
@@ -27170,7 +27871,7 @@
         <v>721</v>
       </c>
       <c r="K6" t="s">
-        <v>347</v>
+        <v>731</v>
       </c>
       <c r="L6" t="s">
         <v>461</v>
@@ -27197,21 +27898,24 @@
         <v>360</v>
       </c>
       <c r="Z6" t="s">
+        <v>737</v>
+      </c>
+      <c r="AA6" t="s">
         <v>98</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>444</v>
       </c>
-      <c r="AB6" t="s">
-        <v>179</v>
-      </c>
       <c r="AC6" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD6" t="s">
         <v>185</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>425</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>230</v>
       </c>
     </row>
@@ -27232,7 +27936,7 @@
         <v>446</v>
       </c>
       <c r="K7" t="s">
-        <v>691</v>
+        <v>347</v>
       </c>
       <c r="L7" t="s">
         <v>71</v>
@@ -27258,22 +27962,22 @@
       <c r="X7" t="s">
         <v>359</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>99</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>445</v>
       </c>
-      <c r="AB7" t="s">
-        <v>180</v>
-      </c>
       <c r="AC7" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD7" t="s">
         <v>186</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>426</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>694</v>
       </c>
     </row>
@@ -27293,6 +27997,9 @@
       <c r="I8" t="s">
         <v>327</v>
       </c>
+      <c r="K8" t="s">
+        <v>691</v>
+      </c>
       <c r="L8" t="s">
         <v>16</v>
       </c>
@@ -27314,22 +28021,22 @@
       <c r="X8" t="s">
         <v>361</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>100</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>174</v>
       </c>
-      <c r="AB8" t="s">
-        <v>181</v>
-      </c>
       <c r="AC8" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD8" t="s">
         <v>187</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>427</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>695</v>
       </c>
     </row>
@@ -27370,13 +28077,16 @@
       <c r="X9" t="s">
         <v>362</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>208</v>
       </c>
       <c r="AC9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD9" t="s">
         <v>188</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>696</v>
       </c>
     </row>
@@ -27391,7 +28101,7 @@
         <v>305</v>
       </c>
       <c r="I10" t="s">
-        <v>451</v>
+        <v>728</v>
       </c>
       <c r="L10" t="s">
         <v>79</v>
@@ -27411,13 +28121,16 @@
       <c r="U10" t="s">
         <v>405</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>256</v>
       </c>
       <c r="AC10" t="s">
+        <v>745</v>
+      </c>
+      <c r="AD10" t="s">
         <v>189</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>231</v>
       </c>
     </row>
@@ -27432,7 +28145,7 @@
         <v>351</v>
       </c>
       <c r="I11" t="s">
-        <v>321</v>
+        <v>729</v>
       </c>
       <c r="L11" t="s">
         <v>38</v>
@@ -27449,13 +28162,13 @@
       <c r="S11" t="s">
         <v>247</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>257</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>258</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>232</v>
       </c>
     </row>
@@ -27470,7 +28183,7 @@
         <v>273</v>
       </c>
       <c r="I12" t="s">
-        <v>322</v>
+        <v>451</v>
       </c>
       <c r="L12" t="s">
         <v>666</v>
@@ -27487,13 +28200,13 @@
       <c r="S12" t="s">
         <v>248</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>101</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>190</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>233</v>
       </c>
     </row>
@@ -27508,7 +28221,7 @@
         <v>262</v>
       </c>
       <c r="I13" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L13" t="s">
         <v>389</v>
@@ -27520,15 +28233,15 @@
         <v>93</v>
       </c>
       <c r="S13" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z13" t="s">
+        <v>732</v>
+      </c>
+      <c r="AA13" t="s">
         <v>325</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>191</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>635</v>
       </c>
     </row>
@@ -27543,7 +28256,7 @@
         <v>315</v>
       </c>
       <c r="I14" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -27555,15 +28268,15 @@
         <v>94</v>
       </c>
       <c r="S14" t="s">
-        <v>249</v>
-      </c>
-      <c r="Z14" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA14" t="s">
         <v>102</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>192</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>652</v>
       </c>
     </row>
@@ -27577,6 +28290,9 @@
       <c r="H15" t="s">
         <v>263</v>
       </c>
+      <c r="I15" t="s">
+        <v>323</v>
+      </c>
       <c r="L15" t="s">
         <v>42</v>
       </c>
@@ -27587,15 +28303,15 @@
         <v>660</v>
       </c>
       <c r="S15" t="s">
-        <v>250</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC15" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>738</v>
+      </c>
+      <c r="AD15" t="s">
         <v>193</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>653</v>
       </c>
     </row>
@@ -27609,6 +28325,9 @@
       <c r="H16" t="s">
         <v>264</v>
       </c>
+      <c r="I16" t="s">
+        <v>324</v>
+      </c>
       <c r="L16" t="s">
         <v>667</v>
       </c>
@@ -27619,15 +28338,15 @@
         <v>661</v>
       </c>
       <c r="S16" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC16" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD16" t="s">
         <v>194</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>657</v>
       </c>
     </row>
@@ -27647,13 +28366,16 @@
       <c r="N17" t="s">
         <v>40</v>
       </c>
-      <c r="Z17" t="s">
-        <v>662</v>
-      </c>
-      <c r="AC17" t="s">
+      <c r="S17" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD17" t="s">
         <v>466</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>658</v>
       </c>
     </row>
@@ -27673,10 +28395,10 @@
       <c r="N18" t="s">
         <v>43</v>
       </c>
-      <c r="Z18" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE18" t="s">
+      <c r="AA18" t="s">
+        <v>662</v>
+      </c>
+      <c r="AF18" t="s">
         <v>636</v>
       </c>
     </row>
@@ -27693,10 +28415,10 @@
       <c r="L19" t="s">
         <v>462</v>
       </c>
-      <c r="Z19" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE19" t="s">
+      <c r="AA19" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF19" t="s">
         <v>654</v>
       </c>
     </row>
@@ -27713,10 +28435,10 @@
       <c r="L20" t="s">
         <v>82</v>
       </c>
-      <c r="Z20" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE20" t="s">
+      <c r="AA20" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF20" t="s">
         <v>655</v>
       </c>
     </row>
@@ -27733,10 +28455,10 @@
       <c r="L21" t="s">
         <v>83</v>
       </c>
-      <c r="Z21" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE21" t="s">
+      <c r="AA21" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF21" t="s">
         <v>659</v>
       </c>
     </row>
@@ -27753,10 +28475,10 @@
       <c r="L22" t="s">
         <v>720</v>
       </c>
-      <c r="Z22" t="s">
-        <v>645</v>
-      </c>
-      <c r="AE22" t="s">
+      <c r="AA22" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF22" t="s">
         <v>234</v>
       </c>
     </row>
@@ -27773,10 +28495,10 @@
       <c r="L23" t="s">
         <v>602</v>
       </c>
-      <c r="Z23" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE23" t="s">
+      <c r="AA23" t="s">
+        <v>645</v>
+      </c>
+      <c r="AF23" t="s">
         <v>697</v>
       </c>
     </row>
@@ -27793,10 +28515,10 @@
       <c r="L24" t="s">
         <v>44</v>
       </c>
-      <c r="Z24" t="s">
-        <v>706</v>
-      </c>
-      <c r="AE24" t="s">
+      <c r="AA24" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF24" t="s">
         <v>698</v>
       </c>
     </row>
@@ -27813,16 +28535,16 @@
       <c r="L25" t="s">
         <v>391</v>
       </c>
-      <c r="Z25" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE25" t="s">
+      <c r="AA25" t="s">
+        <v>706</v>
+      </c>
+      <c r="AF25" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>727</v>
       </c>
       <c r="F26" t="s">
         <v>448</v>
@@ -27833,16 +28555,16 @@
       <c r="L26" t="s">
         <v>684</v>
       </c>
-      <c r="Z26" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE26" t="s">
+      <c r="AA26" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF26" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F27" t="s">
         <v>224</v>
@@ -27853,16 +28575,16 @@
       <c r="L27" t="s">
         <v>84</v>
       </c>
-      <c r="Z27" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE27" t="s">
+      <c r="AA27" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF27" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
         <v>225</v>
@@ -27873,13 +28595,13 @@
       <c r="L28" t="s">
         <v>433</v>
       </c>
-      <c r="Z28" t="s">
-        <v>113</v>
+      <c r="AA28" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
         <v>574</v>
@@ -27890,13 +28612,13 @@
       <c r="L29" t="s">
         <v>45</v>
       </c>
-      <c r="Z29" t="s">
-        <v>326</v>
+      <c r="AA29" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>413</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
         <v>575</v>
@@ -27907,13 +28629,13 @@
       <c r="L30" t="s">
         <v>46</v>
       </c>
-      <c r="Z30" t="s">
-        <v>114</v>
+      <c r="AA30" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>226</v>
+        <v>413</v>
       </c>
       <c r="F31" t="s">
         <v>415</v>
@@ -27921,19 +28643,22 @@
       <c r="H31" t="s">
         <v>215</v>
       </c>
-      <c r="Z31" t="s">
-        <v>115</v>
+      <c r="AA31" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="s">
+        <v>226</v>
+      </c>
       <c r="F32" t="s">
         <v>63</v>
       </c>
       <c r="H32" t="s">
         <v>274</v>
       </c>
-      <c r="Z32" t="s">
-        <v>116</v>
+      <c r="AA32" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="33">
@@ -27943,8 +28668,8 @@
       <c r="H33" t="s">
         <v>284</v>
       </c>
-      <c r="Z33" t="s">
-        <v>117</v>
+      <c r="AA33" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="34">
@@ -27954,8 +28679,8 @@
       <c r="H34" t="s">
         <v>668</v>
       </c>
-      <c r="Z34" t="s">
-        <v>707</v>
+      <c r="AA34" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="35">
@@ -27965,8 +28690,8 @@
       <c r="H35" t="s">
         <v>259</v>
       </c>
-      <c r="Z35" t="s">
-        <v>118</v>
+      <c r="AA35" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="36">
@@ -27976,8 +28701,8 @@
       <c r="H36" t="s">
         <v>329</v>
       </c>
-      <c r="Z36" t="s">
-        <v>119</v>
+      <c r="AA36" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="37">
@@ -27987,8 +28712,8 @@
       <c r="H37" t="s">
         <v>306</v>
       </c>
-      <c r="Z37" t="s">
-        <v>209</v>
+      <c r="AA37" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="38">
@@ -27998,8 +28723,8 @@
       <c r="H38" t="s">
         <v>260</v>
       </c>
-      <c r="Z38" t="s">
-        <v>120</v>
+      <c r="AA38" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="39">
@@ -28009,679 +28734,709 @@
       <c r="H39" t="s">
         <v>307</v>
       </c>
-      <c r="Z39" t="s">
-        <v>337</v>
+      <c r="AA39" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="40">
       <c r="H40" t="s">
         <v>266</v>
       </c>
-      <c r="Z40" t="s">
-        <v>437</v>
+      <c r="AA40" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="41">
       <c r="H41" t="s">
         <v>77</v>
       </c>
-      <c r="Z41" t="s">
-        <v>717</v>
+      <c r="AA41" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="42">
       <c r="H42" t="s">
         <v>211</v>
       </c>
-      <c r="Z42" t="s">
-        <v>392</v>
+      <c r="AA42" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="43">
       <c r="H43" t="s">
         <v>703</v>
       </c>
-      <c r="Z43" t="s">
-        <v>121</v>
+      <c r="AA43" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="44">
       <c r="H44" t="s">
         <v>288</v>
       </c>
-      <c r="Z44" t="s">
-        <v>122</v>
+      <c r="AA44" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="45">
       <c r="H45" t="s">
         <v>299</v>
       </c>
-      <c r="Z45" t="s">
-        <v>123</v>
+      <c r="AA45" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="46">
       <c r="H46" t="s">
         <v>300</v>
       </c>
-      <c r="Z46" t="s">
-        <v>124</v>
+      <c r="AA46" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="47">
       <c r="H47" t="s">
         <v>342</v>
       </c>
-      <c r="Z47" t="s">
-        <v>125</v>
+      <c r="AA47" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="48">
       <c r="H48" t="s">
         <v>341</v>
       </c>
-      <c r="Z48" t="s">
-        <v>126</v>
+      <c r="AA48" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="49">
       <c r="H49" t="s">
         <v>210</v>
       </c>
-      <c r="Z49" t="s">
-        <v>438</v>
+      <c r="AA49" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="50">
       <c r="H50" t="s">
         <v>319</v>
       </c>
-      <c r="Z50" t="s">
-        <v>212</v>
+      <c r="AA50" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="51">
       <c r="H51" t="s">
         <v>338</v>
       </c>
-      <c r="Z51" t="s">
-        <v>76</v>
+      <c r="AA51" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="52">
       <c r="H52" t="s">
         <v>367</v>
       </c>
-      <c r="Z52" t="s">
-        <v>693</v>
+      <c r="AA52" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="53">
       <c r="H53" t="s">
         <v>301</v>
       </c>
-      <c r="Z53" t="s">
-        <v>127</v>
+      <c r="AA53" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="54">
       <c r="H54" t="s">
         <v>355</v>
       </c>
-      <c r="Z54" t="s">
-        <v>128</v>
+      <c r="AA54" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="55">
       <c r="H55" t="s">
         <v>330</v>
       </c>
-      <c r="Z55" t="s">
-        <v>129</v>
+      <c r="AA55" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="56">
       <c r="H56" t="s">
         <v>267</v>
       </c>
-      <c r="Z56" t="s">
-        <v>643</v>
+      <c r="AA56" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="57">
       <c r="H57" t="s">
         <v>291</v>
       </c>
-      <c r="Z57" t="s">
-        <v>463</v>
+      <c r="AA57" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="58">
       <c r="H58" t="s">
         <v>292</v>
       </c>
-      <c r="Z58" t="s">
-        <v>130</v>
+      <c r="AA58" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="59">
       <c r="H59" t="s">
         <v>704</v>
       </c>
-      <c r="Z59" t="s">
-        <v>345</v>
+      <c r="AA59" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="60">
       <c r="H60" t="s">
         <v>293</v>
       </c>
-      <c r="Z60" t="s">
-        <v>464</v>
+      <c r="AA60" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="61">
       <c r="H61" t="s">
         <v>302</v>
       </c>
-      <c r="Z61" t="s">
-        <v>131</v>
+      <c r="AA61" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="62">
       <c r="H62" t="s">
         <v>311</v>
       </c>
-      <c r="Z62" t="s">
-        <v>132</v>
+      <c r="AA62" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="63">
       <c r="H63" t="s">
         <v>336</v>
       </c>
-      <c r="Z63" t="s">
-        <v>133</v>
+      <c r="AA63" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="64">
       <c r="H64" t="s">
         <v>308</v>
       </c>
-      <c r="Z64" t="s">
-        <v>134</v>
+      <c r="AA64" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="65">
       <c r="H65" t="s">
         <v>309</v>
       </c>
-      <c r="Z65" t="s">
-        <v>135</v>
+      <c r="AA65" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="66">
       <c r="H66" t="s">
         <v>368</v>
       </c>
-      <c r="Z66" t="s">
-        <v>136</v>
+      <c r="AA66" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="67">
       <c r="H67" t="s">
         <v>369</v>
       </c>
-      <c r="Z67" t="s">
-        <v>137</v>
+      <c r="AA67" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="68">
       <c r="H68" t="s">
         <v>344</v>
       </c>
-      <c r="Z68" t="s">
-        <v>439</v>
+      <c r="AA68" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="69">
       <c r="H69" t="s">
         <v>312</v>
       </c>
-      <c r="Z69" t="s">
-        <v>634</v>
+      <c r="AA69" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="70">
       <c r="H70" t="s">
         <v>268</v>
       </c>
-      <c r="Z70" t="s">
-        <v>213</v>
+      <c r="AA70" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="71">
       <c r="H71" t="s">
         <v>689</v>
       </c>
-      <c r="Z71" t="s">
-        <v>388</v>
+      <c r="AA71" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="72">
       <c r="H72" t="s">
         <v>313</v>
       </c>
-      <c r="Z72" t="s">
-        <v>440</v>
+      <c r="AA72" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="73">
       <c r="H73" t="s">
         <v>409</v>
       </c>
-      <c r="Z73" t="s">
-        <v>138</v>
+      <c r="AA73" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="74">
       <c r="H74" t="s">
         <v>303</v>
       </c>
-      <c r="Z74" t="s">
-        <v>139</v>
+      <c r="AA74" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="75">
       <c r="H75" t="s">
         <v>410</v>
       </c>
-      <c r="Z75" t="s">
-        <v>140</v>
+      <c r="AA75" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="76">
       <c r="H76" t="s">
         <v>261</v>
       </c>
-      <c r="Z76" t="s">
-        <v>141</v>
+      <c r="AA76" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="77">
       <c r="H77" t="s">
         <v>669</v>
       </c>
-      <c r="Z77" t="s">
-        <v>196</v>
+      <c r="AA77" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="78">
       <c r="H78" t="s">
         <v>343</v>
       </c>
-      <c r="Z78" t="s">
-        <v>197</v>
+      <c r="AA78" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="79">
       <c r="H79" t="s">
         <v>279</v>
       </c>
-      <c r="Z79" t="s">
-        <v>452</v>
+      <c r="AA79" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" t="s">
         <v>285</v>
       </c>
-      <c r="Z80" t="s">
-        <v>465</v>
+      <c r="AA80" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" t="s">
         <v>290</v>
       </c>
-      <c r="Z81" t="s">
-        <v>142</v>
+      <c r="AA81" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="82">
       <c r="H82" t="s">
         <v>428</v>
       </c>
-      <c r="Z82" t="s">
-        <v>143</v>
+      <c r="AA82" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="83">
       <c r="H83" t="s">
         <v>331</v>
       </c>
-      <c r="Z83" t="s">
-        <v>144</v>
+      <c r="AA83" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="84">
       <c r="H84" t="s">
         <v>269</v>
       </c>
-      <c r="Z84" t="s">
-        <v>656</v>
+      <c r="AA84" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" t="s">
         <v>280</v>
       </c>
-      <c r="Z85" t="s">
-        <v>145</v>
+      <c r="AA85" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="86">
       <c r="H86" t="s">
         <v>286</v>
       </c>
-      <c r="Z86" t="s">
-        <v>146</v>
+      <c r="AA86" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="87">
       <c r="H87" t="s">
         <v>275</v>
       </c>
-      <c r="Z87" t="s">
-        <v>198</v>
+      <c r="AA87" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="88">
       <c r="H88" t="s">
         <v>690</v>
       </c>
-      <c r="Z88" t="s">
-        <v>644</v>
+      <c r="AA88" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" t="s">
         <v>270</v>
       </c>
-      <c r="Z89" t="s">
-        <v>726</v>
+      <c r="AA89" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="90">
       <c r="H90" t="s">
         <v>287</v>
       </c>
-      <c r="Z90" t="s">
-        <v>199</v>
+      <c r="AA90" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="91">
       <c r="H91" t="s">
         <v>271</v>
       </c>
-      <c r="Z91" t="s">
-        <v>453</v>
+      <c r="AA91" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="92">
       <c r="H92" t="s">
         <v>272</v>
       </c>
-      <c r="Z92" t="s">
-        <v>200</v>
+      <c r="AA92" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="93">
       <c r="H93" t="s">
         <v>304</v>
       </c>
-      <c r="Z93" t="s">
-        <v>201</v>
+      <c r="AA93" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="94">
       <c r="H94" t="s">
         <v>310</v>
       </c>
-      <c r="Z94" t="s">
-        <v>711</v>
+      <c r="AA94" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="95">
       <c r="H95" t="s">
         <v>294</v>
       </c>
-      <c r="Z95" t="s">
-        <v>712</v>
+      <c r="AA95" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="96">
       <c r="H96" t="s">
         <v>339</v>
       </c>
-      <c r="Z96" t="s">
-        <v>214</v>
+      <c r="AA96" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="97">
       <c r="H97" t="s">
         <v>276</v>
       </c>
-      <c r="Z97" t="s">
-        <v>147</v>
+      <c r="AA97" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="98">
       <c r="H98" t="s">
         <v>277</v>
       </c>
-      <c r="Z98" t="s">
+      <c r="AA98" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="AA99" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="99">
-      <c r="Z99" t="s">
+    <row r="100">
+      <c r="AA100" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="100">
-      <c r="Z100" t="s">
+    <row r="101">
+      <c r="AA101" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="101">
-      <c r="Z101" t="s">
+    <row r="102">
+      <c r="AA102" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="102">
-      <c r="Z102" t="s">
+    <row r="103">
+      <c r="AA103" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="103">
-      <c r="Z103" t="s">
+    <row r="104">
+      <c r="AA104" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="104">
-      <c r="Z104" t="s">
+    <row r="105">
+      <c r="AA105" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="105">
-      <c r="Z105" t="s">
+    <row r="106">
+      <c r="AA106" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="106">
-      <c r="Z106" t="s">
+    <row r="107">
+      <c r="AA107" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="107">
-      <c r="Z107" t="s">
+    <row r="108">
+      <c r="AA108" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Z108" t="s">
+    <row r="109">
+      <c r="AA109" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="AA110" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Z109" t="s">
+    <row r="111">
+      <c r="AA111" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Z110" t="s">
+    <row r="112">
+      <c r="AA112" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Z111" t="s">
+    <row r="113">
+      <c r="AA113" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Z112" t="s">
+    <row r="114">
+      <c r="AA114" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Z113" t="s">
+    <row r="115">
+      <c r="AA115" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Z114" t="s">
+    <row r="116">
+      <c r="AA116" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Z115" t="s">
+    <row r="117">
+      <c r="AA117" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Z116" t="s">
+    <row r="118">
+      <c r="AA118" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Z117" t="s">
+    <row r="119">
+      <c r="AA119" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="AA120" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Z118" t="s">
+    <row r="121">
+      <c r="AA121" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Z119" t="s">
+    <row r="122">
+      <c r="AA122" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="AA123" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Z120" t="s">
+    <row r="124">
+      <c r="AA124" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Z121" t="s">
+    <row r="125">
+      <c r="AA125" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Z122" t="s">
+    <row r="126">
+      <c r="AA126" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Z123" t="s">
+    <row r="127">
+      <c r="AA127" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Z124" t="s">
+    <row r="128">
+      <c r="AA128" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Z125" t="s">
+    <row r="129">
+      <c r="AA129" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="AA130" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Z126" t="s">
+    <row r="131">
+      <c r="AA131" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Z127" t="s">
+    <row r="132">
+      <c r="AA132" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Z128" t="s">
+    <row r="133">
+      <c r="AA133" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Z129" t="s">
+    <row r="134">
+      <c r="AA134" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Z130" t="s">
+    <row r="135">
+      <c r="AA135" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Z131" t="s">
+    <row r="136">
+      <c r="AA136" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Z132" t="s">
+    <row r="137">
+      <c r="AA137" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Z133" t="s">
+    <row r="138">
+      <c r="AA138" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Z134" t="s">
+    <row r="139">
+      <c r="AA139" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="135">
-      <c r="Z135" t="s">
+    <row r="140">
+      <c r="AA140" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="136">
-      <c r="Z136" t="s">
+    <row r="141">
+      <c r="AA141" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="AA142" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="137">
-      <c r="Z137" t="s">
+    <row r="143">
+      <c r="AA143" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="138">
-      <c r="Z138" t="s">
+    <row r="144">
+      <c r="AA144" t="s">
         <v>169</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$42</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -37,14 +37,14 @@
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
     <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$32</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$149</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
     <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
@@ -52,10 +52,11 @@
     <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
     <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
+    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22220" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24002" uniqueCount="769">
   <si>
     <t>description</t>
   </si>
@@ -2404,13 +2405,82 @@
   <si>
     <t>saveAllAsText(var,exclude)</t>
   </si>
+  <si>
+    <t>step.inTime</t>
+  </si>
+  <si>
+    <t>clearClipboard()</t>
+  </si>
+  <si>
+    <t>copyFromClipboard(var)</t>
+  </si>
+  <si>
+    <t>copyIntoClipboard(text)</t>
+  </si>
+  <si>
+    <t>queryAsCSV(var,sql)</t>
+  </si>
+  <si>
+    <t>assertResultMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>assertResultNotMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>observe(prompt,waitMs)</t>
+  </si>
+  <si>
+    <t>perform(instructions,waitMs)</t>
+  </si>
+  <si>
+    <t>validate(prompt,responses,passResponses,waitMs)</t>
+  </si>
+  <si>
+    <t>assertElementDisabled(locator)</t>
+  </si>
+  <si>
+    <t>checkAll(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilDisabled(locator,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilEnabled(locator,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilHidden(locator,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilVisible(locator,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitForElementPresent(locator,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilDisabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilEnabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilHidden(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilVisible(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitForElementPresent(locator,waitMs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="653" x14ac:knownFonts="1">
+  <fonts count="701" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6540,8 +6610,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1115">
+  <fills count="1196">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12857,8 +13230,467 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1191">
+  <borders count="1287">
     <border>
       <left/>
       <right/>
@@ -24924,6 +25756,984 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -24931,7 +26741,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="691">
+  <cellXfs count="739">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -26986,52 +28796,196 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1087" fontId="636" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="637" fillId="1090" borderId="1166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1166" fillId="1090" fontId="637" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="638" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="638" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="639" fillId="1093" borderId="1170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1170" fillId="1093" fontId="639" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="640" fillId="1096" borderId="1174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1174" fillId="1096" fontId="640" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="641" fillId="1099" borderId="1178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1178" fillId="1099" fontId="641" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="642" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="642" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="643" fillId="1102" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1102" fontId="643" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="644" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="644" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="645" fillId="1105" borderId="1182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1182" fillId="1105" fontId="645" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="646" fillId="1096" borderId="1186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1186" fillId="1096" fontId="646" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="647" fillId="1108" borderId="1190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1190" fillId="1108" fontId="647" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="648" fillId="1108" borderId="1190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1190" fillId="1108" fontId="648" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="649" fillId="1099" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1099" fontId="649" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="650" fillId="1111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1111" fontId="650" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="651" fillId="1099" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1099" fontId="651" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="652" fillId="1114" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1114" fontId="652" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1198" fillId="1117" fontId="653" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="654" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1202" fillId="1120" fontId="655" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1206" fillId="1123" fontId="656" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1210" fillId="1126" fontId="657" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="658" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1129" fontId="659" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="660" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1214" fillId="1132" fontId="661" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1218" fillId="1123" fontId="662" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1222" fillId="1135" fontId="663" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1222" fillId="1135" fontId="664" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1126" fontId="665" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1138" fontId="666" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1126" fontId="667" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1141" fontId="668" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1230" fillId="1144" fontId="669" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="670" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1234" fillId="1147" fontId="671" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1238" fillId="1150" fontId="672" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1242" fillId="1153" fontId="673" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="674" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1156" fontId="675" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="676" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1246" fillId="1159" fontId="677" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1250" fillId="1150" fontId="678" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1254" fillId="1162" fontId="679" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1254" fillId="1162" fontId="680" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1153" fontId="681" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1165" fontId="682" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1153" fontId="683" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1168" fontId="684" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="685" fillId="1171" borderId="1262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="686" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="687" fillId="1174" borderId="1266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="688" fillId="1177" borderId="1270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="689" fillId="1180" borderId="1274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="690" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="691" fillId="1183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="692" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="693" fillId="1186" borderId="1278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="694" fillId="1177" borderId="1282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="695" fillId="1189" borderId="1286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="696" fillId="1189" borderId="1286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="697" fillId="1180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="698" fillId="1192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="699" fillId="1180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="700" fillId="1195" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -27386,7 +29340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG144"/>
+  <dimension ref="A1:AG149"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -27474,7 +29428,7 @@
         <v>396</v>
       </c>
       <c r="Z1" t="s">
-        <v>727</v>
+        <v>746</v>
       </c>
       <c r="AA1" t="s">
         <v>53</v>
@@ -27554,7 +29508,7 @@
         <v>252</v>
       </c>
       <c r="T2" t="s">
-        <v>216</v>
+        <v>751</v>
       </c>
       <c r="U2" t="s">
         <v>397</v>
@@ -27572,7 +29526,7 @@
         <v>406</v>
       </c>
       <c r="Z2" t="s">
-        <v>733</v>
+        <v>753</v>
       </c>
       <c r="AA2" t="s">
         <v>96</v>
@@ -27646,7 +29600,7 @@
         <v>239</v>
       </c>
       <c r="T3" t="s">
-        <v>217</v>
+        <v>752</v>
       </c>
       <c r="U3" t="s">
         <v>398</v>
@@ -27661,7 +29615,7 @@
         <v>407</v>
       </c>
       <c r="Z3" t="s">
-        <v>734</v>
+        <v>754</v>
       </c>
       <c r="AA3" t="s">
         <v>97</v>
@@ -27732,7 +29686,7 @@
         <v>240</v>
       </c>
       <c r="T4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="U4" t="s">
         <v>399</v>
@@ -27747,7 +29701,7 @@
         <v>408</v>
       </c>
       <c r="Z4" t="s">
-        <v>735</v>
+        <v>755</v>
       </c>
       <c r="AA4" t="s">
         <v>723</v>
@@ -27812,7 +29766,7 @@
         <v>241</v>
       </c>
       <c r="T5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="U5" t="s">
         <v>400</v>
@@ -27822,9 +29776,6 @@
       </c>
       <c r="X5" t="s">
         <v>358</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>736</v>
       </c>
       <c r="AA5" t="s">
         <v>716</v>
@@ -27889,16 +29840,13 @@
         <v>242</v>
       </c>
       <c r="T6" t="s">
-        <v>390</v>
+        <v>218</v>
       </c>
       <c r="U6" t="s">
         <v>401</v>
       </c>
       <c r="X6" t="s">
         <v>360</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>737</v>
       </c>
       <c r="AA6" t="s">
         <v>98</v>
@@ -27954,7 +29902,7 @@
         <v>243</v>
       </c>
       <c r="T7" t="s">
-        <v>417</v>
+        <v>219</v>
       </c>
       <c r="U7" t="s">
         <v>402</v>
@@ -28015,6 +29963,9 @@
       <c r="S8" t="s">
         <v>244</v>
       </c>
+      <c r="T8" t="s">
+        <v>390</v>
+      </c>
       <c r="U8" t="s">
         <v>403</v>
       </c>
@@ -28071,6 +30022,9 @@
       <c r="S9" t="s">
         <v>245</v>
       </c>
+      <c r="T9" t="s">
+        <v>417</v>
+      </c>
       <c r="U9" t="s">
         <v>404</v>
       </c>
@@ -28192,7 +30146,7 @@
         <v>692</v>
       </c>
       <c r="O12" t="s">
-        <v>678</v>
+        <v>750</v>
       </c>
       <c r="R12" t="s">
         <v>41</v>
@@ -28229,6 +30183,9 @@
       <c r="N13" t="s">
         <v>435</v>
       </c>
+      <c r="O13" t="s">
+        <v>678</v>
+      </c>
       <c r="R13" t="s">
         <v>93</v>
       </c>
@@ -28306,7 +30263,7 @@
         <v>249</v>
       </c>
       <c r="AA15" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="AD15" t="s">
         <v>193</v>
@@ -28341,7 +30298,7 @@
         <v>250</v>
       </c>
       <c r="AA16" t="s">
-        <v>103</v>
+        <v>738</v>
       </c>
       <c r="AD16" t="s">
         <v>194</v>
@@ -28370,7 +30327,7 @@
         <v>251</v>
       </c>
       <c r="AA17" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="AD17" t="s">
         <v>466</v>
@@ -28396,7 +30353,7 @@
         <v>43</v>
       </c>
       <c r="AA18" t="s">
-        <v>662</v>
+        <v>74</v>
       </c>
       <c r="AF18" t="s">
         <v>636</v>
@@ -28407,7 +30364,7 @@
         <v>238</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>747</v>
       </c>
       <c r="H19" t="s">
         <v>89</v>
@@ -28416,7 +30373,7 @@
         <v>462</v>
       </c>
       <c r="AA19" t="s">
-        <v>104</v>
+        <v>662</v>
       </c>
       <c r="AF19" t="s">
         <v>654</v>
@@ -28427,7 +30384,7 @@
         <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>748</v>
       </c>
       <c r="H20" t="s">
         <v>295</v>
@@ -28436,7 +30393,7 @@
         <v>82</v>
       </c>
       <c r="AA20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF20" t="s">
         <v>655</v>
@@ -28447,7 +30404,7 @@
         <v>395</v>
       </c>
       <c r="F21" t="s">
-        <v>255</v>
+        <v>749</v>
       </c>
       <c r="H21" t="s">
         <v>296</v>
@@ -28456,7 +30413,7 @@
         <v>83</v>
       </c>
       <c r="AA21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AF21" t="s">
         <v>659</v>
@@ -28467,7 +30424,7 @@
         <v>411</v>
       </c>
       <c r="F22" t="s">
-        <v>701</v>
+        <v>59</v>
       </c>
       <c r="H22" t="s">
         <v>297</v>
@@ -28476,7 +30433,7 @@
         <v>720</v>
       </c>
       <c r="AA22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF22" t="s">
         <v>234</v>
@@ -28487,7 +30444,7 @@
         <v>412</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
         <v>298</v>
@@ -28496,7 +30453,7 @@
         <v>602</v>
       </c>
       <c r="AA23" t="s">
-        <v>645</v>
+        <v>107</v>
       </c>
       <c r="AF23" t="s">
         <v>697</v>
@@ -28507,7 +30464,7 @@
         <v>356</v>
       </c>
       <c r="F24" t="s">
-        <v>320</v>
+        <v>255</v>
       </c>
       <c r="H24" t="s">
         <v>289</v>
@@ -28516,7 +30473,7 @@
         <v>44</v>
       </c>
       <c r="AA24" t="s">
-        <v>109</v>
+        <v>645</v>
       </c>
       <c r="AF24" t="s">
         <v>698</v>
@@ -28527,7 +30484,7 @@
         <v>396</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>701</v>
       </c>
       <c r="H25" t="s">
         <v>278</v>
@@ -28536,7 +30493,7 @@
         <v>391</v>
       </c>
       <c r="AA25" t="s">
-        <v>706</v>
+        <v>109</v>
       </c>
       <c r="AF25" t="s">
         <v>699</v>
@@ -28544,10 +30501,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>727</v>
+        <v>746</v>
       </c>
       <c r="F26" t="s">
-        <v>448</v>
+        <v>61</v>
       </c>
       <c r="H26" t="s">
         <v>75</v>
@@ -28556,7 +30513,7 @@
         <v>684</v>
       </c>
       <c r="AA26" t="s">
-        <v>110</v>
+        <v>706</v>
       </c>
       <c r="AF26" t="s">
         <v>235</v>
@@ -28567,7 +30524,7 @@
         <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>224</v>
+        <v>320</v>
       </c>
       <c r="H27" t="s">
         <v>281</v>
@@ -28576,7 +30533,7 @@
         <v>84</v>
       </c>
       <c r="AA27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF27" t="s">
         <v>236</v>
@@ -28587,7 +30544,7 @@
         <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>225</v>
+        <v>62</v>
       </c>
       <c r="H28" t="s">
         <v>265</v>
@@ -28596,7 +30553,7 @@
         <v>433</v>
       </c>
       <c r="AA28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29">
@@ -28604,7 +30561,7 @@
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>574</v>
+        <v>448</v>
       </c>
       <c r="H29" t="s">
         <v>282</v>
@@ -28613,7 +30570,7 @@
         <v>45</v>
       </c>
       <c r="AA29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
@@ -28621,7 +30578,7 @@
         <v>56</v>
       </c>
       <c r="F30" t="s">
-        <v>575</v>
+        <v>224</v>
       </c>
       <c r="H30" t="s">
         <v>283</v>
@@ -28630,7 +30587,7 @@
         <v>46</v>
       </c>
       <c r="AA30" t="s">
-        <v>326</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
@@ -28638,13 +30595,13 @@
         <v>413</v>
       </c>
       <c r="F31" t="s">
-        <v>415</v>
+        <v>225</v>
       </c>
       <c r="H31" t="s">
         <v>215</v>
       </c>
       <c r="AA31" t="s">
-        <v>114</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32">
@@ -28652,114 +30609,123 @@
         <v>226</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>574</v>
       </c>
       <c r="H32" t="s">
         <v>274</v>
       </c>
       <c r="AA32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>64</v>
+        <v>575</v>
       </c>
       <c r="H33" t="s">
         <v>284</v>
       </c>
       <c r="AA33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>65</v>
+        <v>415</v>
       </c>
       <c r="H34" t="s">
         <v>668</v>
       </c>
       <c r="AA34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H35" t="s">
         <v>259</v>
       </c>
       <c r="AA35" t="s">
-        <v>707</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H36" t="s">
         <v>329</v>
       </c>
       <c r="AA36" t="s">
-        <v>118</v>
+        <v>707</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H37" t="s">
         <v>306</v>
       </c>
       <c r="AA37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H38" t="s">
         <v>260</v>
       </c>
       <c r="AA38" t="s">
-        <v>209</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H39" t="s">
         <v>307</v>
       </c>
       <c r="AA39" t="s">
-        <v>120</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>68</v>
+      </c>
       <c r="H40" t="s">
         <v>266</v>
       </c>
       <c r="AA40" t="s">
-        <v>337</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41">
+      <c r="F41" t="s">
+        <v>69</v>
+      </c>
       <c r="H41" t="s">
         <v>77</v>
       </c>
       <c r="AA41" t="s">
-        <v>437</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42">
+      <c r="F42" t="s">
+        <v>70</v>
+      </c>
       <c r="H42" t="s">
         <v>211</v>
       </c>
       <c r="AA42" t="s">
-        <v>717</v>
+        <v>437</v>
       </c>
     </row>
     <row r="43">
@@ -28767,7 +30733,7 @@
         <v>703</v>
       </c>
       <c r="AA43" t="s">
-        <v>392</v>
+        <v>717</v>
       </c>
     </row>
     <row r="44">
@@ -28775,7 +30741,7 @@
         <v>288</v>
       </c>
       <c r="AA44" t="s">
-        <v>121</v>
+        <v>392</v>
       </c>
     </row>
     <row r="45">
@@ -28783,7 +30749,7 @@
         <v>299</v>
       </c>
       <c r="AA45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46">
@@ -28791,7 +30757,7 @@
         <v>300</v>
       </c>
       <c r="AA46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47">
@@ -28799,7 +30765,7 @@
         <v>342</v>
       </c>
       <c r="AA47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48">
@@ -28807,7 +30773,7 @@
         <v>341</v>
       </c>
       <c r="AA48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49">
@@ -28815,7 +30781,7 @@
         <v>210</v>
       </c>
       <c r="AA49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50">
@@ -28823,7 +30789,7 @@
         <v>319</v>
       </c>
       <c r="AA50" t="s">
-        <v>438</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51">
@@ -28831,7 +30797,7 @@
         <v>338</v>
       </c>
       <c r="AA51" t="s">
-        <v>212</v>
+        <v>757</v>
       </c>
     </row>
     <row r="52">
@@ -28839,7 +30805,7 @@
         <v>367</v>
       </c>
       <c r="AA52" t="s">
-        <v>76</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53">
@@ -28847,7 +30813,7 @@
         <v>301</v>
       </c>
       <c r="AA53" t="s">
-        <v>693</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54">
@@ -28855,7 +30821,7 @@
         <v>355</v>
       </c>
       <c r="AA54" t="s">
-        <v>127</v>
+        <v>693</v>
       </c>
     </row>
     <row r="55">
@@ -28863,7 +30829,7 @@
         <v>330</v>
       </c>
       <c r="AA55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56">
@@ -28871,7 +30837,7 @@
         <v>267</v>
       </c>
       <c r="AA56" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57">
@@ -28879,7 +30845,7 @@
         <v>291</v>
       </c>
       <c r="AA57" t="s">
-        <v>643</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58">
@@ -28887,7 +30853,7 @@
         <v>292</v>
       </c>
       <c r="AA58" t="s">
-        <v>463</v>
+        <v>643</v>
       </c>
     </row>
     <row r="59">
@@ -28895,7 +30861,7 @@
         <v>704</v>
       </c>
       <c r="AA59" t="s">
-        <v>130</v>
+        <v>463</v>
       </c>
     </row>
     <row r="60">
@@ -28903,7 +30869,7 @@
         <v>293</v>
       </c>
       <c r="AA60" t="s">
-        <v>345</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61">
@@ -28911,7 +30877,7 @@
         <v>302</v>
       </c>
       <c r="AA61" t="s">
-        <v>464</v>
+        <v>345</v>
       </c>
     </row>
     <row r="62">
@@ -28919,7 +30885,7 @@
         <v>311</v>
       </c>
       <c r="AA62" t="s">
-        <v>131</v>
+        <v>464</v>
       </c>
     </row>
     <row r="63">
@@ -28927,7 +30893,7 @@
         <v>336</v>
       </c>
       <c r="AA63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64">
@@ -28935,7 +30901,7 @@
         <v>308</v>
       </c>
       <c r="AA64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65">
@@ -28943,7 +30909,7 @@
         <v>309</v>
       </c>
       <c r="AA65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66">
@@ -28951,7 +30917,7 @@
         <v>368</v>
       </c>
       <c r="AA66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67">
@@ -28959,7 +30925,7 @@
         <v>369</v>
       </c>
       <c r="AA67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68">
@@ -28967,7 +30933,7 @@
         <v>344</v>
       </c>
       <c r="AA68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69">
@@ -28975,7 +30941,7 @@
         <v>312</v>
       </c>
       <c r="AA69" t="s">
-        <v>439</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70">
@@ -28983,7 +30949,7 @@
         <v>268</v>
       </c>
       <c r="AA70" t="s">
-        <v>634</v>
+        <v>439</v>
       </c>
     </row>
     <row r="71">
@@ -28991,7 +30957,7 @@
         <v>689</v>
       </c>
       <c r="AA71" t="s">
-        <v>213</v>
+        <v>634</v>
       </c>
     </row>
     <row r="72">
@@ -28999,7 +30965,7 @@
         <v>313</v>
       </c>
       <c r="AA72" t="s">
-        <v>388</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73">
@@ -29007,7 +30973,7 @@
         <v>409</v>
       </c>
       <c r="AA73" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
     </row>
     <row r="74">
@@ -29015,7 +30981,7 @@
         <v>303</v>
       </c>
       <c r="AA74" t="s">
-        <v>138</v>
+        <v>440</v>
       </c>
     </row>
     <row r="75">
@@ -29023,7 +30989,7 @@
         <v>410</v>
       </c>
       <c r="AA75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76">
@@ -29031,7 +30997,7 @@
         <v>261</v>
       </c>
       <c r="AA76" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77">
@@ -29039,7 +31005,7 @@
         <v>669</v>
       </c>
       <c r="AA77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78">
@@ -29047,7 +31013,7 @@
         <v>343</v>
       </c>
       <c r="AA78" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79">
@@ -29055,7 +31021,7 @@
         <v>279</v>
       </c>
       <c r="AA79" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="80">
@@ -29063,7 +31029,7 @@
         <v>285</v>
       </c>
       <c r="AA80" t="s">
-        <v>452</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81">
@@ -29071,7 +31037,7 @@
         <v>290</v>
       </c>
       <c r="AA81" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="82">
@@ -29079,7 +31045,7 @@
         <v>428</v>
       </c>
       <c r="AA82" t="s">
-        <v>142</v>
+        <v>465</v>
       </c>
     </row>
     <row r="83">
@@ -29087,7 +31053,7 @@
         <v>331</v>
       </c>
       <c r="AA83" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84">
@@ -29095,7 +31061,7 @@
         <v>269</v>
       </c>
       <c r="AA84" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85">
@@ -29103,7 +31069,7 @@
         <v>280</v>
       </c>
       <c r="AA85" t="s">
-        <v>656</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86">
@@ -29111,7 +31077,7 @@
         <v>286</v>
       </c>
       <c r="AA86" t="s">
-        <v>145</v>
+        <v>656</v>
       </c>
     </row>
     <row r="87">
@@ -29119,7 +31085,7 @@
         <v>275</v>
       </c>
       <c r="AA87" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88">
@@ -29127,7 +31093,7 @@
         <v>690</v>
       </c>
       <c r="AA88" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89">
@@ -29135,7 +31101,7 @@
         <v>270</v>
       </c>
       <c r="AA89" t="s">
-        <v>644</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90">
@@ -29143,7 +31109,7 @@
         <v>287</v>
       </c>
       <c r="AA90" t="s">
-        <v>726</v>
+        <v>644</v>
       </c>
     </row>
     <row r="91">
@@ -29151,7 +31117,7 @@
         <v>271</v>
       </c>
       <c r="AA91" t="s">
-        <v>199</v>
+        <v>726</v>
       </c>
     </row>
     <row r="92">
@@ -29159,7 +31125,7 @@
         <v>272</v>
       </c>
       <c r="AA92" t="s">
-        <v>453</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93">
@@ -29167,7 +31133,7 @@
         <v>304</v>
       </c>
       <c r="AA93" t="s">
-        <v>200</v>
+        <v>453</v>
       </c>
     </row>
     <row r="94">
@@ -29175,7 +31141,7 @@
         <v>310</v>
       </c>
       <c r="AA94" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95">
@@ -29183,7 +31149,7 @@
         <v>294</v>
       </c>
       <c r="AA95" t="s">
-        <v>711</v>
+        <v>201</v>
       </c>
     </row>
     <row r="96">
@@ -29191,7 +31157,7 @@
         <v>339</v>
       </c>
       <c r="AA96" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="97">
@@ -29199,7 +31165,7 @@
         <v>276</v>
       </c>
       <c r="AA97" t="s">
-        <v>214</v>
+        <v>712</v>
       </c>
     </row>
     <row r="98">
@@ -29207,237 +31173,262 @@
         <v>277</v>
       </c>
       <c r="AA98" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
     </row>
     <row r="99">
       <c r="AA99" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
     </row>
     <row r="100">
       <c r="AA100" t="s">
-        <v>441</v>
+        <v>202</v>
       </c>
     </row>
     <row r="101">
       <c r="AA101" t="s">
-        <v>724</v>
+        <v>441</v>
       </c>
     </row>
     <row r="102">
       <c r="AA102" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="103">
       <c r="AA103" t="s">
-        <v>442</v>
+        <v>725</v>
       </c>
     </row>
     <row r="104">
       <c r="AA104" t="s">
-        <v>203</v>
+        <v>442</v>
       </c>
     </row>
     <row r="105">
       <c r="AA105" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106">
       <c r="AA106" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="107">
       <c r="AA107" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="108">
       <c r="AA108" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="109">
       <c r="AA109" t="s">
-        <v>739</v>
+        <v>222</v>
       </c>
     </row>
     <row r="110">
       <c r="AA110" t="s">
-        <v>207</v>
+        <v>739</v>
       </c>
     </row>
     <row r="111">
       <c r="AA111" t="s">
-        <v>663</v>
+        <v>207</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>718</v>
+        <v>663</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>670</v>
+        <v>718</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>148</v>
+        <v>670</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>671</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>382</v>
+        <v>671</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>149</v>
+        <v>382</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>740</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>151</v>
+        <v>740</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>741</v>
+        <v>152</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>153</v>
+        <v>741</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>742</v>
+        <v>158</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>159</v>
+        <v>742</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>443</v>
+        <v>161</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>162</v>
+        <v>758</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>708</v>
+        <v>162</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>163</v>
+        <v>708</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>743</v>
+        <v>768</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>167</v>
+        <v>743</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="AA145" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="AA146" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="AA147" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="AA148" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="AA149" t="s">
+        <v>767</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$F$2:$F$42</definedName>
+    <definedName name="base">'#system'!$F$2:$F$44</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -28,7 +28,7 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$30</definedName>
+    <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
@@ -36,26 +36,26 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$149</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$33</definedName>
+    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
+    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
+    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
+    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
+    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24002" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25280" uniqueCount="811">
   <si>
     <t>description</t>
   </si>
@@ -2474,13 +2474,139 @@
   <si>
     <t>waitForElementPresent(locator,waitMs)</t>
   </si>
+  <si>
+    <t>macroFlex(macro,input,output)</t>
+  </si>
+  <si>
+    <t>waitForCondition(conditions,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitForFile(file,minFileSize,waitMs,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>combine(path,fileFilter,saveTo)</t>
+  </si>
+  <si>
+    <t>assertColumnNotPresent(column)</t>
+  </si>
+  <si>
+    <t>assertColumnPresent(column)</t>
+  </si>
+  <si>
+    <t>assertFieldMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotPresent(label)</t>
+  </si>
+  <si>
+    <t>assertFieldPresent(label)</t>
+  </si>
+  <si>
+    <t>assertKeyboardLocked()</t>
+  </si>
+  <si>
+    <t>assertKeyboardNotLocked()</t>
+  </si>
+  <si>
+    <t>assertMessageMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertMessageNotMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertScreenContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenMatch(text)</t>
+  </si>
+  <si>
+    <t>assertScreenNotContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenNotMatch(text)</t>
+  </si>
+  <si>
+    <t>assertTableMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTableNotMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTablePresent()</t>
+  </si>
+  <si>
+    <t>assertTitle(expects)</t>
+  </si>
+  <si>
+    <t>assertTitleContain(expects)</t>
+  </si>
+  <si>
+    <t>clearField(label)</t>
+  </si>
+  <si>
+    <t>focus(label)</t>
+  </si>
+  <si>
+    <t>inspectNestedScreen(titles)</t>
+  </si>
+  <si>
+    <t>inspectScreen()</t>
+  </si>
+  <si>
+    <t>saveDisplay(var,field)</t>
+  </si>
+  <si>
+    <t>saveDisplayFields(var)</t>
+  </si>
+  <si>
+    <t>saveInputFields(var)</t>
+  </si>
+  <si>
+    <t>saveMessage(var)</t>
+  </si>
+  <si>
+    <t>saveScreenText(var)</t>
+  </si>
+  <si>
+    <t>saveTableAsCSV(csv,maxPage)</t>
+  </si>
+  <si>
+    <t>saveTableMatchCount(var,column,text)</t>
+  </si>
+  <si>
+    <t>saveTableRow(var,criteria)</t>
+  </si>
+  <si>
+    <t>type(label,text)</t>
+  </si>
+  <si>
+    <t>typeKeys(keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedRow(column,match,keystrokes)</t>
+  </si>
+  <si>
+    <t>unlockKeyboard()</t>
+  </si>
+  <si>
+    <t>moveTo(x,y)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator,removeFixed)</t>
+  </si>
+  <si>
+    <t>screenshotInFull(file,timeout,removeFixed)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="701" x14ac:knownFonts="1">
+  <fonts count="735" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6913,8 +7039,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1196">
+  <fills count="1244">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13687,6 +14027,278 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -26741,7 +27353,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="739">
+  <cellXfs count="773">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -28940,52 +29552,154 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1168" fontId="684" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="685" fillId="1171" borderId="1262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1262" fillId="1171" fontId="685" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="686" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="686" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="687" fillId="1174" borderId="1266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1266" fillId="1174" fontId="687" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="688" fillId="1177" borderId="1270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1270" fillId="1177" fontId="688" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="689" fillId="1180" borderId="1274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1274" fillId="1180" fontId="689" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="690" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="690" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="691" fillId="1183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1183" fontId="691" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="692" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="692" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="693" fillId="1186" borderId="1278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1278" fillId="1186" fontId="693" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="694" fillId="1177" borderId="1282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1282" fillId="1177" fontId="694" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="695" fillId="1189" borderId="1286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1286" fillId="1189" fontId="695" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="696" fillId="1189" borderId="1286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1286" fillId="1189" fontId="696" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="697" fillId="1180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1180" fontId="697" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="698" fillId="1192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1192" fontId="698" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="699" fillId="1180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1180" fontId="699" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="700" fillId="1195" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1195" fontId="700" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1198" fontId="701" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="702" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1201" fontId="703" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1204" fontId="704" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1207" fontId="705" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="706" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1210" fontId="707" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="708" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1213" fontId="709" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1216" fontId="710" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1204" fontId="711" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="712" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="713" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1207" fontId="714" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1219" fontId="715" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1207" fontId="716" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1216" fontId="717" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="718" fillId="1222" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="719" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="720" fillId="1225" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="721" fillId="1228" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="722" fillId="1231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="723" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="724" fillId="1234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="725" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="726" fillId="1237" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="727" fillId="1240" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="728" fillId="1228" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="729" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="730" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="731" fillId="1231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="732" fillId="1243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="733" fillId="1231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="734" fillId="1240" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -29340,7 +30054,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG149"/>
+  <dimension ref="A1:AH151"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -29431,21 +30145,24 @@
         <v>746</v>
       </c>
       <c r="AA1" t="s">
+        <v>727</v>
+      </c>
+      <c r="AB1" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>55</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>56</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>413</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -29529,21 +30246,24 @@
         <v>753</v>
       </c>
       <c r="AA2" t="s">
+        <v>773</v>
+      </c>
+      <c r="AB2" t="s">
         <v>96</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>170</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>175</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>182</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>431</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>651</v>
       </c>
     </row>
@@ -29618,21 +30338,24 @@
         <v>754</v>
       </c>
       <c r="AA3" t="s">
+        <v>774</v>
+      </c>
+      <c r="AB3" t="s">
         <v>97</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>171</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>176</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>363</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>183</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -29704,21 +30427,24 @@
         <v>755</v>
       </c>
       <c r="AA4" t="s">
+        <v>775</v>
+      </c>
+      <c r="AB4" t="s">
         <v>723</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>172</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>177</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>183</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>423</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>228</v>
       </c>
     </row>
@@ -29778,21 +30504,24 @@
         <v>358</v>
       </c>
       <c r="AA5" t="s">
+        <v>776</v>
+      </c>
+      <c r="AB5" t="s">
         <v>716</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>173</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>744</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>184</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>424</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>229</v>
       </c>
     </row>
@@ -29849,21 +30578,24 @@
         <v>360</v>
       </c>
       <c r="AA6" t="s">
+        <v>777</v>
+      </c>
+      <c r="AB6" t="s">
         <v>98</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>444</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>178</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>185</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>425</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>230</v>
       </c>
     </row>
@@ -29911,21 +30643,24 @@
         <v>359</v>
       </c>
       <c r="AA7" t="s">
+        <v>778</v>
+      </c>
+      <c r="AB7" t="s">
         <v>99</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>445</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>179</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>186</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>426</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>694</v>
       </c>
     </row>
@@ -29973,21 +30708,24 @@
         <v>361</v>
       </c>
       <c r="AA8" t="s">
+        <v>779</v>
+      </c>
+      <c r="AB8" t="s">
         <v>100</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>174</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>180</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>187</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>427</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>695</v>
       </c>
     </row>
@@ -30032,15 +30770,18 @@
         <v>362</v>
       </c>
       <c r="AA9" t="s">
+        <v>780</v>
+      </c>
+      <c r="AB9" t="s">
         <v>208</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>181</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>188</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>696</v>
       </c>
     </row>
@@ -30076,15 +30817,18 @@
         <v>405</v>
       </c>
       <c r="AA10" t="s">
+        <v>781</v>
+      </c>
+      <c r="AB10" t="s">
         <v>256</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>745</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>189</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>231</v>
       </c>
     </row>
@@ -30114,15 +30858,18 @@
         <v>92</v>
       </c>
       <c r="S11" t="s">
-        <v>247</v>
+        <v>772</v>
       </c>
       <c r="AA11" t="s">
+        <v>782</v>
+      </c>
+      <c r="AB11" t="s">
         <v>257</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>258</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>232</v>
       </c>
     </row>
@@ -30152,15 +30899,18 @@
         <v>41</v>
       </c>
       <c r="S12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA12" t="s">
+        <v>783</v>
+      </c>
+      <c r="AB12" t="s">
         <v>101</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>190</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>233</v>
       </c>
     </row>
@@ -30190,15 +30940,18 @@
         <v>93</v>
       </c>
       <c r="S13" t="s">
-        <v>732</v>
+        <v>248</v>
       </c>
       <c r="AA13" t="s">
+        <v>784</v>
+      </c>
+      <c r="AB13" t="s">
         <v>325</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>191</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>635</v>
       </c>
     </row>
@@ -30225,15 +30978,18 @@
         <v>94</v>
       </c>
       <c r="S14" t="s">
-        <v>253</v>
+        <v>732</v>
       </c>
       <c r="AA14" t="s">
+        <v>785</v>
+      </c>
+      <c r="AB14" t="s">
         <v>102</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>192</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>652</v>
       </c>
     </row>
@@ -30260,15 +31016,18 @@
         <v>660</v>
       </c>
       <c r="S15" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AA15" t="s">
+        <v>786</v>
+      </c>
+      <c r="AB15" t="s">
         <v>756</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>193</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>653</v>
       </c>
     </row>
@@ -30295,15 +31054,18 @@
         <v>661</v>
       </c>
       <c r="S16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AA16" t="s">
+        <v>787</v>
+      </c>
+      <c r="AB16" t="s">
         <v>738</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>194</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>657</v>
       </c>
     </row>
@@ -30324,15 +31086,18 @@
         <v>40</v>
       </c>
       <c r="S17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AA17" t="s">
+        <v>788</v>
+      </c>
+      <c r="AB17" t="s">
         <v>103</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>466</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>658</v>
       </c>
     </row>
@@ -30352,10 +31117,16 @@
       <c r="N18" t="s">
         <v>43</v>
       </c>
+      <c r="S18" t="s">
+        <v>251</v>
+      </c>
       <c r="AA18" t="s">
+        <v>789</v>
+      </c>
+      <c r="AB18" t="s">
         <v>74</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>636</v>
       </c>
     </row>
@@ -30373,9 +31144,12 @@
         <v>462</v>
       </c>
       <c r="AA19" t="s">
+        <v>790</v>
+      </c>
+      <c r="AB19" t="s">
         <v>662</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>654</v>
       </c>
     </row>
@@ -30393,9 +31167,12 @@
         <v>82</v>
       </c>
       <c r="AA20" t="s">
+        <v>791</v>
+      </c>
+      <c r="AB20" t="s">
         <v>104</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>655</v>
       </c>
     </row>
@@ -30413,9 +31190,12 @@
         <v>83</v>
       </c>
       <c r="AA21" t="s">
+        <v>792</v>
+      </c>
+      <c r="AB21" t="s">
         <v>105</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>659</v>
       </c>
     </row>
@@ -30433,9 +31213,12 @@
         <v>720</v>
       </c>
       <c r="AA22" t="s">
+        <v>733</v>
+      </c>
+      <c r="AB22" t="s">
         <v>106</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>234</v>
       </c>
     </row>
@@ -30453,9 +31236,12 @@
         <v>602</v>
       </c>
       <c r="AA23" t="s">
+        <v>793</v>
+      </c>
+      <c r="AB23" t="s">
         <v>107</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>697</v>
       </c>
     </row>
@@ -30473,9 +31259,12 @@
         <v>44</v>
       </c>
       <c r="AA24" t="s">
+        <v>794</v>
+      </c>
+      <c r="AB24" t="s">
         <v>645</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>698</v>
       </c>
     </row>
@@ -30484,7 +31273,7 @@
         <v>396</v>
       </c>
       <c r="F25" t="s">
-        <v>701</v>
+        <v>769</v>
       </c>
       <c r="H25" t="s">
         <v>278</v>
@@ -30493,9 +31282,12 @@
         <v>391</v>
       </c>
       <c r="AA25" t="s">
+        <v>795</v>
+      </c>
+      <c r="AB25" t="s">
         <v>109</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>699</v>
       </c>
     </row>
@@ -30504,243 +31296,294 @@
         <v>746</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>701</v>
       </c>
       <c r="H26" t="s">
         <v>75</v>
       </c>
       <c r="L26" t="s">
-        <v>684</v>
+        <v>771</v>
       </c>
       <c r="AA26" t="s">
+        <v>734</v>
+      </c>
+      <c r="AB26" t="s">
         <v>706</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>727</v>
       </c>
       <c r="F27" t="s">
-        <v>320</v>
+        <v>61</v>
       </c>
       <c r="H27" t="s">
         <v>281</v>
       </c>
       <c r="L27" t="s">
-        <v>84</v>
+        <v>684</v>
       </c>
       <c r="AA27" t="s">
+        <v>796</v>
+      </c>
+      <c r="AB27" t="s">
         <v>110</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>320</v>
       </c>
       <c r="H28" t="s">
         <v>265</v>
       </c>
       <c r="L28" t="s">
-        <v>433</v>
+        <v>84</v>
       </c>
       <c r="AA28" t="s">
+        <v>797</v>
+      </c>
+      <c r="AB28" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>448</v>
+        <v>62</v>
       </c>
       <c r="H29" t="s">
         <v>282</v>
       </c>
       <c r="L29" t="s">
-        <v>45</v>
+        <v>433</v>
       </c>
       <c r="AA29" t="s">
+        <v>798</v>
+      </c>
+      <c r="AB29" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>224</v>
+        <v>448</v>
       </c>
       <c r="H30" t="s">
         <v>283</v>
       </c>
       <c r="L30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA30" t="s">
+        <v>799</v>
+      </c>
+      <c r="AB30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>413</v>
+        <v>56</v>
       </c>
       <c r="F31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H31" t="s">
         <v>215</v>
       </c>
+      <c r="L31" t="s">
+        <v>46</v>
+      </c>
       <c r="AA31" t="s">
+        <v>800</v>
+      </c>
+      <c r="AB31" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>226</v>
+        <v>413</v>
       </c>
       <c r="F32" t="s">
-        <v>574</v>
+        <v>225</v>
       </c>
       <c r="H32" t="s">
         <v>274</v>
       </c>
       <c r="AA32" t="s">
+        <v>801</v>
+      </c>
+      <c r="AB32" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="s">
+        <v>226</v>
+      </c>
       <c r="F33" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H33" t="s">
         <v>284</v>
       </c>
       <c r="AA33" t="s">
+        <v>802</v>
+      </c>
+      <c r="AB33" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>415</v>
+        <v>575</v>
       </c>
       <c r="H34" t="s">
         <v>668</v>
       </c>
       <c r="AA34" t="s">
+        <v>803</v>
+      </c>
+      <c r="AB34" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>63</v>
+        <v>415</v>
       </c>
       <c r="H35" t="s">
         <v>259</v>
       </c>
       <c r="AA35" t="s">
+        <v>804</v>
+      </c>
+      <c r="AB35" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H36" t="s">
         <v>329</v>
       </c>
       <c r="AA36" t="s">
+        <v>805</v>
+      </c>
+      <c r="AB36" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H37" t="s">
         <v>306</v>
       </c>
       <c r="AA37" t="s">
+        <v>806</v>
+      </c>
+      <c r="AB37" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H38" t="s">
         <v>260</v>
       </c>
       <c r="AA38" t="s">
+        <v>807</v>
+      </c>
+      <c r="AB38" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H39" t="s">
         <v>307</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AB39" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H40" t="s">
         <v>266</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AB40" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H41" t="s">
         <v>77</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H42" t="s">
         <v>211</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AB42" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="43">
+      <c r="F43" t="s">
+        <v>70</v>
+      </c>
       <c r="H43" t="s">
         <v>703</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AB43" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="44">
+      <c r="F44" t="s">
+        <v>770</v>
+      </c>
       <c r="H44" t="s">
         <v>288</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AB44" t="s">
         <v>392</v>
       </c>
     </row>
@@ -30748,7 +31591,7 @@
       <c r="H45" t="s">
         <v>299</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AB45" t="s">
         <v>121</v>
       </c>
     </row>
@@ -30756,7 +31599,7 @@
       <c r="H46" t="s">
         <v>300</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AB46" t="s">
         <v>122</v>
       </c>
     </row>
@@ -30764,7 +31607,7 @@
       <c r="H47" t="s">
         <v>342</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AB47" t="s">
         <v>123</v>
       </c>
     </row>
@@ -30772,7 +31615,7 @@
       <c r="H48" t="s">
         <v>341</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AB48" t="s">
         <v>124</v>
       </c>
     </row>
@@ -30780,7 +31623,7 @@
       <c r="H49" t="s">
         <v>210</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="AB49" t="s">
         <v>125</v>
       </c>
     </row>
@@ -30788,7 +31631,7 @@
       <c r="H50" t="s">
         <v>319</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AB50" t="s">
         <v>126</v>
       </c>
     </row>
@@ -30796,7 +31639,7 @@
       <c r="H51" t="s">
         <v>338</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="AB51" t="s">
         <v>757</v>
       </c>
     </row>
@@ -30804,7 +31647,7 @@
       <c r="H52" t="s">
         <v>367</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="AB52" t="s">
         <v>212</v>
       </c>
     </row>
@@ -30812,7 +31655,7 @@
       <c r="H53" t="s">
         <v>301</v>
       </c>
-      <c r="AA53" t="s">
+      <c r="AB53" t="s">
         <v>76</v>
       </c>
     </row>
@@ -30820,7 +31663,7 @@
       <c r="H54" t="s">
         <v>355</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="AB54" t="s">
         <v>693</v>
       </c>
     </row>
@@ -30828,7 +31671,7 @@
       <c r="H55" t="s">
         <v>330</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="AB55" t="s">
         <v>127</v>
       </c>
     </row>
@@ -30836,7 +31679,7 @@
       <c r="H56" t="s">
         <v>267</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="AB56" t="s">
         <v>128</v>
       </c>
     </row>
@@ -30844,7 +31687,7 @@
       <c r="H57" t="s">
         <v>291</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="AB57" t="s">
         <v>129</v>
       </c>
     </row>
@@ -30852,7 +31695,7 @@
       <c r="H58" t="s">
         <v>292</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="AB58" t="s">
         <v>643</v>
       </c>
     </row>
@@ -30860,7 +31703,7 @@
       <c r="H59" t="s">
         <v>704</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="AB59" t="s">
         <v>463</v>
       </c>
     </row>
@@ -30868,7 +31711,7 @@
       <c r="H60" t="s">
         <v>293</v>
       </c>
-      <c r="AA60" t="s">
+      <c r="AB60" t="s">
         <v>130</v>
       </c>
     </row>
@@ -30876,7 +31719,7 @@
       <c r="H61" t="s">
         <v>302</v>
       </c>
-      <c r="AA61" t="s">
+      <c r="AB61" t="s">
         <v>345</v>
       </c>
     </row>
@@ -30884,7 +31727,7 @@
       <c r="H62" t="s">
         <v>311</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="AB62" t="s">
         <v>464</v>
       </c>
     </row>
@@ -30892,7 +31735,7 @@
       <c r="H63" t="s">
         <v>336</v>
       </c>
-      <c r="AA63" t="s">
+      <c r="AB63" t="s">
         <v>131</v>
       </c>
     </row>
@@ -30900,7 +31743,7 @@
       <c r="H64" t="s">
         <v>308</v>
       </c>
-      <c r="AA64" t="s">
+      <c r="AB64" t="s">
         <v>132</v>
       </c>
     </row>
@@ -30908,7 +31751,7 @@
       <c r="H65" t="s">
         <v>309</v>
       </c>
-      <c r="AA65" t="s">
+      <c r="AB65" t="s">
         <v>133</v>
       </c>
     </row>
@@ -30916,7 +31759,7 @@
       <c r="H66" t="s">
         <v>368</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="AB66" t="s">
         <v>134</v>
       </c>
     </row>
@@ -30924,7 +31767,7 @@
       <c r="H67" t="s">
         <v>369</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="AB67" t="s">
         <v>135</v>
       </c>
     </row>
@@ -30932,7 +31775,7 @@
       <c r="H68" t="s">
         <v>344</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="AB68" t="s">
         <v>136</v>
       </c>
     </row>
@@ -30940,7 +31783,7 @@
       <c r="H69" t="s">
         <v>312</v>
       </c>
-      <c r="AA69" t="s">
+      <c r="AB69" t="s">
         <v>137</v>
       </c>
     </row>
@@ -30948,7 +31791,7 @@
       <c r="H70" t="s">
         <v>268</v>
       </c>
-      <c r="AA70" t="s">
+      <c r="AB70" t="s">
         <v>439</v>
       </c>
     </row>
@@ -30956,7 +31799,7 @@
       <c r="H71" t="s">
         <v>689</v>
       </c>
-      <c r="AA71" t="s">
+      <c r="AB71" t="s">
         <v>634</v>
       </c>
     </row>
@@ -30964,7 +31807,7 @@
       <c r="H72" t="s">
         <v>313</v>
       </c>
-      <c r="AA72" t="s">
+      <c r="AB72" t="s">
         <v>213</v>
       </c>
     </row>
@@ -30972,7 +31815,7 @@
       <c r="H73" t="s">
         <v>409</v>
       </c>
-      <c r="AA73" t="s">
+      <c r="AB73" t="s">
         <v>388</v>
       </c>
     </row>
@@ -30980,7 +31823,7 @@
       <c r="H74" t="s">
         <v>303</v>
       </c>
-      <c r="AA74" t="s">
+      <c r="AB74" t="s">
         <v>440</v>
       </c>
     </row>
@@ -30988,7 +31831,7 @@
       <c r="H75" t="s">
         <v>410</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="AB75" t="s">
         <v>138</v>
       </c>
     </row>
@@ -30996,7 +31839,7 @@
       <c r="H76" t="s">
         <v>261</v>
       </c>
-      <c r="AA76" t="s">
+      <c r="AB76" t="s">
         <v>139</v>
       </c>
     </row>
@@ -31004,7 +31847,7 @@
       <c r="H77" t="s">
         <v>669</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="AB77" t="s">
         <v>140</v>
       </c>
     </row>
@@ -31012,7 +31855,7 @@
       <c r="H78" t="s">
         <v>343</v>
       </c>
-      <c r="AA78" t="s">
+      <c r="AB78" t="s">
         <v>141</v>
       </c>
     </row>
@@ -31020,414 +31863,424 @@
       <c r="H79" t="s">
         <v>279</v>
       </c>
-      <c r="AA79" t="s">
-        <v>196</v>
+      <c r="AB79" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" t="s">
         <v>285</v>
       </c>
-      <c r="AA80" t="s">
-        <v>197</v>
+      <c r="AB80" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" t="s">
         <v>290</v>
       </c>
-      <c r="AA81" t="s">
-        <v>452</v>
+      <c r="AB81" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="82">
       <c r="H82" t="s">
         <v>428</v>
       </c>
-      <c r="AA82" t="s">
-        <v>465</v>
+      <c r="AB82" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="83">
       <c r="H83" t="s">
         <v>331</v>
       </c>
-      <c r="AA83" t="s">
-        <v>142</v>
+      <c r="AB83" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="84">
       <c r="H84" t="s">
         <v>269</v>
       </c>
-      <c r="AA84" t="s">
-        <v>143</v>
+      <c r="AB84" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" t="s">
         <v>280</v>
       </c>
-      <c r="AA85" t="s">
-        <v>144</v>
+      <c r="AB85" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="86">
       <c r="H86" t="s">
         <v>286</v>
       </c>
-      <c r="AA86" t="s">
-        <v>656</v>
+      <c r="AB86" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="87">
       <c r="H87" t="s">
         <v>275</v>
       </c>
-      <c r="AA87" t="s">
-        <v>145</v>
+      <c r="AB87" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="88">
       <c r="H88" t="s">
         <v>690</v>
       </c>
-      <c r="AA88" t="s">
-        <v>146</v>
+      <c r="AB88" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" t="s">
         <v>270</v>
       </c>
-      <c r="AA89" t="s">
-        <v>198</v>
+      <c r="AB89" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="90">
       <c r="H90" t="s">
         <v>287</v>
       </c>
-      <c r="AA90" t="s">
-        <v>644</v>
+      <c r="AB90" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="91">
       <c r="H91" t="s">
         <v>271</v>
       </c>
-      <c r="AA91" t="s">
-        <v>726</v>
+      <c r="AB91" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="92">
       <c r="H92" t="s">
         <v>272</v>
       </c>
-      <c r="AA92" t="s">
-        <v>199</v>
+      <c r="AB92" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="93">
       <c r="H93" t="s">
         <v>304</v>
       </c>
-      <c r="AA93" t="s">
-        <v>453</v>
+      <c r="AB93" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="94">
       <c r="H94" t="s">
         <v>310</v>
       </c>
-      <c r="AA94" t="s">
-        <v>200</v>
+      <c r="AB94" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="95">
       <c r="H95" t="s">
         <v>294</v>
       </c>
-      <c r="AA95" t="s">
-        <v>201</v>
+      <c r="AB95" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="96">
       <c r="H96" t="s">
         <v>339</v>
       </c>
-      <c r="AA96" t="s">
-        <v>711</v>
+      <c r="AB96" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="97">
       <c r="H97" t="s">
         <v>276</v>
       </c>
-      <c r="AA97" t="s">
-        <v>712</v>
+      <c r="AB97" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="98">
       <c r="H98" t="s">
         <v>277</v>
       </c>
-      <c r="AA98" t="s">
+      <c r="AB98" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="AB99" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="99">
-      <c r="AA99" t="s">
+    <row r="100">
+      <c r="AB100" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="100">
-      <c r="AA100" t="s">
+    <row r="101">
+      <c r="AB101" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="101">
-      <c r="AA101" t="s">
+    <row r="102">
+      <c r="AB102" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="102">
-      <c r="AA102" t="s">
+    <row r="103">
+      <c r="AB103" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="103">
-      <c r="AA103" t="s">
+    <row r="104">
+      <c r="AB104" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="104">
-      <c r="AA104" t="s">
+    <row r="105">
+      <c r="AB105" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="105">
-      <c r="AA105" t="s">
+    <row r="106">
+      <c r="AB106" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="106">
-      <c r="AA106" t="s">
+    <row r="107">
+      <c r="AB107" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="107">
-      <c r="AA107" t="s">
+    <row r="108">
+      <c r="AB108" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="108">
-      <c r="AA108" t="s">
+    <row r="109">
+      <c r="AB109" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="109">
-      <c r="AA109" t="s">
+    <row r="110">
+      <c r="AB110" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="110">
-      <c r="AA110" t="s">
+    <row r="111">
+      <c r="AB111" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="111">
-      <c r="AA111" t="s">
+    <row r="112">
+      <c r="AB112" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="112">
-      <c r="AA112" t="s">
+    <row r="113">
+      <c r="AB113" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="113">
-      <c r="AA113" t="s">
-        <v>718</v>
-      </c>
-    </row>
     <row r="114">
-      <c r="AA114" t="s">
+      <c r="AB114" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="AB115" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="AB116" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="115">
-      <c r="AA115" t="s">
+    <row r="117">
+      <c r="AB117" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="116">
-      <c r="AA116" t="s">
+    <row r="118">
+      <c r="AB118" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="117">
-      <c r="AA117" t="s">
+    <row r="119">
+      <c r="AB119" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="118">
-      <c r="AA118" t="s">
+    <row r="120">
+      <c r="AB120" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="119">
-      <c r="AA119" t="s">
+    <row r="121">
+      <c r="AB121" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="120">
-      <c r="AA120" t="s">
+    <row r="122">
+      <c r="AB122" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="121">
-      <c r="AA121" t="s">
+    <row r="123">
+      <c r="AB123" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="122">
-      <c r="AA122" t="s">
+    <row r="124">
+      <c r="AB124" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="123">
-      <c r="AA123" t="s">
+    <row r="125">
+      <c r="AB125" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="124">
-      <c r="AA124" t="s">
+    <row r="126">
+      <c r="AB126" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="125">
-      <c r="AA125" t="s">
+    <row r="127">
+      <c r="AB127" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="126">
-      <c r="AA126" t="s">
+    <row r="128">
+      <c r="AB128" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="127">
-      <c r="AA127" t="s">
+    <row r="129">
+      <c r="AB129" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="128">
-      <c r="AA128" t="s">
+    <row r="130">
+      <c r="AB130" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="129">
-      <c r="AA129" t="s">
+    <row r="131">
+      <c r="AB131" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="130">
-      <c r="AA130" t="s">
+    <row r="132">
+      <c r="AB132" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="131">
-      <c r="AA131" t="s">
+    <row r="133">
+      <c r="AB133" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="132">
-      <c r="AA132" t="s">
+    <row r="134">
+      <c r="AB134" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="133">
-      <c r="AA133" t="s">
+    <row r="135">
+      <c r="AB135" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="134">
-      <c r="AA134" t="s">
+    <row r="136">
+      <c r="AB136" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="135">
-      <c r="AA135" t="s">
+    <row r="137">
+      <c r="AB137" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="136">
-      <c r="AA136" t="s">
+    <row r="138">
+      <c r="AB138" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="137">
-      <c r="AA137" t="s">
+    <row r="139">
+      <c r="AB139" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="138">
-      <c r="AA138" t="s">
+    <row r="140">
+      <c r="AB140" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="139">
-      <c r="AA139" t="s">
+    <row r="141">
+      <c r="AB141" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="140">
-      <c r="AA140" t="s">
+    <row r="142">
+      <c r="AB142" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="141">
-      <c r="AA141" t="s">
+    <row r="143">
+      <c r="AB143" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="142">
-      <c r="AA142" t="s">
+    <row r="144">
+      <c r="AB144" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="143">
-      <c r="AA143" t="s">
+    <row r="145">
+      <c r="AB145" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="144">
-      <c r="AA144" t="s">
+    <row r="146">
+      <c r="AB146" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="145">
-      <c r="AA145" t="s">
+    <row r="147">
+      <c r="AB147" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="146">
-      <c r="AA146" t="s">
+    <row r="148">
+      <c r="AB148" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="147">
-      <c r="AA147" t="s">
+    <row r="149">
+      <c r="AB149" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="148">
-      <c r="AA148" t="s">
+    <row r="150">
+      <c r="AB150" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="149">
-      <c r="AA149" t="s">
+    <row r="151">
+      <c r="AB151" t="s">
         <v>767</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
@@ -20,13 +20,13 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$F$2:$F$44</definedName>
+    <definedName name="base">'#system'!$F$2:$F$45</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
-    <definedName name="external">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -43,13 +43,13 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$33</definedName>
-    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
-    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
-    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
-    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
-    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25280" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25882" uniqueCount="813">
   <si>
     <t>description</t>
   </si>
@@ -2600,13 +2600,19 @@
   <si>
     <t>screenshotInFull(file,timeout,removeFixed)</t>
   </si>
+  <si>
+    <t>assertMatch(text,regex)</t>
+  </si>
+  <si>
+    <t>openFile(filePath)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="735" x14ac:knownFonts="1">
+  <fonts count="752" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7253,8 +7259,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1244">
+  <fills count="1268">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14027,6 +14140,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -27353,7 +27602,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="773">
+  <cellXfs count="790">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -29651,55 +29900,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1216" fontId="717" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="718" fillId="1222" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1222" fontId="718" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="719" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="719" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="720" fillId="1225" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1225" fontId="720" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="721" fillId="1228" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1228" fontId="721" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="722" fillId="1231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1231" fontId="722" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="723" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="723" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="724" fillId="1234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1234" fontId="724" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="725" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="725" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="726" fillId="1237" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1237" fontId="726" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="727" fillId="1240" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1240" fontId="727" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="728" fillId="1228" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1228" fontId="728" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="729" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="729" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="730" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="730" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="731" fillId="1231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1231" fontId="731" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="732" fillId="1243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1243" fontId="732" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="733" fillId="1231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1231" fontId="733" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="734" fillId="1240" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1240" fontId="734" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="735" fillId="1246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="736" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="737" fillId="1249" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="738" fillId="1252" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="739" fillId="1255" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="740" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="741" fillId="1258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="742" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="743" fillId="1261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="744" fillId="1264" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="745" fillId="1252" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="746" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="747" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="748" fillId="1255" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="749" fillId="1267" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="750" fillId="1255" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="751" fillId="1264" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -30054,7 +30354,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH151"/>
+  <dimension ref="A1:AG151"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -30145,24 +30445,21 @@
         <v>746</v>
       </c>
       <c r="AA1" t="s">
-        <v>727</v>
+        <v>53</v>
       </c>
       <c r="AB1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE1" t="s">
-        <v>56</v>
+        <v>413</v>
       </c>
       <c r="AF1" t="s">
-        <v>413</v>
-      </c>
-      <c r="AG1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -30195,7 +30492,7 @@
         <v>449</v>
       </c>
       <c r="J2" t="s">
-        <v>78</v>
+        <v>812</v>
       </c>
       <c r="K2" t="s">
         <v>730</v>
@@ -30246,24 +30543,21 @@
         <v>753</v>
       </c>
       <c r="AA2" t="s">
-        <v>773</v>
+        <v>96</v>
       </c>
       <c r="AB2" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="AC2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AD2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="AE2" t="s">
-        <v>182</v>
+        <v>431</v>
       </c>
       <c r="AF2" t="s">
-        <v>431</v>
-      </c>
-      <c r="AG2" t="s">
         <v>651</v>
       </c>
     </row>
@@ -30293,7 +30587,7 @@
         <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>638</v>
+        <v>78</v>
       </c>
       <c r="K3" t="s">
         <v>348</v>
@@ -30338,24 +30632,21 @@
         <v>754</v>
       </c>
       <c r="AA3" t="s">
-        <v>774</v>
+        <v>97</v>
       </c>
       <c r="AB3" t="s">
-        <v>97</v>
+        <v>171</v>
       </c>
       <c r="AC3" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AD3" t="s">
-        <v>176</v>
+        <v>363</v>
       </c>
       <c r="AE3" t="s">
-        <v>363</v>
+        <v>183</v>
       </c>
       <c r="AF3" t="s">
-        <v>183</v>
-      </c>
-      <c r="AG3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -30382,7 +30673,7 @@
         <v>450</v>
       </c>
       <c r="J4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K4" t="s">
         <v>349</v>
@@ -30427,24 +30718,21 @@
         <v>755</v>
       </c>
       <c r="AA4" t="s">
-        <v>775</v>
+        <v>723</v>
       </c>
       <c r="AB4" t="s">
-        <v>723</v>
+        <v>172</v>
       </c>
       <c r="AC4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AD4" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AE4" t="s">
-        <v>183</v>
+        <v>423</v>
       </c>
       <c r="AF4" t="s">
-        <v>423</v>
-      </c>
-      <c r="AG4" t="s">
         <v>228</v>
       </c>
     </row>
@@ -30471,7 +30759,7 @@
         <v>459</v>
       </c>
       <c r="J5" t="s">
-        <v>687</v>
+        <v>639</v>
       </c>
       <c r="K5" t="s">
         <v>350</v>
@@ -30504,24 +30792,21 @@
         <v>358</v>
       </c>
       <c r="AA5" t="s">
-        <v>776</v>
+        <v>716</v>
       </c>
       <c r="AB5" t="s">
-        <v>716</v>
+        <v>173</v>
       </c>
       <c r="AC5" t="s">
-        <v>173</v>
+        <v>744</v>
       </c>
       <c r="AD5" t="s">
-        <v>744</v>
+        <v>184</v>
       </c>
       <c r="AE5" t="s">
-        <v>184</v>
+        <v>424</v>
       </c>
       <c r="AF5" t="s">
-        <v>424</v>
-      </c>
-      <c r="AG5" t="s">
         <v>229</v>
       </c>
     </row>
@@ -30548,7 +30833,7 @@
         <v>447</v>
       </c>
       <c r="J6" t="s">
-        <v>721</v>
+        <v>687</v>
       </c>
       <c r="K6" t="s">
         <v>731</v>
@@ -30578,24 +30863,21 @@
         <v>360</v>
       </c>
       <c r="AA6" t="s">
-        <v>777</v>
+        <v>98</v>
       </c>
       <c r="AB6" t="s">
-        <v>98</v>
+        <v>444</v>
       </c>
       <c r="AC6" t="s">
-        <v>444</v>
+        <v>178</v>
       </c>
       <c r="AD6" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AE6" t="s">
-        <v>185</v>
+        <v>425</v>
       </c>
       <c r="AF6" t="s">
-        <v>425</v>
-      </c>
-      <c r="AG6" t="s">
         <v>230</v>
       </c>
     </row>
@@ -30615,6 +30897,9 @@
       <c r="I7" t="s">
         <v>446</v>
       </c>
+      <c r="J7" t="s">
+        <v>721</v>
+      </c>
       <c r="K7" t="s">
         <v>347</v>
       </c>
@@ -30643,24 +30928,21 @@
         <v>359</v>
       </c>
       <c r="AA7" t="s">
-        <v>778</v>
+        <v>99</v>
       </c>
       <c r="AB7" t="s">
-        <v>99</v>
+        <v>445</v>
       </c>
       <c r="AC7" t="s">
-        <v>445</v>
+        <v>179</v>
       </c>
       <c r="AD7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="AE7" t="s">
-        <v>186</v>
+        <v>426</v>
       </c>
       <c r="AF7" t="s">
-        <v>426</v>
-      </c>
-      <c r="AG7" t="s">
         <v>694</v>
       </c>
     </row>
@@ -30708,24 +30990,21 @@
         <v>361</v>
       </c>
       <c r="AA8" t="s">
-        <v>779</v>
+        <v>100</v>
       </c>
       <c r="AB8" t="s">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="AC8" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AD8" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AE8" t="s">
-        <v>187</v>
+        <v>427</v>
       </c>
       <c r="AF8" t="s">
-        <v>427</v>
-      </c>
-      <c r="AG8" t="s">
         <v>695</v>
       </c>
     </row>
@@ -30770,18 +31049,15 @@
         <v>362</v>
       </c>
       <c r="AA9" t="s">
-        <v>780</v>
-      </c>
-      <c r="AB9" t="s">
         <v>208</v>
       </c>
+      <c r="AC9" t="s">
+        <v>181</v>
+      </c>
       <c r="AD9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE9" t="s">
         <v>188</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AF9" t="s">
         <v>696</v>
       </c>
     </row>
@@ -30817,18 +31093,15 @@
         <v>405</v>
       </c>
       <c r="AA10" t="s">
-        <v>781</v>
-      </c>
-      <c r="AB10" t="s">
         <v>256</v>
       </c>
+      <c r="AC10" t="s">
+        <v>745</v>
+      </c>
       <c r="AD10" t="s">
-        <v>745</v>
-      </c>
-      <c r="AE10" t="s">
         <v>189</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AF10" t="s">
         <v>231</v>
       </c>
     </row>
@@ -30837,7 +31110,7 @@
         <v>346</v>
       </c>
       <c r="F11" t="s">
-        <v>715</v>
+        <v>811</v>
       </c>
       <c r="H11" t="s">
         <v>351</v>
@@ -30861,15 +31134,12 @@
         <v>772</v>
       </c>
       <c r="AA11" t="s">
-        <v>782</v>
-      </c>
-      <c r="AB11" t="s">
         <v>257</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>258</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AF11" t="s">
         <v>232</v>
       </c>
     </row>
@@ -30878,7 +31148,7 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>318</v>
+        <v>715</v>
       </c>
       <c r="H12" t="s">
         <v>273</v>
@@ -30902,15 +31172,12 @@
         <v>247</v>
       </c>
       <c r="AA12" t="s">
-        <v>783</v>
-      </c>
-      <c r="AB12" t="s">
         <v>101</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>190</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AF12" t="s">
         <v>233</v>
       </c>
     </row>
@@ -30919,7 +31186,7 @@
         <v>332</v>
       </c>
       <c r="F13" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="H13" t="s">
         <v>262</v>
@@ -30943,15 +31210,12 @@
         <v>248</v>
       </c>
       <c r="AA13" t="s">
-        <v>784</v>
-      </c>
-      <c r="AB13" t="s">
         <v>325</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>191</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AF13" t="s">
         <v>635</v>
       </c>
     </row>
@@ -30960,7 +31224,7 @@
         <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>340</v>
       </c>
       <c r="H14" t="s">
         <v>315</v>
@@ -30981,15 +31245,12 @@
         <v>732</v>
       </c>
       <c r="AA14" t="s">
-        <v>785</v>
-      </c>
-      <c r="AB14" t="s">
         <v>102</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>192</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AF14" t="s">
         <v>652</v>
       </c>
     </row>
@@ -30998,7 +31259,7 @@
         <v>672</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="H15" t="s">
         <v>263</v>
@@ -31019,15 +31280,12 @@
         <v>253</v>
       </c>
       <c r="AA15" t="s">
-        <v>786</v>
-      </c>
-      <c r="AB15" t="s">
         <v>756</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>193</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AF15" t="s">
         <v>653</v>
       </c>
     </row>
@@ -31036,7 +31294,7 @@
         <v>637</v>
       </c>
       <c r="F16" t="s">
-        <v>384</v>
+        <v>58</v>
       </c>
       <c r="H16" t="s">
         <v>264</v>
@@ -31057,15 +31315,12 @@
         <v>249</v>
       </c>
       <c r="AA16" t="s">
-        <v>787</v>
-      </c>
-      <c r="AB16" t="s">
         <v>738</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>194</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AF16" t="s">
         <v>657</v>
       </c>
     </row>
@@ -31074,7 +31329,7 @@
         <v>195</v>
       </c>
       <c r="F17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H17" t="s">
         <v>316</v>
@@ -31089,15 +31344,12 @@
         <v>250</v>
       </c>
       <c r="AA17" t="s">
-        <v>788</v>
-      </c>
-      <c r="AB17" t="s">
         <v>103</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>466</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AF17" t="s">
         <v>658</v>
       </c>
     </row>
@@ -31106,7 +31358,7 @@
         <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="H18" t="s">
         <v>88</v>
@@ -31121,12 +31373,9 @@
         <v>251</v>
       </c>
       <c r="AA18" t="s">
-        <v>789</v>
-      </c>
-      <c r="AB18" t="s">
         <v>74</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AF18" t="s">
         <v>636</v>
       </c>
     </row>
@@ -31135,7 +31384,7 @@
         <v>238</v>
       </c>
       <c r="F19" t="s">
-        <v>747</v>
+        <v>414</v>
       </c>
       <c r="H19" t="s">
         <v>89</v>
@@ -31144,12 +31393,9 @@
         <v>462</v>
       </c>
       <c r="AA19" t="s">
-        <v>790</v>
-      </c>
-      <c r="AB19" t="s">
         <v>662</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AF19" t="s">
         <v>654</v>
       </c>
     </row>
@@ -31158,7 +31404,7 @@
         <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H20" t="s">
         <v>295</v>
@@ -31167,12 +31413,9 @@
         <v>82</v>
       </c>
       <c r="AA20" t="s">
-        <v>791</v>
-      </c>
-      <c r="AB20" t="s">
         <v>104</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AF20" t="s">
         <v>655</v>
       </c>
     </row>
@@ -31181,7 +31424,7 @@
         <v>395</v>
       </c>
       <c r="F21" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H21" t="s">
         <v>296</v>
@@ -31190,12 +31433,9 @@
         <v>83</v>
       </c>
       <c r="AA21" t="s">
-        <v>792</v>
-      </c>
-      <c r="AB21" t="s">
         <v>105</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AF21" t="s">
         <v>659</v>
       </c>
     </row>
@@ -31204,7 +31444,7 @@
         <v>411</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>749</v>
       </c>
       <c r="H22" t="s">
         <v>297</v>
@@ -31213,12 +31453,9 @@
         <v>720</v>
       </c>
       <c r="AA22" t="s">
-        <v>733</v>
-      </c>
-      <c r="AB22" t="s">
         <v>106</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AF22" t="s">
         <v>234</v>
       </c>
     </row>
@@ -31227,7 +31464,7 @@
         <v>412</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H23" t="s">
         <v>298</v>
@@ -31236,12 +31473,9 @@
         <v>602</v>
       </c>
       <c r="AA23" t="s">
-        <v>793</v>
-      </c>
-      <c r="AB23" t="s">
         <v>107</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AF23" t="s">
         <v>697</v>
       </c>
     </row>
@@ -31250,7 +31484,7 @@
         <v>356</v>
       </c>
       <c r="F24" t="s">
-        <v>255</v>
+        <v>60</v>
       </c>
       <c r="H24" t="s">
         <v>289</v>
@@ -31259,12 +31493,9 @@
         <v>44</v>
       </c>
       <c r="AA24" t="s">
-        <v>794</v>
-      </c>
-      <c r="AB24" t="s">
         <v>645</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AF24" t="s">
         <v>698</v>
       </c>
     </row>
@@ -31273,7 +31504,7 @@
         <v>396</v>
       </c>
       <c r="F25" t="s">
-        <v>769</v>
+        <v>255</v>
       </c>
       <c r="H25" t="s">
         <v>278</v>
@@ -31282,12 +31513,9 @@
         <v>391</v>
       </c>
       <c r="AA25" t="s">
-        <v>795</v>
-      </c>
-      <c r="AB25" t="s">
         <v>109</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AF25" t="s">
         <v>699</v>
       </c>
     </row>
@@ -31296,7 +31524,7 @@
         <v>746</v>
       </c>
       <c r="F26" t="s">
-        <v>701</v>
+        <v>769</v>
       </c>
       <c r="H26" t="s">
         <v>75</v>
@@ -31305,21 +31533,18 @@
         <v>771</v>
       </c>
       <c r="AA26" t="s">
-        <v>734</v>
-      </c>
-      <c r="AB26" t="s">
         <v>706</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AF26" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>727</v>
+        <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>701</v>
       </c>
       <c r="H27" t="s">
         <v>281</v>
@@ -31328,21 +31553,18 @@
         <v>684</v>
       </c>
       <c r="AA27" t="s">
-        <v>796</v>
-      </c>
-      <c r="AB27" t="s">
         <v>110</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AF27" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>320</v>
+        <v>61</v>
       </c>
       <c r="H28" t="s">
         <v>265</v>
@@ -31351,18 +31573,15 @@
         <v>84</v>
       </c>
       <c r="AA28" t="s">
-        <v>797</v>
-      </c>
-      <c r="AB28" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>320</v>
       </c>
       <c r="H29" t="s">
         <v>282</v>
@@ -31371,18 +31590,15 @@
         <v>433</v>
       </c>
       <c r="AA29" t="s">
-        <v>798</v>
-      </c>
-      <c r="AB29" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
-        <v>448</v>
+        <v>62</v>
       </c>
       <c r="H30" t="s">
         <v>283</v>
@@ -31391,18 +31607,15 @@
         <v>45</v>
       </c>
       <c r="AA30" t="s">
-        <v>799</v>
-      </c>
-      <c r="AB30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>413</v>
       </c>
       <c r="F31" t="s">
-        <v>224</v>
+        <v>448</v>
       </c>
       <c r="H31" t="s">
         <v>215</v>
@@ -31411,187 +31624,163 @@
         <v>46</v>
       </c>
       <c r="AA31" t="s">
-        <v>800</v>
-      </c>
-      <c r="AB31" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>413</v>
+        <v>226</v>
       </c>
       <c r="F32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H32" t="s">
         <v>274</v>
       </c>
       <c r="AA32" t="s">
-        <v>801</v>
-      </c>
-      <c r="AB32" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>226</v>
-      </c>
       <c r="F33" t="s">
-        <v>574</v>
+        <v>225</v>
       </c>
       <c r="H33" t="s">
         <v>284</v>
       </c>
       <c r="AA33" t="s">
-        <v>802</v>
-      </c>
-      <c r="AB33" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H34" t="s">
         <v>668</v>
       </c>
       <c r="AA34" t="s">
-        <v>803</v>
-      </c>
-      <c r="AB34" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>415</v>
+        <v>575</v>
       </c>
       <c r="H35" t="s">
         <v>259</v>
       </c>
       <c r="AA35" t="s">
-        <v>804</v>
-      </c>
-      <c r="AB35" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>63</v>
+        <v>415</v>
       </c>
       <c r="H36" t="s">
         <v>329</v>
       </c>
       <c r="AA36" t="s">
-        <v>805</v>
-      </c>
-      <c r="AB36" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H37" t="s">
         <v>306</v>
       </c>
       <c r="AA37" t="s">
-        <v>806</v>
-      </c>
-      <c r="AB37" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H38" t="s">
         <v>260</v>
       </c>
       <c r="AA38" t="s">
-        <v>807</v>
-      </c>
-      <c r="AB38" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H39" t="s">
         <v>307</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AA39" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H40" t="s">
         <v>266</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AA40" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H41" t="s">
         <v>77</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AA41" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H42" t="s">
         <v>211</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AA42" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H43" t="s">
         <v>703</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AA43" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>770</v>
+        <v>70</v>
       </c>
       <c r="H44" t="s">
         <v>288</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AA44" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="45">
+      <c r="F45" t="s">
+        <v>770</v>
+      </c>
       <c r="H45" t="s">
         <v>299</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AA45" t="s">
         <v>121</v>
       </c>
     </row>
@@ -31599,7 +31788,7 @@
       <c r="H46" t="s">
         <v>300</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AA46" t="s">
         <v>122</v>
       </c>
     </row>
@@ -31607,7 +31796,7 @@
       <c r="H47" t="s">
         <v>342</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AA47" t="s">
         <v>123</v>
       </c>
     </row>
@@ -31615,7 +31804,7 @@
       <c r="H48" t="s">
         <v>341</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AA48" t="s">
         <v>124</v>
       </c>
     </row>
@@ -31623,7 +31812,7 @@
       <c r="H49" t="s">
         <v>210</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AA49" t="s">
         <v>125</v>
       </c>
     </row>
@@ -31631,7 +31820,7 @@
       <c r="H50" t="s">
         <v>319</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AA50" t="s">
         <v>126</v>
       </c>
     </row>
@@ -31639,7 +31828,7 @@
       <c r="H51" t="s">
         <v>338</v>
       </c>
-      <c r="AB51" t="s">
+      <c r="AA51" t="s">
         <v>757</v>
       </c>
     </row>
@@ -31647,7 +31836,7 @@
       <c r="H52" t="s">
         <v>367</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AA52" t="s">
         <v>212</v>
       </c>
     </row>
@@ -31655,7 +31844,7 @@
       <c r="H53" t="s">
         <v>301</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AA53" t="s">
         <v>76</v>
       </c>
     </row>
@@ -31663,7 +31852,7 @@
       <c r="H54" t="s">
         <v>355</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AA54" t="s">
         <v>693</v>
       </c>
     </row>
@@ -31671,7 +31860,7 @@
       <c r="H55" t="s">
         <v>330</v>
       </c>
-      <c r="AB55" t="s">
+      <c r="AA55" t="s">
         <v>127</v>
       </c>
     </row>
@@ -31679,7 +31868,7 @@
       <c r="H56" t="s">
         <v>267</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="AA56" t="s">
         <v>128</v>
       </c>
     </row>
@@ -31687,7 +31876,7 @@
       <c r="H57" t="s">
         <v>291</v>
       </c>
-      <c r="AB57" t="s">
+      <c r="AA57" t="s">
         <v>129</v>
       </c>
     </row>
@@ -31695,7 +31884,7 @@
       <c r="H58" t="s">
         <v>292</v>
       </c>
-      <c r="AB58" t="s">
+      <c r="AA58" t="s">
         <v>643</v>
       </c>
     </row>
@@ -31703,7 +31892,7 @@
       <c r="H59" t="s">
         <v>704</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AA59" t="s">
         <v>463</v>
       </c>
     </row>
@@ -31711,7 +31900,7 @@
       <c r="H60" t="s">
         <v>293</v>
       </c>
-      <c r="AB60" t="s">
+      <c r="AA60" t="s">
         <v>130</v>
       </c>
     </row>
@@ -31719,7 +31908,7 @@
       <c r="H61" t="s">
         <v>302</v>
       </c>
-      <c r="AB61" t="s">
+      <c r="AA61" t="s">
         <v>345</v>
       </c>
     </row>
@@ -31727,7 +31916,7 @@
       <c r="H62" t="s">
         <v>311</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AA62" t="s">
         <v>464</v>
       </c>
     </row>
@@ -31735,7 +31924,7 @@
       <c r="H63" t="s">
         <v>336</v>
       </c>
-      <c r="AB63" t="s">
+      <c r="AA63" t="s">
         <v>131</v>
       </c>
     </row>
@@ -31743,7 +31932,7 @@
       <c r="H64" t="s">
         <v>308</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AA64" t="s">
         <v>132</v>
       </c>
     </row>
@@ -31751,7 +31940,7 @@
       <c r="H65" t="s">
         <v>309</v>
       </c>
-      <c r="AB65" t="s">
+      <c r="AA65" t="s">
         <v>133</v>
       </c>
     </row>
@@ -31759,7 +31948,7 @@
       <c r="H66" t="s">
         <v>368</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AA66" t="s">
         <v>134</v>
       </c>
     </row>
@@ -31767,7 +31956,7 @@
       <c r="H67" t="s">
         <v>369</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AA67" t="s">
         <v>135</v>
       </c>
     </row>
@@ -31775,7 +31964,7 @@
       <c r="H68" t="s">
         <v>344</v>
       </c>
-      <c r="AB68" t="s">
+      <c r="AA68" t="s">
         <v>136</v>
       </c>
     </row>
@@ -31783,7 +31972,7 @@
       <c r="H69" t="s">
         <v>312</v>
       </c>
-      <c r="AB69" t="s">
+      <c r="AA69" t="s">
         <v>137</v>
       </c>
     </row>
@@ -31791,7 +31980,7 @@
       <c r="H70" t="s">
         <v>268</v>
       </c>
-      <c r="AB70" t="s">
+      <c r="AA70" t="s">
         <v>439</v>
       </c>
     </row>
@@ -31799,7 +31988,7 @@
       <c r="H71" t="s">
         <v>689</v>
       </c>
-      <c r="AB71" t="s">
+      <c r="AA71" t="s">
         <v>634</v>
       </c>
     </row>
@@ -31807,7 +31996,7 @@
       <c r="H72" t="s">
         <v>313</v>
       </c>
-      <c r="AB72" t="s">
+      <c r="AA72" t="s">
         <v>213</v>
       </c>
     </row>
@@ -31815,7 +32004,7 @@
       <c r="H73" t="s">
         <v>409</v>
       </c>
-      <c r="AB73" t="s">
+      <c r="AA73" t="s">
         <v>388</v>
       </c>
     </row>
@@ -31823,7 +32012,7 @@
       <c r="H74" t="s">
         <v>303</v>
       </c>
-      <c r="AB74" t="s">
+      <c r="AA74" t="s">
         <v>440</v>
       </c>
     </row>
@@ -31831,7 +32020,7 @@
       <c r="H75" t="s">
         <v>410</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AA75" t="s">
         <v>138</v>
       </c>
     </row>
@@ -31839,7 +32028,7 @@
       <c r="H76" t="s">
         <v>261</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="AA76" t="s">
         <v>139</v>
       </c>
     </row>
@@ -31847,7 +32036,7 @@
       <c r="H77" t="s">
         <v>669</v>
       </c>
-      <c r="AB77" t="s">
+      <c r="AA77" t="s">
         <v>140</v>
       </c>
     </row>
@@ -31855,7 +32044,7 @@
       <c r="H78" t="s">
         <v>343</v>
       </c>
-      <c r="AB78" t="s">
+      <c r="AA78" t="s">
         <v>141</v>
       </c>
     </row>
@@ -31863,7 +32052,7 @@
       <c r="H79" t="s">
         <v>279</v>
       </c>
-      <c r="AB79" t="s">
+      <c r="AA79" t="s">
         <v>808</v>
       </c>
     </row>
@@ -31871,7 +32060,7 @@
       <c r="H80" t="s">
         <v>285</v>
       </c>
-      <c r="AB80" t="s">
+      <c r="AA80" t="s">
         <v>196</v>
       </c>
     </row>
@@ -31879,7 +32068,7 @@
       <c r="H81" t="s">
         <v>290</v>
       </c>
-      <c r="AB81" t="s">
+      <c r="AA81" t="s">
         <v>197</v>
       </c>
     </row>
@@ -31887,7 +32076,7 @@
       <c r="H82" t="s">
         <v>428</v>
       </c>
-      <c r="AB82" t="s">
+      <c r="AA82" t="s">
         <v>452</v>
       </c>
     </row>
@@ -31895,7 +32084,7 @@
       <c r="H83" t="s">
         <v>331</v>
       </c>
-      <c r="AB83" t="s">
+      <c r="AA83" t="s">
         <v>465</v>
       </c>
     </row>
@@ -31903,7 +32092,7 @@
       <c r="H84" t="s">
         <v>269</v>
       </c>
-      <c r="AB84" t="s">
+      <c r="AA84" t="s">
         <v>142</v>
       </c>
     </row>
@@ -31911,7 +32100,7 @@
       <c r="H85" t="s">
         <v>280</v>
       </c>
-      <c r="AB85" t="s">
+      <c r="AA85" t="s">
         <v>143</v>
       </c>
     </row>
@@ -31919,7 +32108,7 @@
       <c r="H86" t="s">
         <v>286</v>
       </c>
-      <c r="AB86" t="s">
+      <c r="AA86" t="s">
         <v>144</v>
       </c>
     </row>
@@ -31927,7 +32116,7 @@
       <c r="H87" t="s">
         <v>275</v>
       </c>
-      <c r="AB87" t="s">
+      <c r="AA87" t="s">
         <v>656</v>
       </c>
     </row>
@@ -31935,7 +32124,7 @@
       <c r="H88" t="s">
         <v>690</v>
       </c>
-      <c r="AB88" t="s">
+      <c r="AA88" t="s">
         <v>145</v>
       </c>
     </row>
@@ -31943,7 +32132,7 @@
       <c r="H89" t="s">
         <v>270</v>
       </c>
-      <c r="AB89" t="s">
+      <c r="AA89" t="s">
         <v>146</v>
       </c>
     </row>
@@ -31951,7 +32140,7 @@
       <c r="H90" t="s">
         <v>287</v>
       </c>
-      <c r="AB90" t="s">
+      <c r="AA90" t="s">
         <v>198</v>
       </c>
     </row>
@@ -31959,7 +32148,7 @@
       <c r="H91" t="s">
         <v>271</v>
       </c>
-      <c r="AB91" t="s">
+      <c r="AA91" t="s">
         <v>644</v>
       </c>
     </row>
@@ -31967,7 +32156,7 @@
       <c r="H92" t="s">
         <v>272</v>
       </c>
-      <c r="AB92" t="s">
+      <c r="AA92" t="s">
         <v>726</v>
       </c>
     </row>
@@ -31975,7 +32164,7 @@
       <c r="H93" t="s">
         <v>304</v>
       </c>
-      <c r="AB93" t="s">
+      <c r="AA93" t="s">
         <v>199</v>
       </c>
     </row>
@@ -31983,7 +32172,7 @@
       <c r="H94" t="s">
         <v>310</v>
       </c>
-      <c r="AB94" t="s">
+      <c r="AA94" t="s">
         <v>453</v>
       </c>
     </row>
@@ -31991,7 +32180,7 @@
       <c r="H95" t="s">
         <v>294</v>
       </c>
-      <c r="AB95" t="s">
+      <c r="AA95" t="s">
         <v>200</v>
       </c>
     </row>
@@ -31999,7 +32188,7 @@
       <c r="H96" t="s">
         <v>339</v>
       </c>
-      <c r="AB96" t="s">
+      <c r="AA96" t="s">
         <v>201</v>
       </c>
     </row>
@@ -32007,7 +32196,7 @@
       <c r="H97" t="s">
         <v>276</v>
       </c>
-      <c r="AB97" t="s">
+      <c r="AA97" t="s">
         <v>711</v>
       </c>
     </row>
@@ -32015,272 +32204,272 @@
       <c r="H98" t="s">
         <v>277</v>
       </c>
-      <c r="AB98" t="s">
+      <c r="AA98" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="99">
-      <c r="AB99" t="s">
+      <c r="AA99" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="100">
-      <c r="AB100" t="s">
+      <c r="AA100" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="101">
-      <c r="AB101" t="s">
+      <c r="AA101" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="102">
-      <c r="AB102" t="s">
+      <c r="AA102" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="103">
-      <c r="AB103" t="s">
+      <c r="AA103" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="104">
-      <c r="AB104" t="s">
+      <c r="AA104" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="105">
-      <c r="AB105" t="s">
+      <c r="AA105" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="106">
-      <c r="AB106" t="s">
+      <c r="AA106" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="107">
-      <c r="AB107" t="s">
+      <c r="AA107" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="108">
-      <c r="AB108" t="s">
+      <c r="AA108" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="109">
-      <c r="AB109" t="s">
+      <c r="AA109" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="110">
-      <c r="AB110" t="s">
+      <c r="AA110" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="111">
-      <c r="AB111" t="s">
+      <c r="AA111" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="112">
-      <c r="AB112" t="s">
+      <c r="AA112" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="113">
-      <c r="AB113" t="s">
+      <c r="AA113" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="114">
-      <c r="AB114" t="s">
+      <c r="AA114" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="115">
-      <c r="AB115" t="s">
+      <c r="AA115" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="116">
-      <c r="AB116" t="s">
+      <c r="AA116" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="117">
-      <c r="AB117" t="s">
+      <c r="AA117" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="118">
-      <c r="AB118" t="s">
+      <c r="AA118" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="119">
-      <c r="AB119" t="s">
+      <c r="AA119" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="120">
-      <c r="AB120" t="s">
+      <c r="AA120" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="121">
-      <c r="AB121" t="s">
+      <c r="AA121" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="122">
-      <c r="AB122" t="s">
+      <c r="AA122" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="123">
-      <c r="AB123" t="s">
+      <c r="AA123" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="124">
-      <c r="AB124" t="s">
+      <c r="AA124" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="125">
-      <c r="AB125" t="s">
+      <c r="AA125" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="126">
-      <c r="AB126" t="s">
+      <c r="AA126" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="127">
-      <c r="AB127" t="s">
+      <c r="AA127" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="128">
-      <c r="AB128" t="s">
+      <c r="AA128" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="129">
-      <c r="AB129" t="s">
+      <c r="AA129" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="130">
-      <c r="AB130" t="s">
+      <c r="AA130" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="131">
-      <c r="AB131" t="s">
+      <c r="AA131" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="132">
-      <c r="AB132" t="s">
+      <c r="AA132" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="133">
-      <c r="AB133" t="s">
+      <c r="AA133" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="134">
-      <c r="AB134" t="s">
+      <c r="AA134" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="135">
-      <c r="AB135" t="s">
+      <c r="AA135" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="136">
-      <c r="AB136" t="s">
+      <c r="AA136" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="137">
-      <c r="AB137" t="s">
+      <c r="AA137" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="138">
-      <c r="AB138" t="s">
+      <c r="AA138" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="139">
-      <c r="AB139" t="s">
+      <c r="AA139" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="140">
-      <c r="AB140" t="s">
+      <c r="AA140" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="141">
-      <c r="AB141" t="s">
+      <c r="AA141" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="142">
-      <c r="AB142" t="s">
+      <c r="AA142" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="143">
-      <c r="AB143" t="s">
+      <c r="AA143" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="144">
-      <c r="AB144" t="s">
+      <c r="AA144" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="145">
-      <c r="AB145" t="s">
+      <c r="AA145" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="146">
-      <c r="AB146" t="s">
+      <c r="AA146" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="147">
-      <c r="AB147" t="s">
+      <c r="AA147" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="148">
-      <c r="AB148" t="s">
+      <c r="AA148" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="149">
-      <c r="AB149" t="s">
+      <c r="AA149" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="150">
-      <c r="AB150" t="s">
+      <c r="AA150" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="151">
-      <c r="AB151" t="s">
+      <c r="AA151" t="s">
         <v>767</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25882" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26484" uniqueCount="813">
   <si>
     <t>description</t>
   </si>
@@ -2612,7 +2612,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="752" x14ac:knownFonts="1">
+  <fonts count="769" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7366,8 +7366,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1268">
+  <fills count="1292">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14140,6 +14247,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -27602,7 +27845,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="790">
+  <cellXfs count="807">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -29951,55 +30194,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1240" fontId="734" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="735" fillId="1246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1246" fontId="735" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="736" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="736" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="737" fillId="1249" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1249" fontId="737" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="738" fillId="1252" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1252" fontId="738" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="739" fillId="1255" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1255" fontId="739" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="740" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="740" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="741" fillId="1258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1258" fontId="741" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="742" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="742" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="743" fillId="1261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1261" fontId="743" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="744" fillId="1264" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1264" fontId="744" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="745" fillId="1252" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1252" fontId="745" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="746" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="746" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="747" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="747" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="748" fillId="1255" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1255" fontId="748" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="749" fillId="1267" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1267" fontId="749" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="750" fillId="1255" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1255" fontId="750" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="751" fillId="1264" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1264" fontId="751" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="752" fillId="1270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="753" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="754" fillId="1273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="755" fillId="1276" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="756" fillId="1279" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="757" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="758" fillId="1282" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="759" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="760" fillId="1285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="761" fillId="1288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="762" fillId="1276" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="763" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="764" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="765" fillId="1279" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="766" fillId="1291" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="767" fillId="1279" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="768" fillId="1288" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/jmeter-showcase.xlsx
@@ -28,15 +28,15 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$31</definedName>
+    <definedName name="io">'#system'!$L$2:$L$32</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26484" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27093" uniqueCount="820">
   <si>
     <t>description</t>
   </si>
@@ -2606,13 +2606,34 @@
   <si>
     <t>openFile(filePath)</t>
   </si>
+  <si>
+    <t>checksum(var,file)</t>
+  </si>
+  <si>
+    <t>clearComposed(var)</t>
+  </si>
+  <si>
+    <t>compose(var,config,value)</t>
+  </si>
+  <si>
+    <t>sendComposed(profile,var)</t>
+  </si>
+  <si>
+    <t>ocr(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>savePageCount(pdf,var)</t>
+  </si>
+  <si>
+    <t>split(pdf,saveTo)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="769" x14ac:knownFonts="1">
+  <fonts count="786" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7473,8 +7494,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1292">
+  <fills count="1316">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14247,6 +14375,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -27845,7 +28109,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="807">
+  <cellXfs count="824">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -30245,55 +30509,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1264" fontId="751" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="752" fillId="1270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1270" fontId="752" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="753" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="753" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="754" fillId="1273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1273" fontId="754" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="755" fillId="1276" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1276" fontId="755" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="756" fillId="1279" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1279" fontId="756" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="757" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="757" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="758" fillId="1282" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1282" fontId="758" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="759" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="759" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="760" fillId="1285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1285" fontId="760" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="761" fillId="1288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1288" fontId="761" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="762" fillId="1276" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1276" fontId="762" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="763" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="763" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="764" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="764" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="765" fillId="1279" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1279" fontId="765" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="766" fillId="1291" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1291" fontId="766" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="767" fillId="1279" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1279" fontId="767" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="768" fillId="1288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1288" fontId="768" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="769" fillId="1294" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="770" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="771" fillId="1297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="772" fillId="1300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="773" fillId="1303" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="774" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="775" fillId="1306" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="776" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="777" fillId="1309" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="778" fillId="1312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="779" fillId="1300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="780" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="781" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="782" fillId="1303" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="783" fillId="1315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="784" fillId="1303" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="785" fillId="1312" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -30807,7 +31122,7 @@
         <v>640</v>
       </c>
       <c r="Q2" t="s">
-        <v>416</v>
+        <v>814</v>
       </c>
       <c r="R2" t="s">
         <v>429</v>
@@ -30901,6 +31216,9 @@
       <c r="P3" t="s">
         <v>641</v>
       </c>
+      <c r="Q3" t="s">
+        <v>815</v>
+      </c>
       <c r="R3" t="s">
         <v>430</v>
       </c>
@@ -30987,6 +31305,9 @@
       <c r="P4" t="s">
         <v>642</v>
       </c>
+      <c r="Q4" t="s">
+        <v>416</v>
+      </c>
       <c r="R4" t="s">
         <v>26</v>
       </c>
@@ -31067,6 +31388,9 @@
       <c r="O5" t="s">
         <v>685</v>
       </c>
+      <c r="Q5" t="s">
+        <v>816</v>
+      </c>
       <c r="R5" t="s">
         <v>30</v>
       </c>
@@ -31198,7 +31522,7 @@
         <v>347</v>
       </c>
       <c r="L7" t="s">
-        <v>71</v>
+        <v>813</v>
       </c>
       <c r="N7" t="s">
         <v>314</v>
@@ -31260,7 +31584,7 @@
         <v>691</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="N8" t="s">
         <v>34</v>
@@ -31319,7 +31643,7 @@
         <v>328</v>
       </c>
       <c r="L9" t="s">
-        <v>665</v>
+        <v>16</v>
       </c>
       <c r="N9" t="s">
         <v>35</v>
@@ -31369,7 +31693,7 @@
         <v>728</v>
       </c>
       <c r="L10" t="s">
-        <v>79</v>
+        <v>665</v>
       </c>
       <c r="N10" t="s">
         <v>36</v>
@@ -31413,7 +31737,7 @@
         <v>729</v>
       </c>
       <c r="L11" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="N11" t="s">
         <v>633</v>
@@ -31451,7 +31775,7 @@
         <v>451</v>
       </c>
       <c r="L12" t="s">
-        <v>666</v>
+        <v>38</v>
       </c>
       <c r="N12" t="s">
         <v>692</v>
@@ -31489,7 +31813,7 @@
         <v>321</v>
       </c>
       <c r="L13" t="s">
-        <v>389</v>
+        <v>666</v>
       </c>
       <c r="N13" t="s">
         <v>435</v>
@@ -31501,7 +31825,7 @@
         <v>93</v>
       </c>
       <c r="S13" t="s">
-        <v>248</v>
+        <v>817</v>
       </c>
       <c r="AA13" t="s">
         <v>325</v>
@@ -31527,7 +31851,7 @@
         <v>322</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>389</v>
       </c>
       <c r="N14" t="s">
         <v>632</v>
@@ -31536,7 +31860,7 @@
         <v>94</v>
       </c>
       <c r="S14" t="s">
-        <v>732</v>
+        <v>248</v>
       </c>
       <c r="AA14" t="s">
         <v>102</v>
@@ -31562,7 +31886,7 @@
         <v>323</v>
       </c>
       <c r="L15" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="N15" t="s">
         <v>39</v>
@@ -31571,7 +31895,7 @@
         <v>660</v>
       </c>
       <c r="S15" t="s">
-        <v>253</v>
+        <v>732</v>
       </c>
       <c r="AA15" t="s">
         <v>756</v>
@@ -31597,7 +31921,7 @@
         <v>324</v>
       </c>
       <c r="L16" t="s">
-        <v>667</v>
+        <v>42</v>
       </c>
       <c r="N16" t="s">
         <v>705</v>
@@ -31606,7 +31930,7 @@
         <v>661</v>
       </c>
       <c r="S16" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AA16" t="s">
         <v>738</v>
@@ -31629,13 +31953,13 @@
         <v>316</v>
       </c>
       <c r="L17" t="s">
-        <v>80</v>
+        <v>667</v>
       </c>
       <c r="N17" t="s">
         <v>40</v>
       </c>
       <c r="S17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AA17" t="s">
         <v>103</v>
@@ -31658,13 +31982,13 @@
         <v>88</v>
       </c>
       <c r="L18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N18" t="s">
         <v>43</v>
       </c>
       <c r="S18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AA18" t="s">
         <v>74</v>
@@ -31684,7 +32008,10 @@
         <v>89</v>
       </c>
       <c r="L19" t="s">
-        <v>462</v>
+        <v>81</v>
+      </c>
+      <c r="S19" t="s">
+        <v>818</v>
       </c>
       <c r="AA19" t="s">
         <v>662</v>
@@ -31704,7 +32031,10 @@
         <v>295</v>
       </c>
       <c r="L20" t="s">
-        <v>82</v>
+        <v>462</v>
+      </c>
+      <c r="S20" t="s">
+        <v>251</v>
       </c>
       <c r="AA20" t="s">
         <v>104</v>
@@ -31724,7 +32054,10 @@
         <v>296</v>
       </c>
       <c r="L21" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="S21" t="s">
+        <v>819</v>
       </c>
       <c r="AA21" t="s">
         <v>105</v>
@@ -31744,7 +32077,7 @@
         <v>297</v>
       </c>
       <c r="L22" t="s">
-        <v>720</v>
+        <v>83</v>
       </c>
       <c r="AA22" t="s">
         <v>106</v>
@@ -31764,7 +32097,7 @@
         <v>298</v>
       </c>
       <c r="L23" t="s">
-        <v>602</v>
+        <v>720</v>
       </c>
       <c r="AA23" t="s">
         <v>107</v>
@@ -31784,7 +32117,7 @@
         <v>289</v>
       </c>
       <c r="L24" t="s">
-        <v>44</v>
+        <v>602</v>
       </c>
       <c r="AA24" t="s">
         <v>645</v>
@@ -31804,7 +32137,7 @@
         <v>278</v>
       </c>
       <c r="L25" t="s">
-        <v>391</v>
+        <v>44</v>
       </c>
       <c r="AA25" t="s">
         <v>109</v>
@@ -31824,7 +32157,7 @@
         <v>75</v>
       </c>
       <c r="L26" t="s">
-        <v>771</v>
+        <v>391</v>
       </c>
       <c r="AA26" t="s">
         <v>706</v>
@@ -31844,7 +32177,7 @@
         <v>281</v>
       </c>
       <c r="L27" t="s">
-        <v>684</v>
+        <v>771</v>
       </c>
       <c r="AA27" t="s">
         <v>110</v>
@@ -31864,7 +32197,7 @@
         <v>265</v>
       </c>
       <c r="L28" t="s">
-        <v>84</v>
+        <v>684</v>
       </c>
       <c r="AA28" t="s">
         <v>111</v>
@@ -31881,7 +32214,7 @@
         <v>282</v>
       </c>
       <c r="L29" t="s">
-        <v>433</v>
+        <v>84</v>
       </c>
       <c r="AA29" t="s">
         <v>112</v>
@@ -31898,7 +32231,7 @@
         <v>283</v>
       </c>
       <c r="L30" t="s">
-        <v>45</v>
+        <v>433</v>
       </c>
       <c r="AA30" t="s">
         <v>113</v>
@@ -31915,7 +32248,7 @@
         <v>215</v>
       </c>
       <c r="L31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA31" t="s">
         <v>326</v>
@@ -31930,6 +32263,9 @@
       </c>
       <c r="H32" t="s">
         <v>274</v>
+      </c>
+      <c r="L32" t="s">
+        <v>46</v>
       </c>
       <c r="AA32" t="s">
         <v>114</v>
